--- a/result.xlsx
+++ b/result.xlsx
@@ -496,17 +496,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>118668088</t>
+          <t>117874338</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Разработчик (Python)</t>
+          <t>Python Developer-разработчик</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Москва</t>
+          <t>Казань</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -516,33 +516,33 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/118668088</t>
+          <t>https://hh.ru/vacancy/117874338</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>&lt;p&gt;Мы ищем талантливого Python-разработчика, который станет частью нашей команды и поможет нам создавать передовые решения в области телекоммуникаций.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Обязанности:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Разработка и поддержка веб-приложений на Python.&lt;/li&gt; &lt;li&gt;Участие в проектировании архитектуры программного обеспечения.&lt;/li&gt; &lt;li&gt;Интеграция с внешними API и сервисами.&lt;/li&gt; &lt;li&gt;Оптимизация и улучшение производительности существующих приложений.&lt;/li&gt; &lt;li&gt;Работа в команде с другими разработчиками и участие в код-ревью.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Требования:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Знание Python и основных библиотек (Django, Flask и др.).&lt;/li&gt; &lt;li&gt;Понимание принципов ООП и опыт работы с базами данных (SQL, NoSQL).&lt;/li&gt; &lt;li&gt;Умение работать с системами контроля версий (Git).&lt;/li&gt; &lt;li&gt;Желание учиться и развиваться в сфере телекоммуникаций.&lt;/li&gt; &lt;li&gt;Способность работать в команде и эффективно коммуницировать.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Условия и преимущества:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Полная занятость с графиком 5/2.&lt;/li&gt; &lt;li&gt;Удалённая работа с гибким началом рабочего дня.&lt;/li&gt; &lt;li&gt;Возможность профессионального роста и обучения.&lt;/li&gt; &lt;li&gt;Работа в дружной и поддерживающей команде.&lt;/li&gt; &lt;li&gt;Участие в интересных и значимых проектах.&lt;/li&gt; &lt;/ul&gt;</t>
+          <t>&lt;p&gt;&lt;strong&gt;Python Developer&lt;/strong&gt;&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Обязанности:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Участие в команде по разработке ГИС-системы с поддержкой двумерных (2D) и трехмерных (3D) данных&lt;/li&gt; &lt;li&gt;Разработка модулей для QGIS на языке Python&lt;/li&gt; &lt;li&gt;Разработка эффективных и масштабируемых алгоритмов обработки больших объемов геоданных&lt;/li&gt; &lt;li&gt;Разработка модулей для работы с векторными данными&lt;/li&gt; &lt;li&gt;Разработка модулей для работы с растровыми данными&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;br /&gt;&lt;strong&gt;Требования:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Навыки программирования в части ГИС&lt;/li&gt; &lt;li&gt;Понимание принципов геоинформационных систем, включая работу с геоданными, пространственными запросами, манипуляцию геометрией, проекции карт и т.д.&lt;/li&gt; &lt;li&gt;Уверенный уровень работы с Python (опыт работы с geopandas, folium, Shapely, SciPy, Pandas и другими библиотеками для геоаналитики);&lt;/li&gt; &lt;li&gt;Знание форматов данных для геоинформационных систем, таких как GeoJSON, Shapefile, KML и другими форматами, а также умение интегрировать и обрабатывать эти данные&lt;/li&gt; &lt;li&gt;Уверенное владение QGIS, ArcGIS, или другими программами для геопространственного анализа&lt;/li&gt; &lt;li&gt;Опыт работы с Postgresql и PostGis&lt;/li&gt; &lt;li&gt;Опыт интеграции с внешними библиотеками и API&lt;/li&gt; &lt;li&gt;Опыт разработки с использованием библиотеки QGIS&lt;/li&gt; &lt;li&gt;Умение переписать алгоритмически более сложное на менее сложное без потерь функциональности&lt;/li&gt; &lt;/ul&gt;</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>[{'name': 'Python'}, {'name': 'SQL'}, {'name': 'Atlassian Confluence'}, {'name': 'Atlassian Jira'}, {'name': 'Gitlab'}, {'name': 'Постановка задач разработчикам'}, {'name': 'Рефакторинг кода'}, {'name': 'Оптимизация кода'}, {'name': 'NoSQL'}]</t>
+          <t>[{'name': 'Python'}, {'name': 'QGIS'}, {'name': 'geopandas'}, {'name': 'Shapely'}, {'name': 'SciPy'}, {'name': 'pandas'}, {'name': 'геоаналитика'}, {'name': 'ArcGIS'}, {'name': 'PostGis'}, {'name': 'Оптимизация кода'}]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2025-03-31T09:49:46+0300</t>
+          <t>2025-03-30T09:33:54+0300</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2025-03-31T09:49:46+0300</t>
+          <t>2025-03-30T09:33:54+0300</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>https://api.hh.ru/vacancies/118668088?host=hh.ru</t>
+          <t>https://api.hh.ru/vacancies/117874338?host=hh.ru</t>
         </is>
       </c>
     </row>
@@ -552,17 +552,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>118465495</t>
+          <t>118750751</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Python разработчик / Backend-разработчик/ Junior</t>
+          <t>Junior Python Developer</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Рязань</t>
+          <t>Минск</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -572,33 +572,33 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/118465495</t>
+          <t>https://hh.ru/vacancy/118750751</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>&lt;p&gt; &lt;/p&gt; &lt;p&gt;Занимаемся автоматизацией ресторанного бизнеса на системе iiko. За 10 лет работы мы реализовали более 2500 успешных IT проектов.&lt;/p&gt; &lt;p&gt;В связи с активным ростом ищем в нашу команду Backend уровня junior&lt;/p&gt; &lt;p&gt;Предстоит заниматься разработкой, писать код относительно технических задач на микросервисную архитектуру на базе REST API.&lt;/p&gt; &lt;p&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Обязанности:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;Осуществлять разработку и обеспечивать поддержку бэкенд-компонентов на языке Python.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Создавать RESTful API, применяя фреймворки FastAPI.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Использовать асинхронное программирование в Python.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Осуществлять интеграцию с системами управления базами данных.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Разрабатывать тесты ( unit и интеграционные).&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Управлять версиями проекта через GitHub.&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt; &lt;p&gt; &lt;/p&gt; &lt;p&gt;&lt;strong&gt;Требования:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;От тебя мы не требуем коммерческого опыта работы, рассматриваем кандидатов, которые окончили курсы или изучили язык самостоятельно. &lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Умение разрабатывать и поддерживать микросервисную архитектуру на базе FastApi.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Опыт работы с базами данных.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Знание принципов и опыт применения асинхронного программирования в Python.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Опыт использования систем управления версиями (Git).&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Способность к написанию чистого и оптимизированного кода.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Желание и готовность к освоению новых технологий.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Наличие успешных кейсов, pet-проектов - будет преимуществом&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt; &lt;p&gt; &lt;/p&gt; &lt;p&gt;&lt;strong&gt;Условия:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;Полная удаленка или офис в г. Рязань(по желанию).&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Работа в молодой дружной сплоченной команде&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Перспектива карьерного &lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Достойная оплата труда(Согласовывается с успешным кандидатом) &lt;/p&gt; &lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;В сопроводительном письме укажите ссылки на проекты/примеры работ, которые вы реализовали или принимали участие в разработке и ожидаемый уровень дохода.&lt;/strong&gt;&lt;/p&gt;</t>
+          <t>&lt;p&gt;&lt;strong&gt;Опыт работы:&lt;/strong&gt;&lt;br /&gt;- с Python фреймворками асинхронными и синхронными (Django/FastAPI / Flask);&lt;br /&gt;- с Python Core и встроенной библиотекой;&lt;br /&gt;- с асинхронным программированием (AsyncIO);&lt;br /&gt;- с написанием юнит-тестов;&lt;br /&gt;- с ORM, SQLAlchemy, DjangoORM;&lt;br /&gt;- в написании SQL запросов;&lt;br /&gt;- с Pydantic или Marshmellow;&lt;br /&gt;- с SQL базами данных (PostgreSQL);&lt;br /&gt;- с Kafka / RabbitMQ;&lt;br /&gt;- с No-SQL хранилищами (MongoDB, DynamoDB, Redis);&lt;br /&gt;- с облачными сервисами (AWS / Azure / GСP);&lt;br /&gt;- с Docker;&lt;br /&gt;- с Pytest.&lt;br /&gt;- с GNU/linux;&lt;br /&gt;Знание принципов CI/CD;&lt;br /&gt;Английский B1 и выше.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Будет плюсом:&lt;/strong&gt;&lt;br /&gt;- комерческий опытж;&lt;br /&gt;- знание JS (React, Angular, Vue);&lt;br /&gt;- знание Kubernetes (K8S);&lt;br /&gt;&lt;br /&gt;&lt;strong&gt;Условия работы:&lt;/strong&gt;&lt;br /&gt;-Удаленная работа&lt;br /&gt;-Обмен опытом и поддержка от опытных разработчиков&lt;br /&gt;-Защищённая от инфляции заработная плата&lt;/p&gt;</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>[{'name': 'Python'}, {'name': 'FastAPI'}, {'name': 'REST API'}, {'name': 'PostgreSQL'}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2025-04-01T17:21:28+0300</t>
+          <t>2025-03-25T10:27:47+0300</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2025-04-01T17:21:28+0300</t>
+          <t>2025-03-25T10:27:47+0300</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>https://api.hh.ru/vacancies/118465495?host=hh.ru</t>
+          <t>https://api.hh.ru/vacancies/118750751?host=hh.ru</t>
         </is>
       </c>
     </row>
@@ -608,17 +608,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>118005598</t>
+          <t>118106689</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Team Lead Python</t>
+          <t>Backend Python-программист</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Москва</t>
+          <t>Санкт-Петербург</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -628,12 +628,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/118005598</t>
+          <t>https://hh.ru/vacancy/118106689</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>&lt;div&gt;&lt;strong&gt;А2КОД&lt;/strong&gt; - компания, работающая на рынĸе облачных услуг, приглашает Python разработчиĸа с уровнем Middle + и опытом работы от 1 года Тим лидом присоединиться ĸ нашей ĸоманде.&lt;/div&gt; &lt;div&gt;Мы ищем&lt;strong&gt; разработчиĸа Python на должность Team Lead&lt;/strong&gt; в проеĸт Облачной платформы (Cloud Management Platform).&lt;/div&gt; &lt;div&gt; &lt;/div&gt; &lt;div&gt;Наша миссия: создание надежных сервисов по управлению, аналитиĸе и учету ресурсов виртуальной инфраструĸтуры ĸомпаний-заĸазчиĸов. Основной продуĸт ĸомпании платформа Cloudlink - IaaS решение для ĸрупных ĸомпаний, имеющих свою виртуальную инфраструĸтуру.&lt;/div&gt; &lt;div&gt; &lt;/div&gt; &lt;div&gt;&lt;strong&gt;Вам предстоит: &lt;/strong&gt;&lt;/div&gt; &lt;div&gt;• Разрабатывать и поддерживать облачную платформу;&lt;/div&gt; &lt;div&gt;• Автоматизировать процессы, связанные с жизненным циĸлом ĸомпонентов инфраструĸтуры;&lt;/div&gt; &lt;div&gt; &lt;/div&gt; &lt;div&gt;&lt;strong&gt;Мы ожидаем, что Вы&lt;/strong&gt;:&lt;/div&gt; &lt;p&gt;&lt;strong&gt;имеете опыт работы в качестве Тим лида около 1 года;&lt;/strong&gt;&lt;/p&gt; &lt;p&gt;&lt;strong&gt;имеете опыт ĸоммерчесĸой разработĸи на Python от 4 лет;&lt;/strong&gt;&lt;/p&gt; &lt;p&gt;знаете про параллельные вычисления и имеете опыт использования библиотеĸи asyncio;&lt;/p&gt; &lt;p&gt;работали с фреймворĸами Django/Flask;&lt;/p&gt; &lt;p&gt;любите и умеете писать unit-тесты (предпочтительно знание pytest);&lt;/p&gt; &lt;p&gt;знаете SQL и имеете опыт работы с PostgreSQL;&lt;/p&gt; &lt;p&gt;имеете опыт работы с RabbitMQ;&lt;/p&gt; &lt;div&gt; &lt;/div&gt; &lt;div&gt;&lt;strong&gt;Будет плюсом: &lt;/strong&gt;&lt;/div&gt; &lt;div&gt;• опыт работы с Clickhouse и другими базами данных;&lt;/div&gt; &lt;div&gt;• опыт работы с Docker, Kubernetes;&lt;/div&gt; &lt;div&gt;• знаĸомство с платформами виртуализации (OpenStack, Vmware Vsphere и т. п.)&lt;/div&gt; &lt;div&gt; &lt;/div&gt; &lt;div&gt;&lt;strong&gt;Мы предлагаем:&lt;/strong&gt;&lt;/div&gt; &lt;div&gt;Официальное трудоустройство по ТК РФ;&lt;/div&gt; &lt;div&gt;Конкурентоспособную, стабильную и своевременную заработную плату;&lt;/div&gt; &lt;div&gt;Удаленный формат работы;&lt;/div&gt; &lt;div&gt;Для комфортной работы, может быть предоставлено современное оборудование;&lt;/div&gt; &lt;div&gt;ДМС после прохождения испытательного срока;&lt;/div&gt; &lt;div&gt;Возможность обучаться за счет компании, посещать конференции по профессиональной тематике.&lt;/div&gt;</t>
+          <t>&lt;p&gt;Мы MA Decigi — входим в топ-50 селлеров Wildberries с оборотом 3 миллиарда рублей. Более 15% нашего штата это программисты. &lt;/p&gt; &lt;p&gt;Имеем уникальную ERP систему для взаимодействия с маркетплейсами&lt;/p&gt; &lt;p&gt;Используем AI ( собственной разработки ) для создания трендовых высокомаржинальных товаров в Fashion &lt;/p&gt; &lt;p&gt;&lt;strong&gt;О ПРОЕКТЕ&lt;/strong&gt;&lt;/p&gt; &lt;p&gt;В команду, занимающуюся развитием AI платформы для работы с фото и видео контентом на следующих базовых принципах:&lt;/p&gt; &lt;p&gt;Мощная AI-модель анализирует фото, очищает его от ненужных объектов и создает идеальную основу для работы.&lt;/p&gt; &lt;p&gt;�� Фабрика нейросетей, обученная на миллионах изображений, воссоздает цифровой образ товара с максимальной точностью.&lt;/p&gt; &lt;p&gt;�� Генератор стиля формирует высококачественные изображения, работая в несколько этапов – улучшая детали, освещение, динамику кадра.&lt;/p&gt; &lt;p&gt;�� AI-видеостудия превращает статичные изображения в захватывающие видео, где одежда оживает – модель двигается, позирует, взаимодействует с окружающей средой. &lt;/p&gt; &lt;p&gt;В рамках проекта мы ищем опытного Python- программиста разработчика для создания автоматических процессов виртуальной примерки (Virtual Try-On) одежды на моделях, создания цифровых образов товаров для реалистичных нейрогенераций фото и видео контента. Профессионала, способного с высоким качеством и адекватными сроками выполнять поставленные задачи, соблюдать взятые на себя обязательства, стремиться к развитию и оптимальному решению задач.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Обязанности:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Писать качественный, понятный и тестируемый код;&lt;/li&gt; &lt;li&gt;Участвовать в проектирование архитектуры приложения и БД;&lt;/li&gt; &lt;li&gt;Развивать CI/CD, ревью кода и процесс разработки в целом.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Требования:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Опыт работы от 2 лет;&lt;/li&gt; &lt;li&gt;Умение планировать свое время, правильно расставлять приоритеты и ответственно подходить к соблюдению сроков решения задач и качеству исполнения;&lt;/li&gt; &lt;li&gt;Отличные знания Python;&lt;/li&gt; &lt;li&gt;Опыт работы с библиотеками: Fast API, SQLAlchemy, Asyncio, Pydantic;&lt;/li&gt; &lt;li&gt;Знания и опыт работы с Mongo DB, PostgreSQL;&lt;/li&gt; &lt;li&gt;Умение работать с Git;&lt;/li&gt; &lt;li&gt;Опыт работы с Linux, Nginx (установка, настройка);&lt;/li&gt; &lt;li&gt;Умения работать с Docker (понимание технологии, навыки сборки и запуска с распределением нагрузки и отказоустойчивости)&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;Плюсом будет опыт работы с Teamcity, Vault, Consul, Kafka, RabbitMQ&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Условия:&lt;/strong&gt; &lt;/p&gt; &lt;p&gt;• Участие в проекте, изменяющий мир.&lt;/p&gt; &lt;p&gt;• Гибкий график и удаленный формат работы.&lt;/p&gt; &lt;p&gt;• Доступ к современным инструментам и вычислительным ресурсам.&lt;/p&gt; &lt;p&gt;• Возможность влиять на продукт и реализовывать свои идеи.&lt;/p&gt; &lt;p&gt;• Конкурентоспособную оплату (обсуждается индивидуально в зависимости от&lt;/p&gt; &lt;p&gt;опыта).&lt;/p&gt; &lt;p&gt;• Карьерный и профессиональный рост.&lt;/p&gt; &lt;p&gt;• Работа в слаженной команде с опытными коллегами.&lt;/p&gt; &lt;p&gt;Как откликнуться&lt;/p&gt; &lt;p&gt;В сопроводительном письме расскажите какие задачи вы уже решали с ComfyUI и приложите ссылки на ваши работы, если они есть.&lt;/p&gt;</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -644,17 +644,17 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2025-04-01T16:41:53+0300</t>
+          <t>2025-04-06T08:35:25+0300</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2025-04-01T16:41:53+0300</t>
+          <t>2025-04-06T08:35:25+0300</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>https://api.hh.ru/vacancies/118005598?host=hh.ru</t>
+          <t>https://api.hh.ru/vacancies/118106689?host=hh.ru</t>
         </is>
       </c>
     </row>
@@ -664,17 +664,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>118011144</t>
+          <t>118776384</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DevOps-разработчик</t>
+          <t>Data аналитик</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Москва</t>
+          <t>Екатеринбург</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -684,12 +684,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/118011144</t>
+          <t>https://hh.ru/vacancy/118776384</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>&lt;strong&gt;&lt;em&gt;Обязанности&lt;/em&gt;:&lt;/strong&gt; &lt;ul&gt; &lt;li&gt;Настройка и поддержка CI/CD pipelines.&lt;/li&gt; &lt;li&gt;Оптимизация процессов сборки, тестирования и деплоя.&lt;/li&gt; &lt;li&gt;Управление инфраструктурой (облачной и on-premise).&lt;/li&gt; &lt;li&gt;Обеспечение отказоустойчивости и масштабируемости систем.&lt;/li&gt; &lt;li&gt;Автоматизация рутинных задач.&lt;/li&gt; &lt;li&gt;Мониторинг и анализ производительности систем.&lt;/li&gt; &lt;li&gt;Участие в разработке и внедрении лучших практик DevOps.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;em&gt;&lt;strong&gt;Основные навыки и опыт:&lt;/strong&gt;&lt;/em&gt;&lt;/p&gt; &lt;ol&gt; &lt;li&gt;&lt;strong&gt;Опыт работы в DevOps&lt;/strong&gt;&lt;strong&gt;/SRE&lt;/strong&gt;&lt;strong&gt;/системном администрировании&lt;/strong&gt; от 2-3 лет.&lt;/li&gt; &lt;li&gt;&lt;strong&gt;Знание языков программирования&lt;/strong&gt;: &lt;ul&gt; &lt;li&gt;Python (написание скриптов, автоматизация задач).&lt;/li&gt; &lt;li&gt;Go (понимание синтаксиса, возможность читать и дорабатывать код).&lt;/li&gt; &lt;/ul&gt; &lt;/li&gt; &lt;li&gt;&lt;strong&gt;Работа с системами CI&lt;/strong&gt;&lt;strong&gt;/CD&lt;/strong&gt;: &lt;ul&gt; &lt;li&gt;Опыт настройки и поддержки GitLab CI/CD.&lt;/li&gt; &lt;li&gt;Знание TeamCity или аналогичных инструментов (Jenkins, GitHub Actions и т.д.).&lt;/li&gt; &lt;/ul&gt; &lt;/li&gt; &lt;li&gt;&lt;strong&gt;Контейнеризация и оркестрация&lt;/strong&gt;: &lt;ul&gt; &lt;li&gt;Опыт работы с Docker (создание и оптимизация образов, управление контейнерами).&lt;/li&gt; &lt;li&gt;Базовое понимание Kubernetes (если используется в проектах).&lt;/li&gt; &lt;/ul&gt; &lt;/li&gt; &lt;li&gt;&lt;strong&gt;Инфраструктура как код (IaC)&lt;/strong&gt;: &lt;ul&gt; &lt;li&gt;Знание Terraform, Ansible или аналогичных инструментов.&lt;/li&gt; &lt;/ul&gt; &lt;/li&gt; &lt;li&gt;&lt;strong&gt;Мониторинг и логирование&lt;/strong&gt;: &lt;ul&gt; &lt;li&gt;Опыт работы с системами мониторинга (Prometheus, Grafana, Zabbix и т.д.).&lt;/li&gt; &lt;li&gt;Настройка и управление системами логирования (ELK Stack, Loki, Fluentd и др.).&lt;/li&gt; &lt;/ul&gt; &lt;/li&gt; &lt;li&gt;&lt;strong&gt;Анализ качества кода&lt;/strong&gt;: &lt;ul&gt; &lt;li&gt;Опыт работы с SonarQube или аналогичными инструментами для анализа кода.&lt;/li&gt; &lt;/ul&gt; &lt;/li&gt; &lt;li&gt;&lt;strong&gt;Работа с облачными платформами&lt;/strong&gt;: &lt;ul&gt; &lt;li&gt;Опыт работы с облачными провайдерами (AWS, GCP, Azure, Yandex Cloud и др.).&lt;/li&gt; &lt;li&gt;Настройка и управление облачными ресурсами (VPC, балансировщики, базы данных и т.д.).&lt;/li&gt; &lt;/ul&gt; &lt;/li&gt; &lt;li&gt;&lt;strong&gt;Системы управления версиями&lt;/strong&gt;: &lt;ul&gt; &lt;li&gt;Уверенное владение Git (GitLab, GitHub, Bitbucket).&lt;/li&gt; &lt;li&gt;Понимание GitFlow или аналогичных методологий.&lt;/li&gt; &lt;/ul&gt; &lt;/li&gt; &lt;li&gt;&lt;strong&gt;Сетевые знания&lt;/strong&gt;: &lt;ul&gt; &lt;li&gt;Понимание основ сетевых протоколов (TCP/IP, HTTP/HTTPS, DNS, VPN).&lt;/li&gt; &lt;li&gt;Настройка и управление сетевыми компонентами (firewalls, load balancers).&lt;/li&gt; &lt;/ul&gt; &lt;/li&gt; &lt;/ol&gt; &lt;p&gt; &lt;/p&gt; &lt;p&gt;&lt;em&gt;&lt;strong&gt;Дополнительные навыки:&lt;/strong&gt;&lt;/em&gt;&lt;/p&gt; &lt;ol&gt; &lt;li&gt;&lt;strong&gt;Работа с базами данных&lt;/strong&gt;: &lt;ul&gt; &lt;li&gt;Опыт настройки и администрирования PostgreSQL, MySQL, Redis и других СУБД.&lt;/li&gt; &lt;/ul&gt; &lt;/li&gt; &lt;li&gt;&lt;strong&gt;Автоматизация процессов&lt;/strong&gt;: &lt;ul&gt; &lt;li&gt;Написание скриптов для автоматизации рутинных задач (bash, Python).&lt;/li&gt; &lt;/ul&gt; &lt;/li&gt; &lt;li&gt;&lt;strong&gt;Безопасность&lt;/strong&gt;: &lt;ul&gt; &lt;li&gt;Понимание принципов безопасности (SSL/TLS, шифрование, управление секретами через Vault или аналоги).&lt;/li&gt; &lt;/ul&gt; &lt;/li&gt; &lt;li&gt;&lt;strong&gt;Работа с очередями и брокерами сообщений&lt;/strong&gt;: &lt;ul&gt; &lt;li&gt;Опыт работы с RabbitMQ, Kafka, Redis Streams и т.д.&lt;/li&gt; &lt;/ul&gt; &lt;/li&gt; &lt;li&gt;&lt;strong&gt;Управление конфигурациями&lt;/strong&gt;: &lt;ul&gt; &lt;li&gt;Опыт работы с Puppet, Chef или аналогичными инструментами.&lt;/li&gt; &lt;/ul&gt; &lt;/li&gt; &lt;/ol&gt; &lt;p&gt; &lt;/p&gt; &lt;p&gt;&lt;em&gt;&lt;strong&gt;Личные качества:&lt;/strong&gt;&lt;/em&gt;&lt;/p&gt; &lt;ol&gt; &lt;li&gt;Умение работать в команде и взаимодействовать с разработчиками, тестировщиками и другими специалистами.&lt;/li&gt; &lt;li&gt;Ответственность, инициативность и готовность к обучению новым технологиям.&lt;/li&gt; &lt;li&gt;Навыки решения проблем и поиска оптимальных решений.&lt;/li&gt; &lt;li&gt;Умение документировать процессы и решения.&lt;/li&gt; &lt;/ol&gt; &lt;p&gt; &lt;/p&gt; &lt;p&gt;&lt;em&gt;&lt;strong&gt;Будет плюсом:&lt;/strong&gt;&lt;/em&gt;&lt;/p&gt; &lt;ol&gt; &lt;li&gt;Опыт работы с микросервисной архитектурой.&lt;/li&gt; &lt;li&gt;Знание принципов SRE (Site Reliability Engineering).&lt;/li&gt; &lt;li&gt;Опыт работы с распределенными системами и high-load проектами.&lt;/li&gt; &lt;li&gt;Сертификации в области DevOps (AWS Certified DevOps Engineer, Kubernetes Administrator и др.).&lt;/li&gt; &lt;/ol&gt; &lt;p&gt;​​​​​​​&lt;/p&gt; &lt;strong&gt;Условия:&lt;/strong&gt; &lt;ul&gt; &lt;li&gt;Работа в стабильной компании;&lt;/li&gt; &lt;li&gt; &lt;p&gt;Оформление на постоянную работу по трудовому договору;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Пятидневная рабочая неделя;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;ДМС по итогам прохождения испытательного срока.&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt;</t>
+          <t>&lt;p&gt;&lt;strong&gt;Обязанности:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Разрабатывать отчёты и мониторинг метрик продукта;&lt;/li&gt; &lt;li&gt;Находить точки роста и «узкие места» продукта;&lt;/li&gt; &lt;li&gt;Проводить A/B-тесты;&lt;/li&gt; &lt;li&gt;Валидировать проблемы и решения команды;&lt;/li&gt; &lt;li&gt;Проводить анализ конкурентов /аналогичных систем, используемых в компании.&lt;/li&gt; &lt;/ul&gt; &lt;strong&gt;Требования:&lt;/strong&gt; &lt;ul&gt; &lt;li&gt;Опыт в транспортных компаниях, ритейле и FMCG;&lt;/li&gt; &lt;li&gt;Знание математики и статистики;&lt;/li&gt; &lt;li&gt;Владение языками программирования;&lt;/li&gt; &lt;li&gt;Умение работать с таблицами в Google и Excel;&lt;/li&gt; &lt;li&gt;Работа с инструментами визуализации. Например, с Power BI, Tableau, Qlik;&lt;/li&gt; &lt;li&gt;Понимание потребностей бизнес-заказчиков;&lt;/li&gt; &lt;li&gt;Умение общаться с людьми нетехнических специальностей.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Стек&lt;/strong&gt;:&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Python;&lt;/li&gt; &lt;li&gt;SQL;&lt;/li&gt; &lt;li&gt;Визуализация данных (matplotlib, seaborn, plotly / BI - инструмента);&lt;/li&gt; &lt;li&gt;Git;&lt;/li&gt; &lt;li&gt;PyTest;&lt;/li&gt; &lt;li&gt;Grafana, Airflow.&lt;/li&gt; &lt;/ul&gt; &lt;strong&gt;Условия:&lt;/strong&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;Оформление по ТК РФ с возможностью профессионального и карьерного роста;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Развитая система компенсаций и льгот;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Широкий пакет ДМС (включая выезд за рубеж и стоматологию);&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Страхование жизни и здоровья;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Скидки в магазинах сети Х5 («Пятёрочка», «Перекрёсток»);&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Программа привилегий Prime-zone (скидки на товары и услуги и специальные предложения от компаний-партнёров).&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt;</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -700,17 +700,17 @@
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2025-04-01T19:09:23+0300</t>
+          <t>2025-05-08T11:32:01+0300</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2025-04-01T19:09:23+0300</t>
+          <t>2025-05-08T11:32:01+0300</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>https://api.hh.ru/vacancies/118011144?host=hh.ru</t>
+          <t>https://api.hh.ru/vacancies/118776384?host=hh.ru</t>
         </is>
       </c>
     </row>
@@ -720,17 +720,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>118977779</t>
+          <t>118608730</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Middle Python-разработчик (IoT/Embedded)</t>
+          <t>Аналитик-исследователь</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Москва</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -740,33 +740,33 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/118977779</t>
+          <t>https://hh.ru/vacancy/118608730</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>&lt;p&gt;&lt;em&gt;OGPT — технологическая it-компания, ориентированная на создание и внедрение передовых решений в области искусственного интеллекта и физико-математического моделирования в производственные процессы нефтегазодобычи. Мы разрабатываем уникальные продукты, которые помогают бизнесу значительно повышать свою эффективность, улучшать принятие решений и автоматизировать процессы. Наши технологии уже сегодня позволяют компаниям достигать выдающихся результатов, используя возможности искусственного интеллекта.&lt;/em&gt;&lt;/p&gt; &lt;p&gt;&lt;em&gt;В OGPT мы стремимся создавать инновационную среду, где каждый сотрудник может раскрыть свой потенциал, применяя свои знания и навыки для решения реальных и амбициозных задач. Мы ищем людей, которые готовы не только работать, но и развиваться вместе с нами, внося свой вклад в создание высококачественных продуктов, которые меняют будущее.&lt;/em&gt;&lt;/p&gt; &lt;p&gt;&lt;em&gt;Если вы хотите работать в динамичной и поддерживающей команде, где ценится креативность, экспертиза и стремление к совершенству, OGPT — это место для вас. Мы уверены, что только вместе, с лучшими специалистами, можно достигать высоких целей и воплощать инновации в жизнь.&lt;br /&gt;&lt;br /&gt;И сейчас мы ищем &lt;strong&gt;Middle Python-разработчика&lt;/strong&gt; &lt;strong&gt;(IoT/Embedded)&lt;/strong&gt; для работы над проектом по созданию IoT-приложений для автоматизированного управления и оптимизации процессов добычи нефти и газа на основе физ-мат. моделей (Model predictive control).&lt;/em&gt;&lt;/p&gt;&lt;br /&gt;&lt;strong&gt;Обязанности:&lt;/strong&gt; &lt;ul&gt; &lt;li&gt;Написание и оптимизация кода для приложений, которые будут работать на устройствах с ограниченными ресурсами;&lt;/li&gt; &lt;li&gt;Адаптация и рефакторинг кода в условиях динамично изменяющихся требований;&lt;/li&gt; &lt;li&gt;Разработка и тестирование прототипов на Python для проверки гипотез и функционала;&lt;/li&gt; &lt;li&gt;Анализ предметной области моделирования и оптимизации технологических процессов добычи, первичной переработки и транспорта нефти и газа;&lt;/li&gt; &lt;li&gt;Тесное взаимодействие с аналитиками для определения требований к разрабатываемому функционалу;&lt;/li&gt; &lt;li&gt;Участие в планировании и оценке задач, оценка сложности и времени выполнения;&lt;/li&gt; &lt;li&gt;Оптимизация производительности приложений;&lt;/li&gt; &lt;li&gt;Проектирование функциональной архитектуры системы, логической модели данных;&lt;/li&gt; &lt;li&gt;Подготовка Python-кода к последующему переносу на C++ или Rust, включая использование расширений на C/C++ при необходимости.&lt;/li&gt; &lt;/ul&gt; &lt;strong&gt;Требования:&lt;/strong&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;Опыт разработки приложений с нуля:&lt;/p&gt; - уверенное знание Python и способность писать чистый и поддерживаемый код без использования готовых фреймворков;&lt;br /&gt;- опыт создания приложений с нуля и разработки архитектуры для решения специфических задач;&lt;br /&gt;- понимание принципов модульности кода и способности проектировать код таким образом, чтобы он был легко адаптируемым под меняющиеся требования;&lt;/li&gt; &lt;li&gt; &lt;p&gt;Глубокие знания в области асинхронного программирования&lt;br /&gt;- умение писать асинхронный код с использованием asyncio, async/await, а также знание особенностей работы этих инструментов в Python;&lt;br /&gt;- опыт написания и оптимизации многопоточных и многопроцессорных приложений с использованием библиотек multiprocessing;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Оптимизация кода и работа с ограниченными ресурсами;&lt;br /&gt;- способность анализировать производительность кода и проводить его профилирование с целью выявления узких мест;&lt;br /&gt;- опыт написания кода, который экономно использует ресурсы CPU и памяти;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Опыт работы с базами данных: настройка и интеграция SQL/NoSQL баз данных, написание запросов;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Уверенные навыки работы с системой контроля версий Git, опыт проведения code-review и создания pull request&amp;#39;ов.&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;br /&gt;&lt;strong&gt;Будет плюсом:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Опыт работы с embedded-системами и понимание принципов работы железа;&lt;/li&gt; &lt;li&gt;Знание протоколов связи для IoT (Modbus (и его реализации), OPC UA и т.д.);&lt;/li&gt; &lt;li&gt;Знание и опыт разработки на одном из языков - C/C++/Rust;&lt;/li&gt; &lt;li&gt;Опыт написания Python-расширений на C/C++, Cython или Rust;&lt;/li&gt; &lt;li&gt;Опыт в создании и работе с тестовой средой для эмуляции работы на реальном железе.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;br /&gt;&lt;strong&gt;Условия:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Интересные задачи и возможность профессионального роста;&lt;/li&gt; &lt;li&gt;Высокий уровень дохода (мы готовы обсуждать условия дохода с каждым кандидатом по итогам личной встречи);&lt;/li&gt; &lt;li&gt;Удаленная работа;&lt;/li&gt; &lt;li&gt;ДМС;&lt;/li&gt; &lt;li&gt;Профессиональный и позитивный коллектив;&lt;/li&gt; &lt;li&gt;Возможность влиять на архитектуру и развитие продукта.&lt;br /&gt;&lt;br /&gt;&lt;strong&gt;Ждем ваши резюме!&lt;/strong&gt;&lt;/li&gt; &lt;/ul&gt;</t>
+          <t>&lt;p&gt;Привет, дорогой соискатель, и надеемся, что в скором коллега ;)&lt;br /&gt;Наша компания сейчас находится в поисках не только крутого специалиста, но и ценного партнера :)&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Что мы делаем?&lt;/strong&gt; ПО для борьбы с преступностью.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;А если точнее?&lt;/strong&gt; Благодаря нашему продукту мы предотвращаем теракты, боремся с наркоторговлей, торговлей людьми, помогаем ловить опасных преступников, а еще раскрывать сложные и запутанные преступления.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Почему мы выбрали такое необычное направление?&lt;/strong&gt; Мы искренне верим, что этот мир можно сделать чище и спокойнее для жизни. Для этого каждый сотрудник в компании прилагает все усилия для укрепления и развития нашей продуктовой линейки.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Какие у тебя будут обязанности:&lt;/strong&gt;&lt;/p&gt; &lt;p&gt; &lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;Генерация данных на ПК;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Исследование типов файлов и их содержимого; &lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Оформление документации по результатам исследований;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Составление технических заданий для разработчиков.&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Каким мы представляем нашего будущего коллегу:&lt;/strong&gt;&lt;/p&gt; &lt;p&gt; &lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;Ты продвинутый пользователь Windows + Linux;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;У тебя имеется технический бэкграунд;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;У тебя имеется высшее техническое образование;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;У тебя имеются базовые знания Python;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Ты обладаешь грамотной письменной речью, а также такими качествами как: исполнительность, внимательность, усидчивость.&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Что мы предлагаем по условиям?&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;Получить (наконец) адекватное руководство - от непосредственного руководителя до директора компании, которые никогда не оставят в беде и сделают все, что в их силах, чтобы помочь;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Комфортно работать и достойно зарабатывать. Пссс… У нас хочется остаться подольше ;)&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;ДМС после 6 месяцев работы;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Обучение за счет компании;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Каждый месяц компания предоставляет 1 дополнительный день оплаченного выходного ;)&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Удаленный формат работы.&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Мы не только понимаем, но и считаем, что каждый сотрудник — личность, а не инструмент и к каждому нужен индивидуальный подход.&lt;/strong&gt;&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Ждем нашей с тобой встречи, дорогой друг!&lt;/strong&gt;&lt;/p&gt;</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>[{'name': 'Python'}, {'name': 'C/C++'}, {'name': 'SQL'}]</t>
+          <t>[{'name': 'Грамотная письменная речь'}, {'name': 'Аналитические исследования'}, {'name': 'Сбор и анализ информации'}]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2025-03-31T14:24:46+0300</t>
+          <t>2025-05-06T11:08:57+0300</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2025-03-31T14:24:46+0300</t>
+          <t>2025-05-06T11:08:57+0300</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>https://api.hh.ru/vacancies/118977779?host=hh.ru</t>
+          <t>https://api.hh.ru/vacancies/118608730?host=hh.ru</t>
         </is>
       </c>
     </row>
@@ -776,17 +776,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>104344551</t>
+          <t>118451101</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Site Reliability Engineer (SRE)/Sysadmin junior</t>
+          <t>Python / Django developer</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Москва</t>
+          <t>Минск</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -796,33 +796,33 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/104344551</t>
+          <t>https://hh.ru/vacancy/118451101</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>&lt;p&gt;Приглашаем вас стать частью команды разработчиков Платформы ABCP — ключевого и незаменимого для тысяч клиентов по всему миру SaaS-продукта в сфере торговли автозапчастями.&lt;/p&gt; &lt;p&gt; &lt;/p&gt; &lt;p&gt;&lt;strong&gt;От Вас как кандидата требуется:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;опыт работы SRE/DevOps, системным/сетевым администратором, инженером IT-эксплуатации от 3-х лет;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;знание ОС Linux: диагностика, настройка, тюнинг производительности, настройка iptables/netfilter;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;быть внимательным и поэтому в сопроводительном письме Вы напишете слово &amp;quot;ping&amp;quot;;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;знание DNS, HTTPS, HTTP2, REST API, gRPC, Websocket;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;практические навыки работы с:&lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;MySQL: кластеризация, отказоустойчивость, тюнинг под высокую нагрузку,&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;брокерами сообщений (RabbitMQ или Kafka),&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;nginx, haproxy, traefik.&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt; &lt;/li&gt; &lt;/ul&gt; &lt;p&gt; &lt;/p&gt; &lt;p&gt;&lt;strong&gt;Будет преимуществом:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;последние 3 года на рабочем или домашнем компьютере используете Linux или MacOS как основную ОС;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;базовый опыт программирования на любом языке;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;опыт работы с Git;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;опыт работы с MongoDB, Redis, Memcached и т.п.;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;опыт работы с сетевыми хранилищами webdav, s3-like и т. п.;&lt;/p&gt; &lt;/li&gt; &lt;li&gt;опыт использования tcpdump/tcpflow/wireshark и т.д. для диагностики проблем.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt; &lt;/p&gt; &lt;p&gt;&lt;strong&gt;Ключевые задачи:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;работа в команде SRE;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;обеспечение непрерывной работы кластера внутренних сервисов (стек: LXC, MySQL, nginx, Redis, RabbitMQ, golang);&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;автоматизация рутинных задач (выбор из Bash/Python/perl/php/golang);&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;ведение технической документации.&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt; &lt;p&gt; &lt;/p&gt; &lt;p&gt;&lt;strong&gt;Плюсы работы у нас:&lt;/strong&gt;&lt;/p&gt; &lt;p&gt;Почему вам может понравиться работать с нами:&lt;/p&gt; &lt;p&gt;Начали в 2005 году, и более 10 лет являемся примером для конкурентов.&lt;/p&gt; &lt;p&gt;ABCP — это синоним доверия и качества среди всех участников рынка автозапчастей, потому что мы создаем надежные инструменты для эффективного развития их бизнеса.&lt;/p&gt; &lt;p&gt;Из-за предыдущих пунктов наших сотрудников активно хантят более известные IT-компании, но сотрудники не всегда уходят, потому что им нравится, что у нас:&lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;все работают над созданием реального и востребованного продукта, а не совещаются;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;есть возможность развивать hard и soft-скиллы и сменить стек при желании;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;компанией и командами руководят адекватные айтишники, а не эффективные менеджеры;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;нет “звезд” (хотя есть таланты) и все общаются со всеми;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;понятная, прозрачная и открытая политика и цели компании;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;зарплата регулярно индексируется и соответствует актуальной рыночной стоимости специалиста, а не количеству закрытых тасков;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;гибкий график работы и отпусков, НЕ приветствуются переработки, реальная удаленка;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;аккредитованная IT-компания.&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt; &lt;p&gt;Готовы к нам присоединиться? Для 100% уверенности в своем ответе на втором онлайн-собеседовании вы встретитесь с будущими коллегами по команде, где сможете убедиться, подходим мы вам или нет. Ждём ваш отклик!&lt;/p&gt;</t>
+          <t>&lt;p&gt;Мы продуктовая компания, основной прицел на продукт в области кредитования оффлайн и онлайн. Наши клиенты - розничные банки РБ (Сбербанк, БелВЭБ, Дабрабыт, Паритет и др) и различные торговые сети (5 элемент, Электросила, НаСвязи, Алло и др).&lt;/p&gt; &lt;p&gt;Проект растет, ищем человека на усиление команды.&lt;/p&gt; &lt;p&gt;От будущего коллеги ожидаем&lt;/p&gt; &lt;p&gt; &lt;/p&gt; &lt;p&gt;&lt;strong&gt;Что нужно будет делать&lt;/strong&gt;:&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Участие в полном цикле разработки продукта;&lt;/li&gt; &lt;li&gt;Проектирование и разработка сервисов связи с банковскими системами;&lt;/li&gt; &lt;li&gt;Управление релизами;&lt;/li&gt; &lt;li&gt;Ревью кода других разработчиков;&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Backend стек&lt;/strong&gt;:&lt;/p&gt; &lt;ul&gt; &lt;li&gt;python 3&lt;/li&gt; &lt;li&gt;django&lt;/li&gt; &lt;li&gt;postgresql/redis&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Frontend&lt;/strong&gt;:&lt;/p&gt; &lt;ul&gt; &lt;li&gt;html/css&lt;/li&gt; &lt;li&gt;javascript&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Требования&lt;/strong&gt;:&lt;/p&gt; &lt;ul&gt; &lt;li&gt;опыт разработки коммерческих проектов на Django от 3х лет&lt;/li&gt; &lt;li&gt;git само собой&lt;/li&gt; &lt;li&gt;знания и умение работы с реляционными и нереляционными базами данных&lt;/li&gt; &lt;li&gt;опыт работы с linux&lt;/li&gt; &lt;li&gt;docker&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Большой плюс:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;архитектурные паттерны&lt;/li&gt; &lt;li&gt;тесты (юнит и функциональные)&lt;/li&gt; &lt;li&gt;микросервисная архитектура&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Почему стоит работать у нас:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Неформальная и дружная атмосфера в коллективе, отсутствие бюрократии&lt;/li&gt; &lt;li&gt;Заработная плата, защищенная от инфляции&lt;/li&gt; &lt;li&gt;Официальное оформление по контракту, оплачиваемый отпуск - 25 календарных дней, 100% оплата больничных листов;&lt;/li&gt; &lt;li&gt;5 sick days в год без подтверждающих документов;&lt;/li&gt; &lt;li&gt;Гибкий рабочий график (возможна удаленная работа) и свобода действий&lt;/li&gt; &lt;li&gt;Офис в центре города&lt;/li&gt; &lt;/ul&gt; &lt;div&gt; &lt;/div&gt;</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>[{'name': 'Администрирование серверов Linux'}, {'name': 'Highload'}, {'name': 'HAProxy'}, {'name': 'CI/CD'}, {'name': 'HTTP'}, {'name': 'NoSQL'}, {'name': 'Memcached'}, {'name': 'Git'}, {'name': 'Bash'}, {'name': 'Nginx'}, {'name': 'Unix'}, {'name': 'MongoDB'}, {'name': 'Redis'}, {'name': 'Networking'}, {'name': 'Sphinx'}, {'name': 'Elasticsearch'}, {'name': 'Docker'}, {'name': 'MySQL'}, {'name': 'GitLab CI'}, {'name': 'Microservices'}, {'name': 'SSH'}, {'name': 'SaaS'}, {'name': 'CI'}, {'name': 'Grafana'}, {'name': 'Kibana'}, {'name': 'Gitlab'}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2025-03-31T23:34:59+0300</t>
+          <t>2025-04-04T14:28:36+0300</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2025-03-31T23:34:59+0300</t>
+          <t>2025-04-04T14:28:36+0300</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>https://api.hh.ru/vacancies/104344551?host=hh.ru</t>
+          <t>https://api.hh.ru/vacancies/118451101?host=hh.ru</t>
         </is>
       </c>
     </row>
@@ -832,12 +832,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>118929691</t>
+          <t>118860377</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Python-разработчик / Data Engineer (анализ и автоматизация данных)</t>
+          <t>ML/DevOps Engineer</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -852,33 +852,33 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/118929691</t>
+          <t>https://hh.ru/vacancy/118860377</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>&lt;p&gt;Ищем Python-разработчика / Data Engineer, который поможет нам построить автоматизированную систему сбора, структурирования и анализа данных из различных источников.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Что предстоит делать:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;Автоматизировать сбор и обработку данных (API, веб-скрапинг, базы данных, внешние источники).&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Настроить интеграцию данных из различных источников.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Создавать инструменты для анализа и визуализации данных (дашборды, графики, таблицы).&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Разрабатывать и поддерживать базы данных для хранения и быстрого доступа к информации.&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Кого мы ищем:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;Python-разработчика с опытом от 3-х лет.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Навыки работы с библиотеками Pandas, Requests, BeautifulSoup или Scrapy.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Уверенный опыт работы с PostgreSQL (желательно с расширением TimescaleDB) или аналитическими базами данных (например, ClickHouse).&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Опыт интеграции данных через API и автоматизации веб-скрапинга.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Желание разобраться в предметной области и быстро вникнуть в специфику данных.&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Будет плюсом:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;Опыт создания дашбордов (например, с помощью Dash, Streamlit, Plotly или других инструментов).&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Знание JavaScript/React для визуализации данных.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Интерес к финансовым рынкам, трейдингу или аналитике.&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Что мы предлагаем:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;Возможность самостоятельно построить полезную систему, влияющую на принятие решений.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Свободу в выборе инструментов и подходов к решению задач.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Дружескую атмосферу без формальностей.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Конкурентную зарплату и гибкие условия работы (удалёнка или офис на выбор).&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt; &lt;p&gt;Откликайтесь, будем рады обсудить детали!&lt;/p&gt;</t>
+          <t>&lt;p&gt;&lt;strong&gt;Мы – инновационный проект в сфере искусственного интеллекта&lt;/strong&gt;, создаём сервис генерации изображений в Telegram. &lt;strong&gt;Ищем талантливого ML/DevOps-инженера&lt;/strong&gt;, который готов взять на себя ключевые задачи по развитию и поддержке нашего сервиса генерации изображений.&lt;/p&gt; &lt;p&gt; &lt;/p&gt; &lt;p&gt;&lt;strong&gt;Чем предстоит заниматься:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;Разрабатывать и поддерживать ML-пайплайны: от обучения LoRA/Stable Diffusion до инференса на GPU-серверах (Runpod, Яндекс.Облако).&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Контейнеризация ML-приложений и сервисов: создание и оптимизация Docker-образов, работа с Docker Hub.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Участвовать в развитии облачной инфраструктуры: настройка load balancer, масштабирование сервисов, мониторинг.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Интегрировать микросервисы с брокерами сообщений, S3-хранилищем, базой данных.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Оптимизировать производительность ML-моделей (время генерации изображений, настройка распределённого обучения, кэширование).&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Участие в MLOps-процессе: обучение моделей (LoRA, Stable Diffusion) и настройка инференса (в том числе распределённого).&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Опыт и навыки нашего идеального кандидата:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;Уверенное владение Python и ключевыми ML-фреймворками (PyTorch, Hugging Face Diffusers и др.).&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Понимание MLOps/DevOps-практик: Docker, CI/CD, умение разворачивать контейнеры, опыт мониторинга и логирования (Prometheus, Grafana).&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Опыт работы с облачными платформами: (Яндекс.Облако, AWS, GCP) — настройка виртуальных машин, load balancer, S3.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Навык работы с распределёнными системами: брокеры (RabbitMQ/Kafka/Celery), базы данных, микросервисная архитектура.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Знание Telegram Bot API или желание быстро в нём разобраться, чтобы интегрировать ML-фичи.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;(Желательно) базовый опыт фронтенд-разработки или понимание веб-технологий (HTML/CSS/JS), чтобы при необходимости доработать UI.&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Что мы предлагаем:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;Полностью удалённую работу&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Гибкое развитие: можешь расти в сторону архитектуры, cloud-направления, ML или менеджмента.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Современный стек и крутые задачи&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Достойную зарплату, релевантную твоим скиллам и опыту.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Работу в молодой и драйвовой команде, где ценят инициативу и талант.&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt; &lt;p&gt;Если ты хочешь создавать технологии будущего, разрабатывать инновационные решения, &lt;strong&gt;отправляй своё портфолио GitHub или ссылки на проекты&lt;/strong&gt;. Будем рады подробнее обсудить твоё участие в нашей команде!&lt;/p&gt; &lt;p&gt;&lt;strong&gt;В сопроводительном письме расскажи о своём опыте работы с ML/DevOps, а также о самых интересных задачах, которые тебе приходилось решать.&lt;/strong&gt;&lt;/p&gt; &lt;p&gt; &lt;/p&gt;</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>[{'name': 'Python'}, {'name': 'pandas'}, {'name': 'Numpy'}, {'name': 'Requests'}, {'name': 'BeautifulSoup'}, {'name': 'Scrapy'}, {'name': 'API Integration'}, {'name': 'SQL'}, {'name': 'PostgreSQL'}, {'name': 'TimescaleDB'}, {'name': 'Clickhouse'}, {'name': 'Web Scraping'}, {'name': 'ETL'}, {'name': 'Data Engineering'}]</t>
+          <t>[{'name': 'Python'}, {'name': 'Docker'}, {'name': 'GitLab CI'}, {'name': 'PyTorch'}, {'name': 'Machine Learning'}, {'name': 'Deep Learning'}, {'name': 'Stable Diffusion'}, {'name': 'LoRA'}, {'name': 'Distributed training'}, {'name': 'MLflow'}, {'name': 'ONNX'}, {'name': 'Prometheus'}, {'name': 'Bash'}, {'name': 'DVC'}, {'name': 'Yandex Cloud'}, {'name': 'Telegram Bot API'}, {'name': 'RabbitMQ'}, {'name': 'Celery'}, {'name': 'Runpod'}]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2025-04-01T10:23:12+0300</t>
+          <t>2025-04-23T13:13:08+0300</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2025-04-01T10:23:12+0300</t>
+          <t>2025-04-23T13:13:08+0300</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>https://api.hh.ru/vacancies/118929691?host=hh.ru</t>
+          <t>https://api.hh.ru/vacancies/118860377?host=hh.ru</t>
         </is>
       </c>
     </row>
@@ -888,17 +888,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>119033676</t>
+          <t>118523961</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Python-разработчик (интеграционные решения)</t>
+          <t>Data Analyst</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Москва</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -908,33 +908,33 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/119033676</t>
+          <t>https://hh.ru/vacancy/118523961</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>&lt;p&gt;&lt;strong&gt;О нас&lt;/strong&gt;&lt;/p&gt; &lt;p&gt;Мы - динамично развивающаяся финтех-компания, создающая инновационные решения на рынке финансовых технологий. Наша команда профессионалов ищет талантливого Python-разработчика для усиления технического направления по интеграциям.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Кого мы ищем&lt;/strong&gt;&lt;/p&gt; &lt;p&gt;Энергичного и целеустремлённого разработчика, который возьмет на себя ответственность за интеграционные решения, архитектуру и качество кода, а также оптимизацию и поддержку текущих проектов.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Обязанности:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;Разработка интеграций: Проектирование, разработка и поддержка модулей, обеспечивающих обмен данными между различными системами и сервисами.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Работа с базами данных: Проектирование схем, оптимизация запросов, обеспечение целостности данных при взаимодействии с реляционными (PostgreSQL, MySQL) базами данных&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;API-интеграция: Разработка RESTful сервисов с использованием FastAPI, включая аутентификацию, авторизацию и обработку ошибок.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Документация и code review: Создание технической документации, участие в code review и обмен опытом с коллегами.&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Требования:&lt;/strong&gt;&lt;/p&gt; &lt;p&gt;&lt;em&gt;&lt;strong&gt;Обязательные навыки:&lt;/strong&gt;&lt;/em&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;Python: от 1 года практического опыта, уверенное владение HTTP-библиотеками (requests, httpx), понимание асинхронного программирования&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;FastAPI: опыт создания RESTful API, реализации аутентификации (OAuth, JWT) и обработки ошибок&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Базы данных: практический опыт с PostgreSQL/MySQL и/или NoSQL (MongoDB, Redis)&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Интеграции: понимание принципов обмена данными (JSON, XML, REST, WebSocket), опыт тестирования API через Postman&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Архитектура: знание и применение принципов SOLID, DRY, KISS в реальных проектах&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Git и CI/CD: опыт работы с системами контроля версий и автоматизации сборки/тестирования&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Английский язык: уровень, достаточный для чтения технической документации&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;&lt;em&gt;Будет преимуществом:&lt;/em&gt;&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;Опыт работы с Docker и Docker Compose&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Знание брокеров сообщений (RabbitMQ, Kafka) и асинхронной обработки данных&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Опыт работы в финтех-проектах&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Понимание принципов безопасности при разработке API&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Что мы предлагаем&lt;/strong&gt;&lt;strong&gt;:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;Работу над интересными проектами в быстрорастущей финтех-компании&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Возможности для профессионального роста и внедрения современных технологий&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Дружный коллектив единомышленников&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Гибкий график и возможность удаленной работы&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Конкурентную заработную плату (обсуждается индивидуально на собеседовании)&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt;</t>
+          <t>&lt;p&gt;&lt;strong&gt;О компании:&lt;/strong&gt;&lt;br /&gt;LATOKEN входит в ТОП-20 криптобирж мира, является крупнейшей Веб3-компанией из СНГ и входит в Forbes ТОП-30 компаний для удаленной работы в 2022 году. Наша платформа — это супермаркет криптоактивов с более чем 3,000 наименований. Нашей миссией является упрощение процесса узнавания и обмена любого актива с помощью AI, открывая каждому возможность узнать о новых технологиях, рынках и стать участником будущего.&lt;br /&gt;&lt;br /&gt;&lt;strong&gt;Роль Data Analyst в компании:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Анализе и интерпретации данных для принятия стратегических решений.&lt;/li&gt; &lt;li&gt;Разработке и автоматизации дэшбордов для визуализации ключевых показателей.&lt;/li&gt; &lt;li&gt;Оптимизации аналитической инфраструктуры с использованием передовых технологий.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Ваши обязанности как Data Analyst:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Сбор, обработка и анализ данных для создания аналитических отчётов.&lt;/li&gt; &lt;li&gt;Создание и поддержание дэшбордов в Power BI или аналогичных инструментах.&lt;/li&gt; &lt;li&gt;Разработка и оптимизация SQL-запросов для работы с большими объёмами данных.&lt;/li&gt; &lt;li&gt;Автоматизация отчётности и процессов обработки данных.&lt;/li&gt; &lt;li&gt;Взаимодействие с другими командами для выявления аналитических потребностей и предоставления ценных инсайтов.&lt;/li&gt; &lt;li&gt;Исследование и тестирование инструментов анализа данных на основе AI (например, GPT, AutoGPT, Langchain).&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Требования:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Практический опыт работы с инструментами анализа данных (Power BI, Tableau, Superset).&lt;/li&gt; &lt;li&gt;Отличное знание SQL и опыт работы с базами данных.&lt;/li&gt; &lt;li&gt;Интерес к передовым технологиям, включая AI, и желание их применять для анализа данных.&lt;/li&gt; &lt;li&gt;Умение анализировать ключевые метрики и находить пути их улучшения.&lt;/li&gt; &lt;li&gt;Готовность к гибкому графику и высокоинтенсивной работе.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Будет плюсом:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Опыт работы с Python для обработки и анализа данных.&lt;/li&gt; &lt;li&gt;Навыки работы с PostgreSQL или другими реляционными базами данных.&lt;/li&gt; &lt;li&gt;Знание основ статистики.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Преимущества:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Возможность быстрого роста в культуре спортивных достижений.&lt;/li&gt; &lt;li&gt;Работа с передовыми технологиями AI и Web3.&lt;/li&gt; &lt;li&gt;Крупнейшая компания в области Web3 из СНГ.&lt;/li&gt; &lt;li&gt;Удалённая работа.&lt;/li&gt; &lt;li&gt;Конкурентная оплата в твёрдой валюте.&lt;/li&gt; &lt;li&gt;Опционы.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;Работа в LATOKEN — это уникальная возможность попасть на передовую технологий, развиться и создать будущее. Мы приглашаем энтузиастов технологий с духом спортивных достижений. Откликнитесь на эту вакансию, если чувствуете, что у нас есть лучшая работа для роста вашего потенциала изменить мир.&lt;/p&gt;</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>[{'name': 'Python'}]</t>
+          <t>[{'name': 'SQL'}, {'name': 'Python'}, {'name': 'Power BI'}]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2025-04-01T15:47:08+0300</t>
+          <t>2025-04-14T18:53:28+0300</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2025-04-01T15:47:08+0300</t>
+          <t>2025-04-14T18:53:28+0300</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>https://api.hh.ru/vacancies/119033676?host=hh.ru</t>
+          <t>https://api.hh.ru/vacancies/118523961?host=hh.ru</t>
         </is>
       </c>
     </row>
@@ -944,12 +944,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>118007037</t>
+          <t>118625625</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Специалист сопровождения и поддержки приложений / IT Engineer /IT Support</t>
+          <t>Python-разработчик (Middle)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -964,33 +964,33 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/118007037</t>
+          <t>https://hh.ru/vacancy/118625625</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>&lt;p&gt;Инвестиционный банк Ренессанс Капитал в поиске &lt;strong&gt;&lt;em&gt;Специалиста по сопровождению приложений (IT Engineer / IT Support Sp).&lt;/em&gt;&lt;/strong&gt;&lt;/p&gt; &lt;p&gt;&amp;quot;Ренессанс Капитал&amp;quot; - один из ведущих инвестиционных банков, работающий на нескольких пограничных и развивающихся рынках и специализирующийся на инвестиционно-банковских, прайм-брокерских услугах, а также глобальным рынках вот уже больше 25 лет.&lt;/p&gt; &lt;p&gt;Мы ищем увлеченных работой профессионалов в команду развития и сопровождения сервисов и приложений, имеющих огромное желание расти и развиваться в финансовой сфере.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;&lt;em&gt;С нас - команда профессионалов, отличная рабочая атмосфера, а также прокачка навыков работы с высоконагруженными системами!&lt;/em&gt;&lt;/strong&gt;&lt;/p&gt; &lt;p&gt; &lt;/p&gt; &lt;p&gt;&lt;strong&gt;ЧЕМ ПРЕДСТОИТ ЗАНИМАТЬСЯ:&lt;/strong&gt;&lt;/p&gt; &lt;p&gt;&lt;strong&gt;На самом деле у нас огромное количество разных, сложных и интересных задач, &lt;/strong&gt;и, помимо поддержки и сопровождения систем в виде общения с пользователями и вендорами, есть большой объем работы по &lt;strong&gt;автоматизации разнообразных процессов: &lt;/strong&gt;фидов данных между системами; мониторинга; работы сервисов; построения отчетов и т.д., где очень пригодятся различные языки программирования, например&lt;strong&gt; Python.&lt;/strong&gt;&lt;/p&gt; &lt;p&gt;Мы очень приветствует креативный и проактивный подход к работе, у нас нет ограничений и запретов создавать что-то полезное.&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Работать в команде &lt;strong&gt;развития и сопровождения сервисов&lt;/strong&gt; и приложений н&lt;strong&gt;а 1-ой и 2-ой линии;&lt;/strong&gt;&lt;/li&gt; &lt;li&gt;Оперативно решать возникающие проблемы пользователей систем;&lt;/li&gt; &lt;li&gt;На регулярной основе взаимодействовать со смежными IT командами по вопросам сопровождения систем;&lt;/li&gt; &lt;li&gt;Выполнять утренние/вечерние &lt;strong&gt;мониторинги&lt;/strong&gt;, давать отчет об их состоянии;&lt;/li&gt; &lt;li&gt;&lt;strong&gt;Вести документацию&lt;/strong&gt;, пополнять базу знаний системных проблем и их вариантов решений;&lt;/li&gt; &lt;li&gt;Автоматизировать рутинные задачи, искать способы ускорения процессов;&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;em&gt;.....На самом деле, перечень задач не ограничивается списком выше, будем рады делегировать и передавать в работу новые проекты и идеи - все зависит от желания и навыков!&lt;/em&gt;&lt;/p&gt; &lt;p&gt; &lt;/p&gt; &lt;p&gt;&lt;strong&gt;ТЕХНИЧЕСКИЕ НАВЫКИ / КВАЛИФИКАЦИЯ:&lt;/strong&gt;&lt;/p&gt; &lt;p&gt;&lt;strong&gt;НАМ ОЧЕНЬ ВАЖНО, ЧТОБЫ У НАШЕГО БУДУЩЕГО КОЛЛЕГИ:&lt;/strong&gt;&lt;/p&gt; &lt;ol&gt; &lt;li&gt;Было базовое &lt;strong&gt;техническое / физическое / математическое высшее образование&lt;/strong&gt; (но, если так сложилось, что оно не закончено - обсудим!)&lt;/li&gt; &lt;li&gt;Опыт работы с &lt;strong&gt;Linux&lt;/strong&gt;&lt;/li&gt; &lt;li&gt;Были хорошие знания &lt;strong&gt;скриптовых языков - Python / Bash;&lt;/strong&gt;&lt;/li&gt; &lt;li&gt;Были хорошие знания &lt;strong&gt;SQL &lt;/strong&gt;(запросы для MSSQL, оптимизации запросов и процедур MSSQL). В поддержке у нас, правда, никак, совсем никак без SQL!&lt;/li&gt; &lt;li&gt;Был хороший письменный уровень английского языка.&lt;/li&gt; &lt;/ol&gt; &lt;p&gt; &lt;/p&gt; &lt;p&gt;&lt;strong&gt;НА ВЕС ЗОЛОТА, ЕСЛИ ЕСТЬ:&lt;/strong&gt;&lt;/p&gt; &lt;ol&gt; &lt;li&gt;Опыт работы в схожей роли не менее 1 года;&lt;/li&gt; &lt;li&gt;Знание и опыт работы с &lt;strong&gt;Shell, Python, XSLT;&lt;/strong&gt;&lt;/li&gt; &lt;li&gt;Понимание основ работы рынка ценных бумаг / финансовых инструментов;&lt;/li&gt; &lt;li&gt;Опыт работы с системами мониторинга и визуализации &lt;strong&gt;Zabbix + Grafana;&lt;/strong&gt;&lt;/li&gt; &lt;/ol&gt; &lt;p&gt; &lt;/p&gt; &lt;p&gt;&lt;em&gt;Вам будет интересно и комфортно с нами работать в команде развития и сопровождения фронт офисных сервисов и приложений, если вы:&lt;/em&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;&lt;em&gt;Очень ответственный и системный человек;&lt;/em&gt;&lt;/li&gt; &lt;li&gt;&lt;em&gt;Умеете взаимодействовать с разными людьми и решать проблемы;&lt;/em&gt;&lt;/li&gt; &lt;li&gt;&lt;em&gt;Любите обучаться всему новому и стремитесь получить максимум новых знаний;&lt;/em&gt;&lt;/li&gt; &lt;li&gt;&lt;em&gt;Не боитесь нагруженного рабочего дня;&lt;/em&gt;&lt;/li&gt; &lt;li&gt;&lt;em&gt;Можете найти выход из любой ситуации, даже самой тупиковой;&lt;/em&gt;&lt;/li&gt; &lt;li&gt;&lt;em&gt;Умеете работать в режиме многозадачности;&lt;/em&gt;&lt;/li&gt; &lt;/ul&gt; &lt;p&gt; &lt;/p&gt; &lt;p&gt;&lt;strong&gt;ЧТО ВЫ ПОЛУЧИТЕ, РАБОТАЯ С НАМИ:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Безусловно, конкурентную заработную плату, которую мы обсудим с вами индивидуально на встрече;&lt;/li&gt; &lt;li&gt;Годовой бонус по итогам работы;&lt;/li&gt; &lt;li&gt;Удаленный / смешанный / офисный формат работы - на ваш выбор и в зависимости от ситуации;&lt;/li&gt; &lt;li&gt;Красивые виды с 50-ого этажа башни на Набережной (адрес офиса - Москва Сити, Пресненская набережная, дом 10);&lt;/li&gt; &lt;li&gt;Медицинское страхование (ДМС) и страхование жизни с 1-ого рабочего дня для сотрудника и детей;&lt;/li&gt; &lt;li&gt;Бесценный опыт работы в финансовой среде, новые знакомства, профессиональный нетворкинг, знания финансовых инструментов, а также сложнейших информационных систем.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt; &lt;/p&gt; &lt;p&gt;По всем вопросам, пожалуйста, пишите в TG, будем на связи!&lt;/p&gt;</t>
+          <t>&lt;p&gt;&lt;strong&gt;CoMagic&lt;/strong&gt; - это продуктовая IT-компания, которая создает сервисы виртуальной бизнес-телефонии с передовыми решениями в области маркетинга и продаж. Прозрачная, масштабируемая система связи делает процессы звонков плавными и прозрачными.&lt;br /&gt;Мы не стоим на месте и постоянно развиваемся. Сейчас в нашем пакете более 5-ти успешных продуктов и мы готовы двигаться дальше.&lt;/p&gt; &lt;p&gt;Мы крепко стоим на ногах и ценим в сотрудниках такую же стабильность, честность и надежность. Для нас важен результат, а не отработанные часы.&lt;/p&gt; &lt;p&gt;В связи с расширением в направление Управление клиентским и внутренним сервисом (Инфопин) мы ищем коллегу, Python разработчика в команду Интеграции с внешними системами.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Основная задача Python разработчика&lt;/strong&gt; – разработка, поддержка и развитие отказоустойчивых микросервисов для интеграции с внешними системами.&lt;/p&gt; &lt;p&gt;Взаимодействие будет происходить со всеми участниками команды - продакт менеджер, аналитик, разработчики, тестировщики.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Важно! Стек технологий:&lt;/strong&gt;&lt;br /&gt;Python, Aiohttp/FastAPI, Aioamqp, Asyncpg (aiopg), Redis, Git + Gitlab&lt;/p&gt; &lt;p&gt; &lt;/p&gt; &lt;p&gt;&lt;strong&gt;Чем предстоит заниматься:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Анализ API-сторонних сервисов и доработка собственных.&lt;/li&gt; &lt;li&gt;Участие в проектировании микросервисов и составлении требований к ним.&lt;/li&gt; &lt;li&gt;Реализация stateless микросервисов.&lt;/li&gt; &lt;li&gt;Разработка внутренних библиотек.&lt;/li&gt; &lt;li&gt;Оптимизация узких мест в основной архитектуре продукта.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Что мы ожидаем от кандидата:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Коммерческий опыт разработки на асинхронном Python (Aiohttp будет плюс) – от 3 лет.&lt;/li&gt; &lt;li&gt;Понимание базовых принципов работы API.&lt;/li&gt; &lt;li&gt;Опыт работы с микросервисной архитектурой с высокой нагрузкой.&lt;/li&gt; &lt;li&gt;Базовые знания Linux, Docker.&lt;/li&gt; &lt;li&gt;Отличное понимание ООП.&lt;/li&gt; &lt;li&gt;Базовые знания SQL.&lt;/li&gt; &lt;li&gt;Опыт работы с Git.&lt;/li&gt; &lt;li&gt;Способность быстро учиться, аналитический склад ума.&lt;/li&gt; &lt;li&gt;Способность к абстрактному мышлению.&lt;/li&gt; &lt;li&gt;Опыт эксплуатации (CI/CD, мониторинг, алёртинг и отказоустойчивость) - будет плюсом.&lt;/li&gt; &lt;/ul&gt; &lt;ul&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Что мы предлагаем:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Компания входит в реестр аккредитованных IT-компаний.&lt;/li&gt; &lt;li&gt;Комфортный онбординг через менторство наставника.&lt;/li&gt; &lt;li&gt;Современные технологии и шаринг знаний внутри компании.&lt;/li&gt; &lt;li&gt;Открытость и честность в общении - мы много делаем для нашей корпоративной культуры и заботимся о микроклимате в наших взаимодействиях.&lt;/li&gt; &lt;li&gt;Уютный офис в бизнес-центре А-класса вблизи м. Нахимовский проспект с местами для отдыха, кухней и собственными переговорными комнатами.&lt;/li&gt; &lt;li&gt;Полная занятость с 10 до 19 в гибридном формате работы, а также удаленный для сотрудников не из Москвы.&lt;/li&gt; &lt;li&gt;Рыночная зарплата – в зависимости от вашего опыта и компетенций.&lt;/li&gt; &lt;li&gt;Оформление по ТК РФ, испытательный срок – 3 месяца.&lt;/li&gt; &lt;li&gt;ДМС, психолог, английский, корпоративная библиотека в Литрес и компенсация обучения из специальной программы поддержки сотрудников – Кафетерий льгот.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Примите вызов и станьте ключевым игроком в команде CoMagic, где инновации и технологии дружат с уютом и стабильностью!&lt;/strong&gt;&lt;/p&gt;</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>[{'name': 'Английский язык'}, {'name': 'Shell'}, {'name': 'Python'}, {'name': 'XSLT'}, {'name': 'Linux'}, {'name': 'Bash'}, {'name': 'SQL'}, {'name': 'MSSQL'}]</t>
+          <t>[{'name': 'Python'}, {'name': 'FastAPI'}, {'name': 'Agile'}, {'name': 'Асинхронное программирование'}, {'name': 'Git'}, {'name': 'Redis'}, {'name': 'Kubernetes'}, {'name': 'Gitlab'}, {'name': 'Микросервисная архитектура'}, {'name': 'API'}, {'name': 'Aiohttp'}, {'name': 'ООП'}, {'name': 'Docker'}, {'name': 'Docker-compose'}, {'name': 'REST'}]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2025-04-01T17:10:54+0300</t>
+          <t>2025-04-16T18:59:48+0300</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2025-04-01T17:10:54+0300</t>
+          <t>2025-04-16T18:59:48+0300</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>https://api.hh.ru/vacancies/118007037?host=hh.ru</t>
+          <t>https://api.hh.ru/vacancies/118625625?host=hh.ru</t>
         </is>
       </c>
     </row>
@@ -1000,12 +1000,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>118986173</t>
+          <t>117706683</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Java AI Lab</t>
+          <t>Data-аналитик в области временных рядов (Junior)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1020,33 +1020,33 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/118986173</t>
+          <t>https://hh.ru/vacancy/117706683</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>&lt;p&gt;Мы ищем Java разработчика в команду, которая будет заниматься созданием новых и развитием существующих продуктов с использованием искусственного интеллекта и генеративных моделей в компании.&lt;/p&gt; &lt;p&gt;Основной продукт - HR-ассистент для работодателей, который помогает им закрывать ключевые этапы поиска и найма сотрудников. Помимо HR-ассистента помогаем смежным командам решать задачи с помощью генеративных моделей и в целом стараемся популяризовать GenAI технологии в компании.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Почему у нас круто:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Мы всегда погружаемся в бизнес-контекст, чтобы ясно понимать, зачем мы работаем над проектом. Наша работа строится на взаимодействии кросс-функциональных команд, что способствует разработке более качественных и эффективных решений.&lt;/li&gt; &lt;li&gt;30% времени мы посвящаем улучшению инфраструктуры и внедрению новых технологий.&lt;/li&gt; &lt;li&gt; &lt;p&gt;У каждого разработчика своя песочница-копия прода&lt;/p&gt; &lt;/li&gt; &lt;li&gt;Драйв и скорость: мы внимательно следим за рынком и создаем продукты, которые влияют на его развитие.&lt;/li&gt; &lt;li&gt; &lt;p&gt;Работаем по Kanban и не горим к концу недели&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Ты – наш идеал, если:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;Свободно владеешь Java, знаешь Spring и Hibernate.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Готов к разработке части задач на Python.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Разбираешься в базах данных и очередях, можешь аргументированно выбрать технологию под свой микросервис.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Имеешь опыт с DevOps и другими инфраструктурными задачами (mlops - огромный плюс).&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Имеешь опыт с LLM (опыт с GenAI/диалоговыми ассистентами - большой плюс).&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Круто работаешь в команде, умеешь отстаивать свою точку зрения.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Хочешь влиять на новый продукт.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Готов принимать участие в проектировании фичей.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Покрываешь код тестами.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Можешь самостоятельно решить задачу.&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Что предлагаем мы:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Удобный формат работы: у нас классный офис, но если тебе хочется работать за его пределами – нет проблем.&lt;/li&gt; &lt;li&gt;Работу в одной из самых быстроразвивающихся ИТ компаний – лидере индустрии.&lt;/li&gt; &lt;li&gt;ДМС (со стоматологией) с первого месяца работы, страхование жизни.&lt;/li&gt; &lt;li&gt;Корпоративный сервис с круглосуточной поддержкой юриста, психолога и финансового консультанта.&lt;/li&gt; &lt;li&gt;Промокоды и бонусы от партнеров.&lt;/li&gt; &lt;li&gt;Электронная корпоративная библиотека.&lt;/li&gt; &lt;li&gt;Возможность профессионального развития, обучение за счет компании, участие в специализированных конференциях.&lt;/li&gt; &lt;li&gt;Достойный уровень заработной платы.&lt;/li&gt; &lt;/ul&gt;</t>
+          <t>&lt;p&gt;Мы, команда компании «ИНИТИ», предлагаем специалистам по профилю «Data-аналитик в области временных рядов (Junior)» присоединиться к числу своих сотрудников.&lt;/p&gt; &lt;p&gt;Компания состоит в реестре российских аккредитованных IT-компаний, что в числе прочего подразумевает под собой отсрочку от призыва на военную службу, а также льготную ипотеку.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Обязанности:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Проведение первичного анализа данных (EDA), поиск закономерностей, визуализация временных рядов.&lt;/li&gt; &lt;li&gt;Разработка и оптимизация процессов обработки данных из различных источников (сигналы, логи, сенсоры).&lt;/li&gt; &lt;li&gt;Подготовка данных для моделей машинного обучения, включая предобработку временных рядов, обработку пропусков, агрегацию и нормализацию.&lt;/li&gt; &lt;li&gt;Участие в разработке и настройке алгоритмов для анализа временных рядов (детекторы аномалий, прогнозные модели).&lt;/li&gt; &lt;li&gt;Оформление результатов анализа и подготовка отчетов для команды.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Требования:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Уверенные знания Python и библиотек для работы с данными (pandas, numpy, scipy, matplotlib, seaborn)&lt;/li&gt; &lt;li&gt;Опыт работы с временными рядами и их визуализацией.&lt;/li&gt; &lt;li&gt;Хорошее понимание теории вероятностей и статистических методов&lt;/li&gt; &lt;li&gt;Понимание принципов и методов анализа временных рядов (например, статистические тесты, тренды, сезонность).&lt;/li&gt; &lt;li&gt;Умение работать с большими массивами данных.&lt;/li&gt; &lt;li&gt;Базовые знания SQL.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Приветствуется:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Знание библиотек для работы с временными рядами (Prophet, statsmodels, tslearn и т.п.).&lt;/li&gt; &lt;li&gt;Опыт работы с временными рядами из промышленных сенсоров или IoT-устройств.&lt;/li&gt; &lt;li&gt;Опыт работы с Clickhouse.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Условия:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;оформление по ТК&lt;/li&gt; &lt;li&gt;удаленный режим работы&lt;/li&gt; &lt;li&gt;график работы (09:00-18:00) (сб, вс - выходные)&lt;/li&gt; &lt;li&gt;возможно согласование рабочего графика (смещение рабочего дня, перенос рабочего дня на выходной)&lt;/li&gt; &lt;li&gt;дополнительная неделя отпуска&lt;/li&gt; &lt;li&gt;испытательный срок 1-3 мес&lt;/li&gt; &lt;li&gt;начальный уровень з/п определяется исходя из результатов собеседования.&lt;/li&gt; &lt;/ul&gt;</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>[{'name': 'Java'}, {'name': 'Ai'}, {'name': 'GenAi'}, {'name': 'LLM'}, {'name': 'Spring'}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2025-03-31T16:39:12+0300</t>
+          <t>2025-04-23T23:07:03+0300</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2025-03-31T16:39:12+0300</t>
+          <t>2025-04-23T23:07:03+0300</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>https://api.hh.ru/vacancies/118986173?host=hh.ru</t>
+          <t>https://api.hh.ru/vacancies/117706683?host=hh.ru</t>
         </is>
       </c>
     </row>
@@ -1056,12 +1056,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>119015266</t>
+          <t>118814275</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>Data Analyst / Аналитик данных</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1076,33 +1076,33 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/119015266</t>
+          <t>https://hh.ru/vacancy/118814275</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>&lt;p&gt;&lt;strong&gt;Domclick.ru&lt;/strong&gt; - единственный в России продукт, обеспечивающий полный цикл операций с недвижимостью. Доступен на всех популярных платформах (Web, iOS, Android). Решаем любые вопросы с недвижимостью, делая сложное простым, с заботой о каждом клиенте. Мы ищем единомышленников, чтобы вместе помогать людям исполнять мечту о собственном жилье.&lt;/p&gt; &lt;p&gt;Сейчас мы в поиске сильного инженера в наше подразделение, занимающееся Data Engineering.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Чем предстоит заниматься:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;проектировать архитектуру АХД, разрабатывать и запускать сервисы c DЕ-решениями;&lt;/li&gt; &lt;li&gt;развивать и улучшать существующие продукты и сервисы;&lt;/li&gt; &lt;li&gt;участвовать в проработке и реализации интеграций с другими сервисами и командами (кстати, у нас полностью микросервисная архитектура);&lt;/li&gt; &lt;li&gt;обеспечивать высокое качество кода и улучшать процессы в своей команде;&lt;/li&gt; &lt;li&gt;участвовать в развитии инфраструктурных решений для работы с big data.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;От вас мы ожидаем:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;отличное знание SQL, Python;&lt;/li&gt; &lt;li&gt;опыт построения аналитического хранилища данных.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Будет плюсом:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;опыт работы с Greenplum, PostgreSQL, Clickhouse.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Почему мы:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;интересный и без сомнений востребованный продукт;&lt;/li&gt; &lt;li&gt;мы используем современные технологии; практикуем continuous integration и continuous delivery; код в bitbucket, задачи в jira и т.д.;&lt;/li&gt; &lt;li&gt;взрослый девопс, highload;&lt;/li&gt; &lt;li&gt;бизнес-руководство, нацеленное на результат;&lt;/li&gt; &lt;li&gt;понимающее IT-руководство, например, у нас есть квота 1 день в неделю на борьбу с тех. долгом/саморазвитие/рисеч/решение задач других команд;&lt;/li&gt; &lt;li&gt;высокие темпы работы, разработанные решения очень быстро попадают в продакшн.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Мы предлагаем:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;работу в аккредитованной IT компании;&lt;/li&gt; &lt;li&gt;конкурентную заработную плату;&lt;/li&gt; &lt;li&gt;полис ДМС с первого месяца работы;&lt;/li&gt; &lt;li&gt;современную технику для работы;&lt;/li&gt; &lt;li&gt;корпоративный университет, онлайн-курсы для повышения квалификации, конференции, митапы;&lt;/li&gt; &lt;li&gt;фитнес-зал в здании офиса;&lt;/li&gt; &lt;li&gt;льготную программу ипотеки для сотрудников;&lt;/li&gt; &lt;li&gt;комфортный офис класса А в 5 минутах от станции метро и МЦК Кутузовская;&lt;/li&gt; &lt;li&gt;гибкое начало рабочего дня и возможность работать в гибридном или удаленном формате.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;#DE #office #hybrid #remote&lt;/p&gt;</t>
+          <t>&lt;p&gt;&lt;strong&gt;IT-компания Wazzup приглашает в команду Data Analyst / Аналитика данных&lt;/strong&gt;&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Кто мы?&lt;/strong&gt;&lt;/p&gt; &lt;p&gt;Wazzup — продуктовая компания, мы разрабатываем b2b SaaS-решение: организовываем переписку между компаниями и их клиентами. Наш сервис помогает экономить время продавцов, контролировать отдел продаж и сокращать отвал клиентов.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Как живем?&lt;/strong&gt;&lt;/p&gt; &lt;p&gt;Даем менеджерам большую свободу действий. Максимально избегаем бюрократии и предоставляем простой доступ ко всем участникам команды от технических специалистов до руководства компании. Прислушиваемся к инициативам и предложениям сотрудников.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Почему живем хорошо?&lt;/strong&gt;&lt;/p&gt; &lt;p&gt;Мы уже сейчас операционно прибыльная компания, не живем на деньги ангелов и инвесторов. Вопрос «Полетит стартап или не полетит?» не стоит. Он не только полетел, но и обогнал конкурентов, хотя мы запустились позже других компаний на рынке.&lt;/p&gt; &lt;p&gt;Что дальше? Есть амбиции захватить мировой рынок. Это не пустые слова. Уже сейчас 13% выручки приходит в долларах и евро, хотя мы для этого ничего не делали.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Плохие новости:&lt;/strong&gt;&lt;/p&gt; &lt;p&gt;на работе мы работаем. Чем придется заниматься:&lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;построить основную аналитику в рамках каждого направления компании;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;погрузиться в работу всех отделов и понять бизнес - процессы;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;выстраивать архитектуру данных в компании;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;передавать данные, обрабатывать и хранить, структурировать, визуализировать, документировать, в общем, полный цикл Full Stack Data - аналитика;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;презентовать результаты своей работы для внутренних заказчиков;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;выдвигать инициативы по улучшению текущей инфраструктуры.&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Ключевая цель:&lt;/strong&gt; Выстроить прикладную понятную аналитическую систему, в которой видны основные метрики.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Мы ждем, что вы:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;имеете опыт работы в аналогичной роли не менее 3-х лет;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;умеете работать с SQL и базами данных (у нас PostgreSQL + BigQuery), оптимизировать запросы и собирать сложные конструкции;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;обладаете навыками работы с Tableau, понимаете принципы и лучшие практики визуализаций данных;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;можете объяснять сложную концепцию простыми словами;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;обладаете аналитическим складом ума;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;способны быстро разобраться в наших задачах, проактивный и любите проявлять инициативу.&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Будут преимуществом:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;навыки работы с Airflow;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;опыт работы с Python (NumPy, Pandas, Seaborn)&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Как будем работать?&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;5/2, фултайм, удалёнка;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;оклад на старте от &lt;strong&gt;250 000 руб. Больше - можно, обсудим&lt;/strong&gt;;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;&lt;strong&gt;человеческие условия.&lt;/strong&gt; Сорокачасовая рабочая неделя на удаленке, оплачиваемый отпуск, компенсация 75% на релевантное профессиональное обучение и психолога, до 75% на лечение;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;&lt;strong&gt;человеческое отношение.&lt;/strong&gt; В команде нет винтиков, шестеренок и гаечек, есть только люди. С пониманием относимся к потребностям и проблемам каждого. Если что-то нужно: поддержка, психолог, обучение, лечение — поможем. Такой вот соцпакет;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Возможность внести лепту в завоевание мира :)&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt; &lt;p&gt; &lt;/p&gt; &lt;p&gt;&lt;strong&gt;Следующий шаг:&lt;/strong&gt;&lt;/p&gt; &lt;p&gt;откликайтесь на вакансию и ждите от нас сообщения. Мы расскажем, что делать дальше.&lt;/p&gt; &lt;p&gt; &lt;/p&gt;</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>[{'name': 'PostgreSQL'}, {'name': 'Python'}, {'name': 'Big Data'}]</t>
+          <t>[{'name': 'SQL'}, {'name': 'PostgreSQL'}, {'name': 'BigQuery'}, {'name': 'Tableau'}, {'name': 'Аналитический склад ума'}]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2025-04-01T11:35:29+0300</t>
+          <t>2025-04-01T12:58:26+0300</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2025-04-01T11:35:29+0300</t>
+          <t>2025-04-01T12:58:26+0300</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>https://api.hh.ru/vacancies/119015266?host=hh.ru</t>
+          <t>https://api.hh.ru/vacancies/118814275?host=hh.ru</t>
         </is>
       </c>
     </row>
@@ -1112,17 +1112,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>118785845</t>
+          <t>118740671</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Automation QA Engineer (Python)</t>
+          <t>Python Backend Developer</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Москва</t>
+          <t>Алматы</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1132,33 +1132,33 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/118785845</t>
+          <t>https://hh.ru/vacancy/118740671</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>&lt;p&gt;&lt;strong&gt;КИОН &lt;/strong&gt;— это часть цифровой экосистемы МТС. Мы создаем оригинальный развлекательный контент развиваем сервисы для просмотра фильмов и сериалов на любом устройстве.&lt;/p&gt; &lt;p&gt;&lt;em&gt;Наш флагманский проект — современный онлайн-кинотеатр KION.&lt;/em&gt;&lt;/p&gt; &lt;p&gt;Мы ищем инженера автоматизации тестирования в backend-команду UDMS – это система управления клиентскими устройствами и ТВ-приставками МТС ТВ.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Мы занимаемся:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;получением оперативной информации о состоянии клиентских устройств и ТВ-приставок;&lt;/li&gt; &lt;li&gt;дистанционным управлением и обновлениями приставок (перезагрузка, сброс на заводские настройки);&lt;/li&gt; &lt;li&gt;доставкой до приставок персонализированной информации (каналы, программы передач, избранное);&lt;/li&gt; &lt;li&gt;интеграцией с внешними системами МТС.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Стек:&lt;/strong&gt; Python, Pytest, Linux, Gitlab, Jira, Confluence, Git, Allure TestOps;&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Чем предстоит заниматься:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;развитие и поддержка тестового фреймворка и инструментов для автоматического тестирования;&lt;/li&gt; &lt;li&gt;разработка тестовых сценариев и тест-кейсов;&lt;/li&gt; &lt;li&gt;поддержка тестовых CI-процессов и пайплайнов, взаимодействие с Devops-инженерами;&lt;/li&gt; &lt;li&gt;взаимодействие с аналитиком, тестирование требований;&lt;/li&gt; &lt;li&gt;поддержка интеграции с Allure TestOPS.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Что мы ожидаем от кандидата:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;уверенное знание Python 3.x;&lt;/li&gt; &lt;li&gt;опыт работы с pytest;&lt;/li&gt; &lt;li&gt;понимание принципов работы операционных систем (Linux), баз данных (Mongo), систем доставки сообщений (RabbitMQ, Kafka);&lt;/li&gt; &lt;li&gt;понимание работы систем контейнеризации (Docker, K8S);&lt;/li&gt; &lt;li&gt;понимание теории тестирования;&lt;/li&gt; &lt;li&gt;потребность развиваться;&lt;/li&gt; &lt;li&gt;коммуникабельность, умение грамотно формулировать мысли.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Что мы предлагаем:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;оклад + годовой бонус;&lt;/li&gt; &lt;li&gt;программа ДМС с первого месяца работы - это 100% покрытие расходов в частных клиниках, включая стоматологию. Застраховать близких родственников можно со скидкой 50%. Для любителей путешествий - страховка в поездках за границу. А еще есть страхование жизни;&lt;/li&gt; &lt;li&gt;очное и онлайн-обучение в Корпоративном университете, у внешних провайдеров, если это полезно для работы, обмен опытом во внутренних профессиональных сообществах, а также доступ к онлайн-библиотеке в полезными книгами и периодикой;&lt;/li&gt; &lt;li&gt;оплачиваемые выходные на значимые события в жизни сотрудника;&lt;/li&gt; &lt;li&gt;материальная помощь в сложных жизненных ситуациях;&lt;/li&gt; &lt;li&gt;корпоративная мобильная связь + интернет, а так же единая подписка МТС Premium (онлайн кинотеатр KION, сервис МТС Music, МТС Строки и т.д.);&lt;/li&gt; &lt;li&gt;предложения от партнёров для путешествий, развлечений и занятий спортом;&lt;/li&gt; &lt;li&gt;возможность участия в волонтерских программах: мы организуем благотворительные ярмарки, образовательные проекты для детей, конкурсы социальных проектов и экологические проекты;&lt;/li&gt; &lt;li&gt;внутренняя спортивная программа «В движении»: забеги, марафоны, турниры по разным видам спорта, медитации и занятия на баланс.&lt;/li&gt; &lt;/ul&gt;</t>
+          <t>&lt;p&gt;&lt;strong&gt;Hello there! &lt;/strong&gt;&lt;/p&gt; &lt;p&gt;Our development department has a project for which they&amp;#39;re seeking an experienced Python developer to join our team working on our analytics AI agent system. You&amp;#39;ll be responsible for enhancing our analytics tools, improving our AI prompts, and developing new data processing capabilities.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Technology Stack&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Python backend services&lt;/li&gt; &lt;li&gt;OpenAI GPT models&lt;/li&gt; &lt;li&gt;LangChain framework for AI orchestration&lt;/li&gt; &lt;li&gt;Pydantic for data validation and modeling&lt;/li&gt; &lt;li&gt;RESTful API architecture&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;What You&amp;#39;ll Do&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Maintain and extend our analytics tools that process campaign, source, ad, and user data&lt;/li&gt; &lt;li&gt;Optimize API calls and improve data processing efficiency&lt;/li&gt; &lt;li&gt;Refine AI prompt engineering to better understand user queries&lt;/li&gt; &lt;li&gt;Implement data visualization capabilities for analytics reports&lt;/li&gt; &lt;li&gt;Ensure secure data handling and proper parameter validation&lt;/li&gt; &lt;li&gt;Develop new analytics features based on business requirements&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Key Challenges&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Translating natural language requests into precise analytics queries&lt;/li&gt; &lt;li&gt;Optimizing API calls to minimize resource usage while maximizing data insights&lt;/li&gt; &lt;li&gt;Handling complex date ranges and comparison operations&lt;/li&gt; &lt;li&gt;Ensuring accurate metric calculations and proper data formatting&lt;/li&gt; &lt;li&gt;Maintaining clear and helpful error messaging for users&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Required Skills&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Strong Python development experience (3+ years)&lt;/li&gt; &lt;li&gt;Experience with AI/ML frameworks, particularly LLMs&lt;/li&gt; &lt;li&gt;Familiarity with analytics concepts (marketing channels, user behavior, etc.)&lt;/li&gt; &lt;li&gt;RESTful API development background&lt;/li&gt; &lt;li&gt;Knowledge of data validation and processing techniques&lt;/li&gt; &lt;li&gt;Ability to work with complex data structures and transformations&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Preferred Qualifications&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Experience with LangChain or similar LLM framework&lt;/li&gt; &lt;li&gt;Background in marketing analytics or web analytics&lt;/li&gt; &lt;li&gt;Knowledge of prompt engineering for LLMs&lt;/li&gt; &lt;li&gt;Experience with data visualization libraries&lt;/li&gt; &lt;li&gt;Understanding of e-commerce metrics and KPIs&lt;br /&gt;&lt;br /&gt;&lt;em&gt;The reason this job vacancy is written in English is that we are looking for a candidate who has proficiency in the language at the B1-B2 level.&lt;/em&gt;&lt;br /&gt;&lt;strong&gt;﻿&lt;br /&gt;﻿﻿&lt;strong&gt;If you are interested in participating in our project, please apply for the vacancy! We look forward to meeting you!&lt;/strong&gt;﻿&lt;/strong&gt;&lt;/li&gt; &lt;/ul&gt;</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>[{'name': 'Python'}, {'name': 'Pytest'}]</t>
+          <t>[{'name': 'Python'}, {'name': 'REST API'}, {'name': 'Pydantic'}, {'name': 'LangChain'}]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2025-04-01T15:22:48+0300</t>
+          <t>2025-04-21T07:07:16+0300</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2025-04-01T15:22:48+0300</t>
+          <t>2025-04-21T07:07:16+0300</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>https://api.hh.ru/vacancies/118785845?host=hh.ru</t>
+          <t>https://api.hh.ru/vacancies/118740671?host=hh.ru</t>
         </is>
       </c>
     </row>
@@ -1168,17 +1168,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>118647266</t>
+          <t>118426900</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Пентестер</t>
+          <t>Python developer</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Калининград</t>
+          <t>Москва</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1188,33 +1188,33 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/118647266</t>
+          <t>https://hh.ru/vacancy/118426900</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>&lt;p&gt;Битрикс24 — это платформа для бизнеса, объединяющая множество инструментов от CRM и таск-трекера до конструктора сайтов и сервисов коллаборации. Мы — лучший работодатель среди IT-компаний в своем сегменте за 2024 год по версии hh.ru.&lt;/p&gt; &lt;p&gt;Мы ищем специалиста в области безопасности для работы над масштабным SaaS-проектом. Если вам интересна сфера web-безопасности, и вы хотите развиваться в динамичной команде, мы ждем вас!&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Чем предстоит заниматься:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Проводить анализ кода на PHP для выявления уязвимостей.&lt;/li&gt; &lt;li&gt;Давать рекомендации по устранению уязвимостей и проверять их исправления.&lt;/li&gt; &lt;li&gt;Консультировать разработчиков на ранних стадиях разработки.&lt;/li&gt; &lt;li&gt;Внедрять новые методы тестирования безопасности приложений.&lt;/li&gt; &lt;li&gt;Использовать автоматизированные сканеры для поиска уязвимостей.&lt;/li&gt; &lt;li&gt;Проверять конфигурации серверов и сервисов, включая Docker и Kubernetes, на соответствие стандартам безопасности.&lt;/li&gt; &lt;li&gt;Участвовать в тестировании и улучшении web application firewall на PHP.&lt;/li&gt; &lt;li&gt;Разрабатывать внутренние SAST/DAST инструменты на Python.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Наши ожидания:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Знания и опыт в web-безопасности, желание развиваться в направлении информационной безопасности.&lt;/li&gt; &lt;li&gt;Владение PHP и желание быстро осваивать другие языки программирования.&lt;/li&gt; &lt;li&gt;Опыт программирования на Python.&lt;/li&gt; &lt;li&gt;Знание современных методик тестирования безопасности.&lt;/li&gt; &lt;li&gt;Опыт работы с инструментами сканирования уязвимостей.&lt;/li&gt; &lt;li&gt;Понимание принципов безопасной инфраструктуры.&lt;/li&gt; &lt;li&gt;Желание участвовать в разработке инструментов для повышения безопасности.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;Если вы хорошо знаете Python, но есть желание изучать PHP, также готовы рассмотреть,&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Что мы предлагаем:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Крупный российский Highload проект;&lt;/li&gt; &lt;li&gt;Работу в технологичной компании с известным брендом;&lt;/li&gt; &lt;li&gt;Много интересных задач в команде самых крутых разработчиков, увлеченных своим делом;&lt;/li&gt; &lt;li&gt;Полная занятость, возможность гибкого графика (с 08-00 до 11-00 по МСК или по Калининграду), гибридный или дистанционный формат работы, пятидневная рабочая неделя, восьмичасовой рабочий день. Перерыв на обед 1 час (плавающий);&lt;/li&gt; &lt;li&gt;Возможность влиять на продукт с аудиторией в миллионы компаний;&lt;/li&gt; &lt;li&gt;Конкурентный оклад и премии;&lt;/li&gt; &lt;li&gt;Профессиональный рост и программы обучения и развития;&lt;/li&gt; &lt;li&gt;ДМС со стоматологией;&lt;/li&gt; &lt;li&gt;Сервис психологической поддержки &amp;quot;Ясно&amp;quot;;&lt;/li&gt; &lt;li&gt;Крутейшие офисы в Калининграде и Москве в удобных локациях;&lt;/li&gt; &lt;li&gt;Забота о сотрудниках: регулярные мероприятия для сотрудников, тимбилдинги, корпоративы в Калининграде и многое другое!&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;Присоединяйтесь к нам и станьте частью команды, которая создает безопасные и инновационные решения!&lt;/p&gt;</t>
+          <t>&lt;p&gt;Центр изучения и сетевого мониторинга молодёжной среды – &lt;strong&gt;аккредитованная IT-компания,&lt;/strong&gt; учреждённая по поручению Президента России в октябре 2018 года.&lt;/p&gt; &lt;p&gt;Деятельность организации ориентирована на создание IT-решений, направленных на формирования комплексной системы по защите детей и подростков от воздействия негативной информации в сети.&lt;/p&gt; &lt;p&gt;Мы ищем в нашу команду &lt;strong&gt;Python разработчика.&lt;/strong&gt;&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Обязанности&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Написание высоконагруженных приложений и микросервисов на Python&lt;/li&gt; &lt;li&gt;Участие в разработке уже имеющихся приложений в составе команды&lt;/li&gt; &lt;li&gt;Участие в принятии архитектурных решений по проекту&lt;/li&gt; &lt;li&gt;Поддержка и развитие созданных решений&lt;/li&gt; &lt;li&gt;Написание unit-тестов на PyTest&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Ожидаем от кандидата&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;Официальный опыт работы от 2 лет по профилю&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Опыт работы с MySQL и/или PostgreSQL&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Опыт работы с multiprocessing, очередями задач (RabbitMQ, Kafka), Celery и аналогами, понимание асинхронности&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Опыт построения ETL/ELT pipelines&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Умение грамотно оформлять сложную бизнес-логику в виде кода&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Опыт работы с Django, FastAPI. Знание лучших практик и проблем&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Будет плюсом&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;Понимание Clean Architecture, DDD, SOLID&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Ссылка на Git с примерами кода&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Условия&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Конкурентный уровень з/п, размер обсуждается по итогам собеседования и зависит от квалификации&lt;/li&gt; &lt;li&gt;Официальное оформление по ТК РФ&lt;/li&gt; &lt;li&gt;Формат работы - офис/гибрид/удаленка&lt;/li&gt; &lt;li&gt;Гибкое начало рабочего дня&lt;/li&gt; &lt;li&gt;Непрерывное обучение и развитие профессиональных навыков&lt;/li&gt; &lt;/ul&gt;</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>[{'name': 'PHP'}, {'name': 'Python'}]</t>
+          <t>[{'name': 'Python'}, {'name': 'Flask'}, {'name': 'Django'}, {'name': 'FastAPI'}, {'name': 'SQL'}, {'name': 'PostgreSQL'}, {'name': 'NoSQL'}, {'name': 'RabbitMQ'}]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2025-03-31T09:54:06+0300</t>
+          <t>2025-04-13T11:04:24+0300</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2025-03-31T09:54:06+0300</t>
+          <t>2025-04-13T11:04:24+0300</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>https://api.hh.ru/vacancies/118647266?host=hh.ru</t>
+          <t>https://api.hh.ru/vacancies/118426900?host=hh.ru</t>
         </is>
       </c>
     </row>
@@ -1224,53 +1224,41 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>118815765</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Technical support specialist (B2B, English)</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Екатеринбург</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Полная занятость</t>
-        </is>
-      </c>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/118815765</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>&lt;p&gt;We develop and support server software for brokerage companies around the world. Since 2013, our software has been processing transactions and quotes exchanged by major financial institutions in the European Union, the United Kingdom, Turkey, the UAE, Indonesia, Malaysia, India, Singapore, Hong Kong. Every day they process transactions worth tens of billions of dollars, without pause and weekends.&lt;/p&gt; &lt;p&gt;We are looking for an employee who is ready to learn constantly, ask a lot of questions and be result oriented.&lt;/p&gt; &lt;p&gt;Don’t worry if you don&amp;#39;t know anything about stocks, futures, cryptocurrencies and fintech: at the beginning of work you will be taught specifics of the sphere and our activities.&lt;/p&gt; &lt;p&gt; &lt;/p&gt; &lt;p&gt;&lt;strong&gt;Responsibilities:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;Initial processing and registration of requests in ZenDesk and Skype;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Installation and configuration of the company&amp;#39;s products under Windows OS;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Monitoring the operation status of products via Grafana;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Investigation and elimination of error causes (crashes of trading servers, incorrect execution of transactions, reasons behind quotes interruption, etc.);&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Interaction with developers, product and project managers to solve complex technical issues;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Proposing solutions and taking initiative and in improving and simplifying the operation of the department&amp;#39;s processes;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Act as an expert and consultant in communication with clients and staff from other teams;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt; &lt;/p&gt; &lt;p&gt;Divide complex tasks into several smaller issues;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Expanding and keeping the knowledge base up to date;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Readiness to work with real money and understanding the potential risks involved.&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt; &lt;p&gt; &lt;/p&gt; &lt;p&gt;&lt;strong&gt;Requirements:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;Total experience in technical support from 3 years, experience in technical support for at least two years in one place;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Experience in “advanced” work with Windows OS: remote access to the server, adding rules to the firewall, restarting services, CMD;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Experience in investigating and troubleshooting problems by reading logs;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Experience in basic manual testing: reproducing customer&amp;#39;s issue on a test server to find out which actions causing incorrect product behavior;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Either a technical or mathematical degree, or 5 years in tech support;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Ability to confidently and respectfully challenge clients requests if potential problems are identified;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Experience in writing technical documentation;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Experience in working with foreign clients;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Ability to read, write and understand &lt;strong&gt;English&lt;/strong&gt; to at least &lt;strong&gt;Upper-Intermediate/B2&lt;/strong&gt; level;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Ability to read, write and understand &lt;strong&gt;Russian&lt;/strong&gt; to at least &lt;strong&gt;Upper-Intermediate/B2&lt;/strong&gt; level;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Willingness to work with real money and understanding the potential risks involved.&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt; &lt;p&gt; &lt;/p&gt; &lt;p&gt;&lt;strong&gt;Will be a plus:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;Experience with PostgreSQL administration;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Basic knowledge of Linux administration;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Ability to read and understand simple PowerShell/Python scripts;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Understanding how Prometheus, Grafana, and Loki work. How to set up dashboards, add new metrics, what to do in case of problems;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Familiarity with Regex.&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt; &lt;p&gt; &lt;/p&gt; &lt;p&gt;&lt;strong&gt;We offer:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;Work schedule: 5/2 from 9:50 to 18:20 MSK. Sunday shifts 1-2 times in a month compensated by extra time off;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Fully remote work. Physical presence in any specific country is not required;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Fully electronic workflow without paper employment history;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Possibility of horizontal and vertical career growth within the company;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Possibility of partial compensation of external training at the expense of the company;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Possibility of purchase hardware and online services for comfort work;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Partial sports and medical insurance compensation after 6 months of work.&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt;</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>[{'name': 'Английский язык'}, {'name': 'PowerShell'}, {'name': 'Техническая поддержка'}, {'name': 'PostgreSQL'}]</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>2025-03-26T13:20:16+0300</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>2025-03-26T13:20:16+0300</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>https://api.hh.ru/vacancies/118815765?host=hh.ru</t>
+          <t>https://api.hh.ru/vacancies/117494908?host=hh.ru</t>
         </is>
       </c>
     </row>
@@ -1280,12 +1268,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>117090464</t>
+          <t>118573275</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Data Scientist (CoreML + RecSys)</t>
+          <t>Prompt Engineer</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1295,38 +1283,38 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Полная занятость</t>
+          <t>Проектная работа</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/117090464</t>
+          <t>https://hh.ru/vacancy/118573275</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>&lt;p&gt;&lt;strong&gt;Domclick.ru&lt;/strong&gt; - единственный в России продукт, обеспечивающий полный цикл операций с недвижимостью. Доступен на всех популярных платформах (Web, iOS, Android). Решаем любые вопросы с недвижимостью, делая сложное простым, с заботой о каждом клиенте. Мы ищем единомышленников, чтобы вместе помогать людям исполнять мечту о собственном жилье.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Чем предстоит заниматься:&lt;/strong&gt;&lt;br /&gt;Команда занимается разработкой рекомендательных систем для всех сервисов компании и участвует в разработке новой платформы, в которой клиент сможет получать услуги по своим объектами недвижимости - от регулярного клининга до большого ремонта.&lt;br /&gt;Задача нового направления: выстроить персонализированный сервис для пользователей с помощью рекомендаций на сайте и последующих коммуникаций по целевым услугам.&lt;br /&gt;Необходимо будет пройти шаги от триггерных сценариев на основе аналитики до сложных моделей рекомендаций и выявления интересов пользователей к конкретным продуктам.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;От вас мы ожидаем:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Опыт полного цикла решения ML задач: от аналитики до вывода моделей в прод (от 2 лет);&lt;/li&gt; &lt;li&gt;Отличные знания Python, SQL, классического ML-стека и соответствующих ему библиотек;&lt;/li&gt; &lt;li&gt;Базовая математическая (линейная алгебра, теорвер, матстаты) и алгоритмическая (алгоритмы, структуры данных) подготовка;&lt;/li&gt; &lt;li&gt;Желание погружаться в бизнес-процессы, предлагать и проверять гипотезы для улучшения целевых метрик.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Будут плюсом:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Опыт запуска пилотов, проведения A/B тестов и понимание теоретических основ;&lt;/li&gt; &lt;li&gt;Интерес и практический опыт в области рекомендательных систем;&lt;/li&gt; &lt;li&gt;Владение одним из DL-фреймворком и реализованные NLP/CV/RecSys-проекты;&lt;/li&gt; &lt;li&gt;Высшее образование в топ вузе;&lt;/li&gt; &lt;li&gt;Успешный опыт участия в соревнованиях;&lt;/li&gt; &lt;li&gt;Опыт работы с docker, airflow, clickhouse;&lt;/li&gt; &lt;li&gt;Опыт написания unit-тестов, разработки архитектуры и code review.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Мы предлагаем:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;работу в аккредитованной IT компании;&lt;/li&gt; &lt;li&gt;конкурентную заработную плату;&lt;/li&gt; &lt;li&gt;полис ДМС с первого месяца работы;&lt;/li&gt; &lt;li&gt;современную технику для работы;&lt;/li&gt; &lt;li&gt;корпоративный университет, онлайн-курсы для повышения квалификации, конференции, митапы;&lt;/li&gt; &lt;li&gt;фитнес-зал в здании офиса;&lt;/li&gt; &lt;li&gt;льготную программу ипотеки для сотрудников;&lt;/li&gt; &lt;li&gt;комфортный офис класса А в 5 минутах от станции метро и МЦК Кутузовская;&lt;/li&gt; &lt;li&gt;гибкое начало рабочего дня и возможность работать в гибридном или удаленном формате.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;#DS #remote&lt;/p&gt;</t>
+          <t>&lt;strong&gt;Обязанности:&lt;/strong&gt;&lt;br /&gt;&lt;br /&gt;&lt;p&gt;1. Разработка и оптимизация промптов для моделей машинного обучения&lt;br /&gt;- Создание эффективных и точных промптов для различных задач и сценариев.&lt;br /&gt;- Анализ и улучшение существующих промптов для повышения их эффективности.&lt;br /&gt;&lt;br /&gt;2. Взаимодействие с командами разработчиков и аналитиков&lt;br /&gt;- Сотрудничество с командами для понимания требований и целей проектов.&lt;br /&gt;- Обеспечение интеграции промптов в рабочие процессы и системы.&lt;br /&gt;&lt;br /&gt;3. Исследование и внедрение новых технологий&lt;br /&gt;- Оценка новых инструментов и технологий для улучшения работы с промптами.&lt;br /&gt;- Внедрение передовых практик и подходов в области машинного обучения и обработки естественного языка.&lt;/p&gt;&lt;br /&gt;&lt;br /&gt;&lt;strong&gt;Требования:&lt;/strong&gt;&lt;br /&gt;&lt;br /&gt;&lt;p&gt;1. Образование и опыт&lt;br /&gt;- Высшее образование в области компьютерных наук, математики или смежных дисциплин.&lt;br /&gt;- Опыт работы в области машинного обучения или обработки естественного языка.&lt;br /&gt;&lt;br /&gt;2. Знания и навыки&lt;br /&gt;- Глубокое понимание принципов работы моделей машинного обучения и нейронных сетей.&lt;br /&gt;- Опыт работы с языковыми моделями, такими как GPT, BERT и др.&lt;br /&gt;- Умение разрабатывать и оптимизировать промпты для различных задач.&lt;br /&gt;- Знание Python и библиотек для машинного обучения (TensorFlow, PyTorch).&lt;br /&gt;&lt;br /&gt;3. Личные качества&lt;br /&gt;- Аналитический склад ума и внимание к деталям.&lt;br /&gt;- Способность работать в команде и эффективно коммуницировать.&lt;br /&gt;- Инициативность и стремление к постоянному обучению и развитию.&lt;/p&gt;&lt;br /&gt;&lt;br /&gt;&lt;strong&gt;Условия:&lt;/strong&gt;&lt;br /&gt;&lt;br /&gt;&lt;p&gt;1. Конкурентоспособная заработная плата в зависимости от опыта и навыков.&lt;br /&gt;2. Удалённая работа и гибкий график.&lt;br /&gt;3. Профессиональный рост и участие в разработке инновационных продуктов на стыке передовых технологий.&lt;br /&gt;4. При успешном выполнении задач проекта возможно оформление в штат.&lt;/p&gt;</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>[{'name': 'Python'}, {'name': 'SQL'}, {'name': 'PyTorch'}, {'name': 'Математическая статистика'}, {'name': 'Keras'}]</t>
+          <t>[{'name': 'Python'}, {'name': 'GPT'}, {'name': 'Prompt Engineering'}, {'name': 'Git'}, {'name': 'JSON'}, {'name': 'LLM'}, {'name': 'RAG'}, {'name': 'Обработка естественных языков'}, {'name': 'Работа с нейросетями'}]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2025-03-31T12:27:53+0300</t>
+          <t>2025-04-15T19:13:38+0300</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>2025-03-31T12:27:53+0300</t>
+          <t>2025-04-15T19:13:38+0300</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>https://api.hh.ru/vacancies/117090464?host=hh.ru</t>
+          <t>https://api.hh.ru/vacancies/118573275?host=hh.ru</t>
         </is>
       </c>
     </row>
@@ -1336,12 +1324,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>118830103</t>
+          <t>118042918</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>DevSecOps Инженер</t>
+          <t>Research Engineer</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1356,33 +1344,33 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/118830103</t>
+          <t>https://hh.ru/vacancy/118042918</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>&lt;p&gt;&lt;strong&gt;Обязанности:&lt;/strong&gt;&lt;/p&gt; &lt;p&gt; &lt;/p&gt; &lt;ul&gt; &lt;li&gt;подбирать средства и инструменты безопасной разработки;&lt;/li&gt; &lt;li&gt;автоматизировать сканирование и процессы безопасной разработки;&lt;/li&gt; &lt;li&gt;настраивать и управлять инструменты безопасности;&lt;/li&gt; &lt;li&gt;внедрять инструменты SAST/DAST/SCA/OSA и т.д. в циклы CI/CD;&lt;/li&gt; &lt;li&gt;проводить исследование найденных уязвимостей, определять их уровни критичности, помогать разработчикам в устранении уязвимостей, предлагать меры по снижению рисков;&lt;/li&gt; &lt;li&gt;предлагать, разрабатывать и поддерживать инструменты, скрипты для автоматического анализа безопасности кода в процессе цикла CI/CD;&lt;/li&gt; &lt;li&gt;взаимодействовать с коллегами и командами продуктов для выстраивания процессов безопасной разработки во всех продуктах компании;&lt;/li&gt; &lt;li&gt;формирование культуры DevSecOps-практик в компании;&lt;/li&gt; &lt;li&gt;снижать риски ИБ в процессе разработки приложений;&lt;/li&gt; &lt;li&gt;совместно разрабатывать инструкции и базы знаний для команд разработки;&lt;/li&gt; &lt;li&gt;исследовать и предлагать новые практики DevSecOps для защиты приложений.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt; &lt;/p&gt; &lt;strong&gt;Требования:&lt;/strong&gt; &lt;p&gt; &lt;/p&gt; &lt;ul&gt; &lt;li&gt;понимание основных принципов безопасной разработки приложений;&lt;/li&gt; &lt;li&gt;опыт внедрения инструментов SAST/DAST и т.п. в существующий процесс разработки и их реализация в pipeline;&lt;/li&gt; &lt;li&gt;понимание OWASP Top-10, опыт работы с инструментами и ресурсами для анализа безопасности приложений;&lt;/li&gt; &lt;li&gt;понимание обеспечения безопасности контейнеризации и оркестрации;&lt;/li&gt; &lt;li&gt;опыт работы с Jenkins;&lt;/li&gt; &lt;li&gt;опыт работы со сканерами безопасности;&lt;/li&gt; &lt;li&gt;опыт работы с сетевыми сканерами;&lt;/li&gt; &lt;li&gt;опыт работы с Kubernetes;&lt;/li&gt; &lt;li&gt;есть опыт разработки на Go или Python.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt; &lt;/p&gt; &lt;p&gt;Будет преимуществом:&lt;/p&gt; &lt;ul&gt; &lt;li&gt;опыт работы с ArgoCD&lt;/li&gt; &lt;li&gt;наличие сертификации: OSCP, BSCP&lt;/li&gt; &lt;li&gt;опыт работы с Checkmarx&lt;/li&gt; &lt;/ul&gt; &lt;p&gt; &lt;/p&gt; &lt;p&gt;&lt;strong&gt;Условия:&lt;/strong&gt;&lt;/p&gt; &lt;p&gt; &lt;/p&gt; &lt;ul&gt; &lt;li&gt;гибкая система премирования; &lt;/li&gt; &lt;li&gt;расширенный социальный пакет: ДМС со стоматологией с первого месяца работы, психолог и страхование жизни, компенсация питания и оплата мобильной связи; &lt;/li&gt; &lt;li&gt;работа в компании с развитой инженерной культурой; &lt;/li&gt; &lt;li&gt;внутренние профессиональные сообщества и мероприятия; &lt;/li&gt; &lt;li&gt;автономность работы, возможность менять правила, ошибаться и создавать новое; &lt;/li&gt; &lt;li&gt;возможности профессионального роста, программы развития для сотрудников; &lt;/li&gt; &lt;li&gt;корпоративное обучение и доступ к базе знаний; &lt;/li&gt; &lt;li&gt;гибридный/удаленный формат работы; &lt;/li&gt; &lt;li&gt;современный офис в 2 минутах ходьбы от МЦК ЗИЛ. &lt;/li&gt; &lt;/ul&gt;</t>
+          <t>&lt;p&gt;&lt;strong&gt;Кто мы?&lt;br /&gt;OptimalFlow Group – &lt;/strong&gt;молодая и активно развивающаяся компания (входит в JSA Group). Наша команда занимается оптимизацией производственных и бизнес-процессов в крупнейших компаниях России и мира.&lt;br /&gt;&lt;br /&gt;Мы разрабатываем и внедряем цифровые решения на основе сложных алгоритмов, видеоаналитики и промышленного IoT. Сейчас мы сфокусированы на решениях для металлургических предприятий, крупного ритейла и телекома.&lt;/p&gt; &lt;p&gt; &lt;/p&gt; &lt;p&gt;&lt;strong&gt;Что нам важно?&lt;/strong&gt;&lt;br /&gt;Для решения прикладных задач в области анализа данных, оптимизации, цифровой обработки сигналов находимся в поиске Research Engineer со знаниями и навыками в следующих областях:&lt;br /&gt;&lt;br /&gt;- Алгоритмы и структуры данных (data science, computer science). Опыт работы и знание сложности процедур доступа, добавления в структурах: массив, список, дерево, очередь, хэш-таблица, двоичная куча и тд.&lt;/p&gt; &lt;p&gt;- Алгоритмы прикладной математики: оптимизация, численные методы, цифровая обработка сигналов.&lt;/p&gt; &lt;p&gt;- Scientific python: numpy, scipy, pandas, sklearn&lt;/p&gt; &lt;p&gt;- Дополнительно: C++, опыт разработки многопоточных приложений, опыт использования векторных инструкций SIMD, опыт работы с параллельными вычислениями.&lt;/p&gt; &lt;p&gt;- Плюсом будет: опыт разработки алгоритмов для решения NP-трудных задач, опыт решения задач связанных с планированием операций и составлением расписания, с использованием жадного, генетического алгоритмов и т.д, навык оценки асимптотической сложности алгоритмов.&lt;/p&gt; &lt;p&gt; &lt;/p&gt; &lt;p&gt;&lt;strong&gt;Что предстоит делать?&lt;/strong&gt;&lt;br /&gt;- Анализ данных, разработка архитектуры и оценка применимости алгоритма (решения).&lt;/p&gt; &lt;p&gt;- Разработка кода алгоритмов вычислительных модулей для использования в приложениях (сервисах) планирования и предиктивной аналитики.&lt;/p&gt; &lt;p&gt;- Разработка приложений (сервисов) обработки данных: оболочки управления очередью запросов, структур хранения и передачи данных и тд.&lt;/p&gt; &lt;p&gt; &lt;/p&gt; &lt;p&gt;&lt;strong&gt;Почему мы?&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;Сложные и интересные проекты и задачи&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Плоская структура, быстрое принятие решений и отсутствие бюрократии.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Молодая профессиональная команда&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Аккредитованная ИТ-Компания&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Мы открыты к идеям, обмениваемся опытом, ценим и поощряем рост наших сотрудников.&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Условия:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;Удаленный формат работы;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Официальное оформление по ТК РФ;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;График 5/2 с гибким рабочим временем (основная часть команды в Санкт-Петербурге и Москве).&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt; &lt;ul&gt; &lt;/ul&gt;</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'name': 'Python'}, {'name': 'C++'}]</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2025-03-26T17:01:31+0300</t>
+          <t>2025-04-02T14:48:42+0300</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2025-03-26T17:01:31+0300</t>
+          <t>2025-04-02T14:48:42+0300</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>https://api.hh.ru/vacancies/118830103?host=hh.ru</t>
+          <t>https://api.hh.ru/vacancies/118042918?host=hh.ru</t>
         </is>
       </c>
     </row>
@@ -1392,17 +1380,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>118827373</t>
+          <t>118330534</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Разработчик / Backend Developer Java/Python</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Москва</t>
+          <t>Санкт-Петербург</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1412,33 +1400,33 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/118827373</t>
+          <t>https://hh.ru/vacancy/118330534</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>&lt;p&gt;Сегодня билайн — компания изменений, чутко реагирующая на потребности рынка и людей. А ещё билайн — это команда, объединённая общими ценностями и общей целью — быть лидером телеком и digital-рынков, предоставляя нашим клиентам новейшие продукты и услуги, а также сервис самого высокого уровня.&lt;/p&gt; &lt;p&gt;Ищем уверенного &lt;strong&gt;Data Scientist (Middle+)&lt;/strong&gt;, способного брать на себя задачи end-to-end, с потенциалом роста до Senior.&lt;/p&gt; &lt;p&gt;Команда: лидер и 4 увлечённых ML-инженера/DS (1 senior, 2 middle, 1 junior) — дружелюбная, умная, готовая делиться знаниями и обсуждать сложные идеи.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Ключевые задачи:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Разработка ML-моделей на различных типах данных: табличные, графовые, геоданные, NLP и событийные последовательности для прогнозирования отказов и сбоев в оборудовании;&lt;/li&gt; &lt;li&gt;Решение задач дискретной оптимизации;&lt;/li&gt; &lt;li&gt;Участие в исследовании новых источников данных и развитии feature store;&lt;/li&gt; &lt;li&gt;Поддержка полного цикла разработки DS/ML-продуктов — от идеи до продакшена;&lt;/li&gt; &lt;li&gt;Возможность участвовать в создании и развитии AI-агента на базе LLM — от экспериментов до реального применения.&lt;/li&gt; &lt;/ul&gt; &lt;strong&gt;Наш идеальный кандидат:&lt;/strong&gt; &lt;ul&gt; &lt;li&gt;Опыт в роли Data Scientist от 3 лет;&lt;/li&gt; &lt;li&gt;Опыт end-to-end разработки ML-решений: от постановки задачи и работы с бизнесом до внедрения в production и поддержки моделей;&lt;/li&gt; &lt;li&gt;Отличное знание Python и глубокое понимание классических алгоритмов машинного обучения, опыт работы с NLP, временными рядами, задачами детекции аномалий;&lt;/li&gt; &lt;li&gt;Опыт работы с deep learning, включая RNN-like архитектуры и трансформеры;&lt;/li&gt; &lt;li&gt;Умение работать с БД (SQL), собирать и обрабатывать данные;&lt;/li&gt; &lt;li&gt;Уверенное понимание A/B-тестирования;&lt;/li&gt; &lt;li&gt;Высшее техническое образование.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Будет плюсом:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Работа с MLOps-инфраструктурой (DVC, MLflow, Airflow и т.п.);&lt;/li&gt; &lt;li&gt;Опыт построения industrial ML (highload, near real-time);&lt;/li&gt; &lt;li&gt;Hadoop, Spark;&lt;/li&gt; &lt;li&gt;Опыт с LangChain, LangGraph, LLM и разработкой AI-агентов;&lt;/li&gt; &lt;li&gt;Agile-подходы и умение быстро проверять гипотезы;&lt;/li&gt; &lt;li&gt;Участие в kaggle, хакатонах.&lt;/li&gt; &lt;/ul&gt; &lt;strong&gt;Что мы предлагаем:&lt;/strong&gt; &lt;ul&gt; &lt;li&gt;Возможность полностью удалённой работы (если есть желание поработать в офисе - есть сеть хабов по стране);&lt;/li&gt; &lt;li&gt;Свободу в принятии решений, реальное влияние на процессы и результат;&lt;/li&gt; &lt;li&gt;Возможность выступать техническим лидером на подзадачах или в микропроектах;&lt;/li&gt; &lt;li&gt;Code review, обмен практиками с командой, менторство для junior-коллег (по желанию);&lt;/li&gt; &lt;li&gt;Внутреннее DS/DA-сообщество (100+ специалистов): регулярные митапы, обмен опытом, развитие;&lt;/li&gt; &lt;li&gt;Ежегодный процесс ревью — прозрачный рост и развитие;&lt;/li&gt; &lt;li&gt;Доступ к десяткам Пбайт данных — от классических табличных до гео, графов, кликстримов, текстов и изображений;&lt;/li&gt; &lt;li&gt;Развитая MLOps-инфраструктура и мощный кластер с GPU;&lt;/li&gt; &lt;li&gt;Внутреннее и внешнее обучение, участие в конференциях, митапах и хакатонах;&lt;/li&gt; &lt;li&gt;Полис ДМС, обслуживание в лучших клиниках;&lt;/li&gt; &lt;li&gt;Корпоративные скидки на товары и услуги от партнёров;&lt;/li&gt; &lt;li&gt;Компенсация 30% стоимости спорта (бег, футбол, волейбол, плавание, йога);&lt;/li&gt; &lt;li&gt;Служебная сотовая связь.&lt;/li&gt; &lt;/ul&gt;</t>
+          <t>&lt;p&gt;Группа компаний Parts Planet - дистрибьютор автозапчастей и автокомпонентов.&lt;/p&gt; &lt;p&gt;Наша сфера интересов - международный рынок электронной коммерции.&lt;/p&gt; &lt;p&gt;В связи с ростом компании и развитием новых проектов мы в поиске java/python разработчика, чтобы усилить нашу команду.&lt;/p&gt; &lt;p&gt; &lt;/p&gt; &lt;p&gt;&lt;strong&gt;Чем предстоит заниматься:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Разработка и поддержка backend на Java/Python и обмена данными по протоколам REST.&lt;/li&gt; &lt;li&gt;Разработка сервисов обмена данными.&lt;/li&gt; &lt;li&gt;Построение ETL, ELT процессов..&lt;/li&gt; &lt;li&gt;Документирование кода, участие в создании FAQ по продукту.&lt;/li&gt; &lt;li&gt;Работа с системой контроля версий Bitbucket.&lt;/li&gt; &lt;li&gt;Координированное взаимодействие с членами команды.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt; &lt;/p&gt; &lt;p&gt;&lt;strong&gt;Чего мы ждём от кандидата:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Опыт работы со стеком: Java, Spring, от 2х лет.&lt;/li&gt; &lt;li&gt;Опыт работы со стеком: Python, Fast Api, от 2х лет.&lt;/li&gt; &lt;li&gt;Опыт проведения Code review.&lt;/li&gt; &lt;li&gt;Опыт работы с Bitbucket.&lt;/li&gt; &lt;li&gt;Опыт работы с Linux, Git, Postgres, MariaDB.&lt;/li&gt; &lt;li&gt;Навыки использования LLM в разработке.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt; &lt;/p&gt; &lt;p&gt;&lt;strong&gt;Что мы предлагаем:&lt;/strong&gt;&lt;/p&gt; &lt;p&gt;— Официальное трудоустройство согласно ТК РФ с первого дня. Полностью белая и своевременная заработная плата, без задержек 2 раза в месяц;&lt;/p&gt; &lt;p&gt;— Гибкий график, возможность удаленной работы,&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Возможность частичной занятости или проектной работы, &lt;/li&gt; &lt;/ul&gt; &lt;p&gt;— График работы: пн-пт с 9 до 17 МСК.&lt;/p&gt; &lt;p&gt;— Комфортное рабочее пространство в БЦ Scandinavian&lt;/p&gt; &lt;p&gt;— Возможности профессионального развития, обучение за счет компании.&lt;/p&gt; &lt;p&gt;— Перспективы карьерного роста&lt;/p&gt; &lt;p&gt;Финальный уровень заработной платы обсуждается индивидуально с успешным кандидатом в зависимости от его опыта и навыков&lt;/p&gt;</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>[{'name': 'Python'}, {'name': 'SQL'}, {'name': 'A/B тесты'}, {'name': 'MLflow'}, {'name': 'dvc'}, {'name': 'Apache Airflow'}, {'name': 'Hadoop'}, {'name': 'Spark'}, {'name': 'LLM'}, {'name': 'Natural Language Processing'}]</t>
+          <t>[{'name': 'PostgreSQL'}, {'name': 'Python'}, {'name': 'Apache Airflow'}, {'name': 'Базы данных'}, {'name': 'API'}, {'name': 'Аналитическое мышление'}, {'name': 'Elasticsearch'}, {'name': 'Java'}, {'name': 'Node.js'}]</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2025-04-01T16:24:40+0300</t>
+          <t>2025-04-10T10:11:49+0300</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2025-04-01T16:24:40+0300</t>
+          <t>2025-04-10T10:11:49+0300</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>https://api.hh.ru/vacancies/118827373?host=hh.ru</t>
+          <t>https://api.hh.ru/vacancies/118330534?host=hh.ru</t>
         </is>
       </c>
     </row>
@@ -1448,17 +1436,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>118595645</t>
+          <t>118862744</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>DevOPS/MLOps Engineer</t>
+          <t>Python developer (Django)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Новосибирск</t>
+          <t>Минск</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1468,33 +1456,33 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/118595645</t>
+          <t>https://hh.ru/vacancy/118862744</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>&lt;p&gt;Мы - международная IT компания c уже реализованным успешным продуктом - &lt;strong&gt;QuatroPBC&lt;/strong&gt;, предназначенным для контроля качества тротуарной плитки и бордюрного камня.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Наша миссия: автоматизировать все заводы по производству строительных материалов за счет применения систем искусственного интеллекта.&lt;/strong&gt;&lt;/p&gt; &lt;p&gt;&lt;strong&gt;QuatroPBC &lt;/strong&gt;успешно поставляется на международном рынке и работает на заводах не только в России, но и в Германии, Мексике, США, Литве, а в ближайшем времени будет установлен на заводах в Великобритании и других странах.&lt;/p&gt; &lt;p&gt;Впереди много планов и задач по запуску новых продуктов, поэтому мы ищем в нашу команду &lt;strong&gt;MLOps Engineer&lt;/strong&gt;, который займется автоматизацией процесса обучения.&lt;/p&gt; &lt;p&gt;&lt;em&gt;&lt;strong&gt;В нашей компании ты получишь:&lt;/strong&gt;&lt;/em&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Возможность реально влиять на развитие продукта&lt;/li&gt; &lt;li&gt;Работу в классной команде опытных разработчиков, увлеченных своим делом&lt;/li&gt; &lt;li&gt;Открытость и уважение в команде, отсутствие бюрократии и формальностей&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;em&gt;&lt;strong&gt;Основные задачи, которые предстоит решать:&lt;/strong&gt;&lt;/em&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Управление жизненным циклом ML-моделей: разработка, тестирование, вывод в продакшн, переобучение, мониторинг&lt;/li&gt; &lt;li&gt;Разработка и поддержка CI/CD пайплайнов для машинного обучения&lt;/li&gt; &lt;li&gt;Разработка и поддержка инфраструктуры для машинного обучения&lt;/li&gt; &lt;li&gt;Поиск и выбор инструментов для решения MLOps-задач&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;em&gt;&lt;strong&gt;Какие навыки и опыт мы ожидаем:&lt;/strong&gt;&lt;/em&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;Знание Python и Bash&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Gitlab CI/CD - опыт разработки сложных CI/CD-пайплайнов&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Знание Docker&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Опыт работы с инструментами оркестрации ETL-пайплайнов (Apache Spark, Prefect)&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Опыт работы с трекерами экспериментов (MLFlow, ClearML и т.д.)&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;em&gt;&lt;strong&gt;Плюсом будут знания:&lt;/strong&gt;&lt;/em&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Yandex Cloud и Google Cloud Platform&lt;/li&gt; &lt;li&gt;Prometheus/Grafana&lt;/li&gt; &lt;li&gt;Ansible&lt;/li&gt; &lt;li&gt;Terraform&lt;/li&gt; &lt;li&gt;Onnx&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;em&gt;&lt;strong&gt;Мы предлагаем:&lt;/strong&gt;&lt;/em&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Работу в аккредитованной IT-компании&lt;/li&gt; &lt;li&gt;Размер заработной платы обсуждается индивидуально&lt;/li&gt; &lt;li&gt;Небольшая и дружная команда, ежедневное взаимодействие напрямую с CTO&lt;/li&gt; &lt;li&gt;Удобный график работы (офис/гибрид/удалёнка)&lt;/li&gt; &lt;li&gt;Современный офис в БЦ Инские Холмы, рядом с м. Речной вокзал&lt;/li&gt; &lt;li&gt;Оформление по ТК РФ, белая ЗП дважды в месяц&lt;/li&gt; &lt;li&gt;Бесплатные обеды при работе в офисе и другие приятные бонусы&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Ждём твой отклик с резюме! :)&lt;/strong&gt;&lt;/p&gt; &lt;p&gt; &lt;/p&gt;</t>
+          <t>&lt;p&gt;&lt;strong&gt;Привет!&lt;br /&gt;Давай знакомиться!&lt;/strong&gt;&lt;br /&gt;&lt;br /&gt;&lt;strong&gt;MAXBITSOLUTION - &lt;em&gt;продуктовая IT-компания&lt;/em&gt;&lt;/strong&gt;, создающая проекты в сфере iGaming. Мы разрабатываем высоконагруженные системы с использованием Ruby on Rails, Vue.js, PHP и Go, а также управляем трафикообразованием и лидогенерацией.&lt;/p&gt; &lt;p&gt;Сейчас активно растём и рады поделиться открытой вакансией &lt;strong&gt;Python developer-а (Django)!&lt;/strong&gt;&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Основные задачи:&lt;/strong&gt;&lt;br /&gt;• Разработка программного обеспечения с использованием языка программирования Python.&lt;br /&gt;• Поддержка и улучшение существующего программного обеспечения.&lt;br /&gt;• Ведение документации по коду.&lt;br /&gt;• Написание и запуск тестов для проверки работоспособности и качества своего кода.&lt;br /&gt;• Отладка и оптимизация приложений.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Ты прекрасно дополнишь наш коллектив если имеешь:&lt;/strong&gt;&lt;br /&gt;• Уверенное владение фреймворками Django+DRF, FastAPI.&lt;br /&gt;• Уверенное владение языком SQL, написание сложных запросов.&lt;br /&gt;• Опыт написания юнит-тестов (pytest, unittest).&lt;br /&gt;• Понимание принципов ООП (SOLID, DRY, KISS).&lt;br /&gt;• Уверенный уровень владения Git и командной строки.&lt;br /&gt;• Опыт работы с публичными API.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Биг плас за следующие штуки:&lt;/strong&gt;&lt;br /&gt;• Работа в офисе Минска/ гибрид.&lt;br /&gt;• Опыт работы с PostgreSQL/MySQL/MongoDB.&lt;br /&gt;• Опыт работы с Docker.&lt;br /&gt;• Навыки проектирования API (REST).&lt;br /&gt;• Опыт работы с ORM (Django ORM, SQLAlchemy, Alembic).&lt;br /&gt;• Знание Celery, RabbitMQ, Kafka, Redis.&lt;br /&gt;• Умение читать и понимать чужой код.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Что ты получишь, работая с нами:&lt;/strong&gt;&lt;br /&gt;• Формат работы комфортный для тебя: &lt;strong&gt;офисный или гибрид.&lt;/strong&gt;&lt;br /&gt;• График работы: Пн – Пт с 10:00 до 19:00.&lt;br /&gt;• Компенсацию спорта.&lt;br /&gt;• Курсы английского языка в офисе компании.&lt;br /&gt;• 3 sick days.&lt;br /&gt;• Выплаты от компании к важным жизненным событиям.&lt;br /&gt;• Оборудованную кухню с кофе, орехами, свежими фруктами и прочими вкусняшками.&lt;br /&gt;• Бесплатную парковку рядом с офисом.&lt;br /&gt;• Дисконтную программу для сотрудников компании.&lt;br /&gt;• Интересные корпоративные мероприятия.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Все вышеописанное в тебе откликается? Отлично! Тогда мы ждем твое резюме!&lt;br /&gt;До встречи!&lt;/strong&gt;&lt;br /&gt;&lt;br /&gt;&lt;em&gt;*вакансия на перспективу&lt;/em&gt;&lt;/p&gt;</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>[{'name': 'Python'}, {'name': 'Docker'}, {'name': 'GitLab CI'}, {'name': 'MLflow'}, {'name': 'Onnx'}, {'name': 'Prometheus'}, {'name': 'Bash'}, {'name': 'Apache Spark'}, {'name': 'DVC'}]</t>
+          <t>[{'name': 'Django'}, {'name': 'Django Rest Framework'}, {'name': 'DRF'}, {'name': 'FastAPI'}, {'name': 'SQL'}, {'name': 'Pytest'}, {'name': 'unittest'}, {'name': 'PostgreSQL'}, {'name': 'MySQL'}, {'name': 'MongoDB'}, {'name': 'Docker'}, {'name': 'Docker Compose'}, {'name': 'SQLAlchemy'}, {'name': 'Django ORM'}, {'name': 'RabbitMQ'}, {'name': 'Celery'}, {'name': 'Kafka'}, {'name': 'Redis'}]</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>2025-04-01T11:54:56+0300</t>
+          <t>2025-04-23T13:55:17+0300</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>2025-04-01T11:54:56+0300</t>
+          <t>2025-04-23T13:55:17+0300</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>https://api.hh.ru/vacancies/118595645?host=hh.ru</t>
+          <t>https://api.hh.ru/vacancies/118862744?host=hh.ru</t>
         </is>
       </c>
     </row>
@@ -1504,17 +1492,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>117952444</t>
+          <t>118011706</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ML-инженер/Data Scientist</t>
+          <t>Middle backend python-разработчик в AI компанию</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Москва</t>
+          <t>Самара</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1524,33 +1512,33 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/117952444</t>
+          <t>https://hh.ru/vacancy/118011706</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>&lt;p&gt;Компания, которая занимается разработкой высоконагруженных проектов развлекательной, игровой и спортивной тематики, сейчас находится в поисках &lt;strong&gt;ML-инженера/Data Scientist &lt;/strong&gt;для усиления команды.&lt;br /&gt;&lt;br /&gt;Используемый стек: Python, PyTorch, PostgreSQL, Kubernetes, Docker.&lt;br /&gt;&lt;br /&gt;&lt;strong&gt;Обязанности:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Разработка новых и усовершенствование существующих моделей;&lt;/li&gt; &lt;li&gt;Участие во всех этапах жизненного цикла ML-продуктов – от бизнес-анализа до вывода в production и поддержки готовых решений;&lt;/li&gt; &lt;li&gt;Разработка моделей для задач NLP и классических задач ML;&lt;/li&gt; &lt;li&gt;Разработка A/B тестов;&lt;/li&gt; &lt;li&gt;Разработка prompt для LLM;&lt;/li&gt; &lt;li&gt;Визуализация данных для презентации результатов;&lt;/li&gt; &lt;li&gt;Проведение исследований для реализации прототипа.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Требования:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Высшее образование (техническое, мехмат, физмат, эконом);&lt;/li&gt; &lt;li&gt;Опыт полного цикла решения ML-задач: от аналитики до вывода моделей в production (от 3-х лет);&lt;/li&gt; &lt;li&gt;Отличные знания Python, классического ML-стека и соответствующих ему библиотек;&lt;/li&gt; &lt;li&gt;Знания в области теории вероятностей и математической статистики, линейной алгебры;&lt;/li&gt; &lt;li&gt;Опыт построения моделей для решения классических задач;&lt;/li&gt; &lt;li&gt;Опыт построения NLP моделей будет плюсом;&lt;/li&gt; &lt;li&gt;Опыт в проведении A/B тестов;&lt;/li&gt; &lt;li&gt;Опыт работы с инструментами разработки и CI/CD — Git, Jira, Docker.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt; &lt;/p&gt; &lt;p&gt;&lt;strong&gt;Компания предлагает:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;&lt;strong&gt;Удалённый формат сотрудничества или работа в комфортабельном офисе в г. Лимасол, Кипр;&lt;/strong&gt;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Гибкое начало рабочего дня;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;100% оплачиваемые отпуска, больничные + несколько доп.day-offs;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Компенсацию дополнительного обучения и посещение профильных конференций;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Частичную компенсацию английского языка;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Корпоративы, митапы и тимбилдинги.&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt; &lt;p&gt; &lt;/p&gt;</t>
+          <t>&lt;p&gt;&lt;strong&gt;Привет, меня зовут Дмитрий Романов. Я основатель Университета искусственного интеллекта&lt;/strong&gt;&lt;/p&gt; &lt;p&gt;Университет Искусственного Интеллекта — лидер по созданию курсов в сфере AI&lt;/p&gt; &lt;p&gt;Компания, основанная в 2018 году, за 5 лет выросла до оборота в 350 млн рублей в год, став ведущим разработчиком курсов по искусственному интеллекту в России. Мы разрабатываем AI проекты для таких клиентов, как РЖД, Ростелеком, Совкомбанк, Самолёт, Wildberries, KIA и Российский Университет Дружбы Народов (РУДН). Мы также трудоустраиваем выпускниов в Сбер, Яндекс, МТС, Совкомбанк, Ростелеком, Huawei, Dell и другие компании. Наша страсть к AI не знает границ, и мы постоянно внедряем инновации, создавая и используя нейро-сотрудников. Наш продукт обгоняет конкурентов по качеству и количеству контента на рынке РФ и СНГ&lt;/p&gt; &lt;p&gt;В данный момент мы ищем &lt;strong&gt;Middle backend python-разработчика&lt;/strong&gt; на разработку нейро-сотрудников в сфере продаж курсов, аналитики в сфере маркетинга.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Вы сможете поучаствовать в проектах:&lt;/strong&gt;&lt;/p&gt; &lt;ol&gt; &lt;li&gt; &lt;p&gt;&lt;strong&gt;Нейро-контроль качества. &lt;/strong&gt;Мы реализуем Нейро-контроль качества отдела продаж и колл-центра за счет GPT-4о&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;&lt;strong&gt;Copilot. &lt;/strong&gt;Мы создаем внутренний сервис, которая помогает менеджерам по продажам продавать со встроенным AI на базе GPT-4o&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;&lt;strong&gt;Нейро-лектор. &lt;/strong&gt;AI с аватаром проводит голосом занятия для студентов в Google Colab и прям при них программирует, при них пишет код по AI, управляя мышкой по экрану в браузере&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;&lt;strong&gt;Аналитика трафика. &lt;/strong&gt;Мы делаем аналитику трафика, то есть мы делаем на Python подробную аналитику того, как у нас происходят продажи в зависимости от рекламных каналов&lt;/p&gt; &lt;/li&gt; &lt;/ol&gt; &lt;p&gt;&lt;strong&gt;Что ты получишь, работая у нас:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Наша команда сейчас, это более 30 разработчиков в сфере Python Backend, AI, LLM, Computer Vision, промт-инженеров и так далее. Вы будете работать в очень мощной команде с топовой в России компетенцией по AI&lt;/li&gt; &lt;li&gt;Оплата от 150 000 до 200 000 фикс в зависимости от вашего уровня&lt;/li&gt; &lt;li&gt;Участие в проекте полностью удаленно&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Требования:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Опыт работы Python-разработчиком от 2 лет&lt;/li&gt; &lt;li&gt;Python 3.7+&lt;/li&gt; &lt;li&gt;Python-библиотеки: Pandas 1.3+, Numpy&lt;/li&gt; &lt;li&gt;Django 2+, Flask 2+&lt;/li&gt; &lt;li&gt;Frontend: HTML, CSS, Javascript&lt;/li&gt; &lt;li&gt;Mysql, Postgresql&lt;/li&gt; &lt;li&gt;Опыт работы с git-репозиториями&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Будет плюсом:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Опыт работы с веб-фреймворками, отличными от Django и Flask&lt;/li&gt; &lt;li&gt;Опыт работы в Linux&lt;/li&gt; &lt;li&gt;Знания использования Docker-контейнеров&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Мы против &amp;quot;текучки кадров&amp;quot;, хотим расти и развиваться вместе со своей командой и поэтому относимся к выбору кандидатов очень ответственно. &lt;/strong&gt;Мы предлагаем действительно хорошие условия, но и с Вас мы ожидаем вовлеченность, дисциплину, результат.&lt;/p&gt; &lt;p&gt;Если Вам откликается данный спектр задач и было бы интересно развиваться в самой крутой и инновационной сфере искусственного интеллекта, тогда оставляйте отклик, и мы пришлем Вам короткую анкету и по итогу ее заполнения свяжемся с Вами для онлайн-собеседования.&lt;/p&gt;</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>[{'name': 'Python'}, {'name': 'PyTorch'}, {'name': 'PostgreSQL'}, {'name': 'NLP'}, {'name': 'A/B тесты'}, {'name': 'Docker'}, {'name': 'Git'}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2025-03-31T15:17:47+0300</t>
+          <t>2025-04-01T19:53:39+0300</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>2025-03-31T15:17:47+0300</t>
+          <t>2025-04-01T19:53:39+0300</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>https://api.hh.ru/vacancies/117952444?host=hh.ru</t>
+          <t>https://api.hh.ru/vacancies/118011706?host=hh.ru</t>
         </is>
       </c>
     </row>
@@ -1560,17 +1548,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>118157917</t>
+          <t>118767754</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Python-разработчик</t>
+          <t>Data engineer (junior)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Барнаул</t>
+          <t>Москва</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1580,33 +1568,33 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/118157917</t>
+          <t>https://hh.ru/vacancy/118767754</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>&lt;p&gt;Компания ТЕХНЕЗИС лидер на рынке разработки программного обеспечения для транспорта, оплаты проезда, автоматизации туристических порталов. Основана в 2016 году специалистами обеспечившими запуск и эксплуатацию крупнейших транспортных проектов: транспортная карта Тройка в Москве и транспортная карта Стрелка в Московской области.&lt;/p&gt; &lt;p&gt;Мы не занимаемся серийной заказной разработкой, аутстафингом и аутсорсингом. Командой разработаны два крупных продукта, на базе которых мы реализуем сопутствующие коммерческие проекты. Мы не беремся за любые отрасли, и всегда развиваем собственные решения.&lt;/p&gt; &lt;p&gt;Наш коллектив не большой, но наши разработки выходят далеко за пределы &amp;quot;стандартных&amp;quot; для рынка решений. Мы ищем амбициозного Middle python-разработчика, который сможет стать надежной опорой в командой работе и готов развиваться в разных направлениях Fullstack-разработчика. Мы не привязаны к офису и времени суток.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Обязанности:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Автоматизация бизнес-процессов и интеграция с API внешних систем.&lt;/li&gt; &lt;li&gt;Разработка Telegram и VK ботов.&lt;/li&gt; &lt;li&gt;Разработка административных интерфейсов для нужд компании.&lt;/li&gt; &lt;li&gt;Поддержка и развитие существующих решений - бэкенд, базы данных.&lt;/li&gt; &lt;li&gt;Оптимизация приложений и микросервисов, внедрение лучших практик в кодовую базу.&lt;/li&gt; &lt;li&gt;Работа в продуктовой команде (руководитель проекта, менеджер продукта, дизайнер, frontend и backend-разработчики, тестировщики).&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Требования:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Уверенное знание основ Python&lt;/li&gt; &lt;li&gt;Навыки работы с Django, понимание шаблона проектирования MVC, плюсом будет навыки работы с FastAPI.&lt;/li&gt; &lt;li&gt;Навыки работы с DRF - понимание REST API.&lt;/li&gt; &lt;li&gt;Навыки работы с инструментами для организации и автоматизации работы: IDE, GIT, ОС Linux .&lt;/li&gt; &lt;li&gt;Навыки работы с реляционными БД, уверенное владение SQL (postgres, clickhouse).&lt;/li&gt; &lt;li&gt;Владение основами JS, создание простых пользовательских интерфейсов&lt;/li&gt; &lt;li&gt;Уверенное знание принципов ООП.&lt;/li&gt; &lt;li&gt;Знакомство с aiogram, aiohttp, asyncio будет большим плюсом.&lt;/li&gt; &lt;li&gt;Юнит и интеграционные тесты (pytest) будет также большим плюсом.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Условия:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Удаленная (дистанционная) работа.&lt;/li&gt; &lt;li&gt;Работа в удобном для вас графике (не привязываемся к стандартным границам с 9:00 до 18:00).&lt;/li&gt; &lt;li&gt;Оплата за фактическое время работы.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Мы предлагаем:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Интересные задачи, которые помогают развиваться.&lt;/li&gt; &lt;li&gt;Карьерный и профессиональный рост.&lt;/li&gt; &lt;li&gt;Дружную и опытную команду.&lt;/li&gt; &lt;/ul&gt;</t>
+          <t>&lt;strong&gt;Обязанности:&lt;/strong&gt; &lt;ul&gt; &lt;li&gt;​​​​​​Подключение к источникам данных технологического уровня.&lt;/li&gt; &lt;li&gt;Реализация ETL/ELT-сценариев и витрин данных.&lt;/li&gt; &lt;li&gt;Поддержка работоспособности построенных потоков данных.&lt;/li&gt; &lt;li&gt;Информационная поддержка исследовательских и регулярных аналитических задач .&lt;/li&gt; &lt;/ul&gt; &lt;strong&gt;Требования:&lt;/strong&gt; &lt;ul&gt; &lt;li&gt;Высшее профильное образование в области ИТ или математики (готовы рассмотреть выпускников ВУЗов).&lt;/li&gt; &lt;li&gt;Знание SQL + PG/PL SQL;&lt;/li&gt; &lt;li&gt;Python;&lt;/li&gt; &lt;li&gt;Знание архитектуры платформ данных;&lt;/li&gt; &lt;li&gt;Базовые навыки администрирования (Linux, Docker, Git, CI/CD);&lt;/li&gt; &lt;li&gt;Желателен опыт работы с производственными данными.&lt;/li&gt; &lt;/ul&gt; &lt;strong&gt;Условия:&lt;/strong&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;Официальное трудоустройство в аккредитованную ИТ компанию;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;График работы 5/2, удаленная работа;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Выплата заработной платы 2 раза в месяц;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Забота о здоровье (медицинское обслуживание на уровне рынка, льготные тарифы на корпоративную базу отдыха);&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Участие во внешних конференциях и семинарах за счет средств Работодателя.&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt; &lt;div&gt; &lt;div title="Перевести выделенный фрагмент"&gt; &lt;/div&gt; &lt;div title="Прослушать"&gt; &lt;/div&gt; &lt;div title="Скопировать текст в буфер обмена"&gt; &lt;/div&gt; &lt;/div&gt;</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>[{'name': 'Python'}, {'name': 'SQL'}, {'name': 'REST API'}, {'name': 'Базы данных'}, {'name': 'Java'}, {'name': 'Django Framework'}, {'name': 'Git'}, {'name': 'Linux'}, {'name': 'ООП'}, {'name': 'PostgreSQL'}, {'name': 'Clickhouse'}, {'name': 'Pytest'}, {'name': 'Eclipse IDE'}, {'name': 'FastAPI'}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2025-04-01T16:04:41+0300</t>
+          <t>2025-03-25T13:56:59+0300</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>2025-04-01T16:04:41+0300</t>
+          <t>2025-03-25T13:56:59+0300</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>https://api.hh.ru/vacancies/118157917?host=hh.ru</t>
+          <t>https://api.hh.ru/vacancies/118767754?host=hh.ru</t>
         </is>
       </c>
     </row>
@@ -1616,53 +1604,53 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>118080934</t>
+          <t>118768426</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Fullstack-разработчик web3</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Москва</t>
+          <t>Турция</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Полная занятость</t>
+          <t>Проектная работа</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/118080934</t>
+          <t>https://hh.ru/vacancy/118768426</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>&lt;p&gt;&lt;strong&gt;Watch this introduction video from our CEO &amp;amp; Co-owner:&lt;/strong&gt;&lt;br /&gt;&lt;br /&gt;&lt;strong&gt;Our core values are:&lt;/strong&gt;&lt;/p&gt; &lt;p&gt;✔️Excellence in everything we do (“I go above and beyond”)&lt;/p&gt; &lt;p&gt;✔️Ownership and responsibility (“I own it”)&lt;/p&gt; &lt;p&gt;✔️Continuously push the limits (“I don’t accept no as an answer. No is just an option”)&lt;/p&gt; &lt;p&gt;✔️Openness &amp;amp; cooperation (“Everyone matters”)&lt;/p&gt; &lt;p&gt;We are a remote e-commerce company on a heartfelt mission to spread Love, Positivity, and Health, one exceptional product at a time. Our unique niche is esoteric products that resonate in online markets around the world. With a crystal-clear vision for the future, our dedicated and diverse team is ever-growing, and we are eagerly seeking talented individuals to embark on this exciting journey with us.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;About the role:&lt;/strong&gt;&lt;/p&gt; &lt;p&gt;The ultimate mission of a Data Analyst is to generate actionable insights that can guide strategic decisions. The data scientist should be able to communicate these insights clearly to stakeholders, enabling them to understand the data&amp;#39;s implications for the business.&lt;/p&gt; &lt;p&gt;A core mission is to understand and prepare data for analysis. This involves collecting, cleaning, and managing data from various sources to ensure it is accurate and usable for making informed decisions.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;What you’ll be responsible for:&lt;/strong&gt;&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Enhanced Decision-Making&lt;/strong&gt;: One of the primary outcomes is to empower leadership and key stakeholders with data-driven insights that inform strategic and operational decisions. This includes identifying trends, predicting future outcomes, and providing evidence-based recommendations that improve business performance. This can be done by making sure all data is correct, organized and we can analyze things in the most granular way.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Increased Efficiency and Cost Savings&lt;/strong&gt;: By analyzing and optimizing processes, a data scientist can identify areas where resources can be used more effectively, leading to cost reductions and increased operational efficiency. This might involve automating routine data processes, improving supply chain logistics, or optimizing resource allocation.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Advanced Reporting Capabilities&lt;/strong&gt;: Implement advanced reporting tools and dashboards that provide real-time insights into key performance indicators (KPIs), operational metrics, and strategic goals. These tools should be user-friendly and customizable, allowing non-technical users to generate reports and visualize data insights independently.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Data Quality and Integrity&lt;/strong&gt;: Establish and enforce rigorous data governance and quality control measures to ensure the accuracy, completeness, and reliability of the data used for analysis and reporting. This includes setting up processes for regular data cleansing, validation, and deduplication.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Custom Analytics Solutions&lt;/strong&gt;: Develop custom analytics solutions and models that address specific business questions or challenges. These solutions should be designed to easily integrate with existing reporting tools, enhancing the organization&amp;#39;s ability to derive actionable insights from complex datasets.&lt;/p&gt; &lt;p&gt;Being able to create any custom report management and leadership asks for.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;You’ll be a great fit if you have:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;&lt;strong&gt;Specific experience with&lt;/strong&gt; GA4, Shopify, ClickFunnels, Klaviyo, and Kajabi &lt;strong&gt;is preferred&lt;/strong&gt;&lt;/li&gt; &lt;li&gt;&lt;strong&gt;Experience&lt;/strong&gt; in e-commerce business for 2-3 years&lt;/li&gt; &lt;li&gt;&lt;strong&gt;Efficiency&lt;/strong&gt;. Able to produce significant output with minimal wasted effort.&lt;/li&gt; &lt;li&gt;&lt;strong&gt;Analytical skills.&lt;/strong&gt; Able to structure and process qualitative or quantitative data and draw insightful conclusions from it. Exhibits a probing mind and achieves penetrating insights.&lt;/li&gt; &lt;li&gt;&lt;strong&gt;Attention to detail&lt;/strong&gt;. Do not let important details slip through the cracks or derail a project. No data is irrelevant.&lt;/li&gt; &lt;li&gt;&lt;strong&gt;Proactivity&lt;/strong&gt;. Acts without being told what to do. Brings new ideas to the company on how we can be a better data-driven organization.&lt;/li&gt; &lt;li&gt;&lt;strong&gt;Flexibility/adaptability&lt;/strong&gt;. Adjusts quickly to changing priorities and conditions and can adjust the data lake to the needs of the organization. Copes effectively with complexity and change.&lt;/li&gt; &lt;li&gt;&lt;strong&gt;Statistical Analysis and Mathematical Skills&lt;/strong&gt;: A strong foundation in statistics and mathematics is crucial for building predictive models and interpreting data. This includes knowledge of probability, statistical tests, and various mathematical algorithms that are fundamental to data analysis.&lt;/li&gt; &lt;li&gt;&lt;strong&gt;Programming and Data Manipulation&lt;/strong&gt;: Proficiency in programming languages such as Python or R is essential for data manipulation, analysis, and model building. Skills in SQL for data retrieval, pandas for data manipulation in Python, or dplyr in R are also important.&lt;/li&gt; &lt;li&gt;&lt;strong&gt;Data Visualization and Reporting&lt;/strong&gt;: The ability to present data in a clear, insightful, and visually appealing way is key to communicating findings to stakeholders. Competence in data visualization tools like Tableau, Power BI, or even Python libraries like Matplotlib and Seaborn is vital.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;What’s in it for you:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Remote Work: Enjoy the flexibility of working 100% remotely from the comfort of your home or any location worldwide.&lt;/li&gt; &lt;li&gt;Unlimited Vacation: Take as many vacation days as you need to ensure you are well-rested and ready to tackle new challenges.&lt;/li&gt; &lt;li&gt;Professional Growth: As we are a small company, you&amp;#39;ll have the chance to engage with various aspects of the business, fostering your professional development.&lt;/li&gt; &lt;li&gt;Emergency Fund: We offer an interest-free emergency fund with comfortable payouts to help you in times of need.&lt;/li&gt; &lt;li&gt;Company Retreats: While we are a fully remote company, we believe in teamwork and we want you to feel you belong here. We strive to organize yearly company retreats where everyone is invited. We believe in hard work, but also in having a good time!&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Interview flow:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Application: Everything starts with getting in touch. The best way to express your interest is by applying online.&lt;/li&gt; &lt;li&gt;Technical Interview/Test: You may undergo a technical interview or complete a relevant test.&lt;/li&gt; &lt;li&gt;HR Interview: If your profile aligns with our requirements, we&amp;#39;ll invite you for an HR interview.&lt;/li&gt; &lt;li&gt;Online Interviews: You may have up to three online interviews with various team members.&lt;/li&gt; &lt;li&gt;Reference Check: We will kindly request you to arrange a reference check before we extend a job offer.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;If this opportunity resonates with you, we are excited to meet you and welcome you to the HelloChakra team!&lt;/p&gt; &lt;p&gt; &lt;/p&gt;</t>
+          <t>&lt;p&gt;&lt;strong&gt;В проектную разработку ищем Fullstack-разработчика&lt;br /&gt;&lt;br /&gt;Стек: &lt;/strong&gt;Python, CCXT, MySQL, HTML, CSS, JavaScript, Rust&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Кого мы ищем?&lt;/strong&gt;&lt;/p&gt; &lt;p&gt;Мы будем рады видеть в команде разработчика, который:&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Имеет опыт проектирования и понимание принципов работы ботов&lt;/li&gt; &lt;li&gt;Интеграция с API бирж&lt;/li&gt; &lt;li&gt;Умеет тестировать и отлаживать собственный код&lt;/li&gt; &lt;li&gt;Обладает опытом работы с высоконагруженными системами&lt;/li&gt; &lt;li&gt;Знаком с мониторингом систем с использованием Prometheus и Grafana&lt;/li&gt; &lt;li&gt;Опыт сбора через websocket&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Ваши soft skills:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Бизнес-ориентированный подход к задачам&lt;/li&gt; &lt;li&gt;Ответственность за результат&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Что мы предлагаем?&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Самостоятельность в принятии решений&lt;/li&gt; &lt;li&gt;Гибкий график и удаленная работа из любой точки мира, ориентир на время по МСК&lt;/li&gt; &lt;li&gt;Оплата в USDT (почасовая оплата или фикс)&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Пожалуйста, приложите к отклику:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Актуальную информацию о себе (резюме или сопроводительное письмо)&lt;/li&gt; &lt;li&gt;Примеры реализованных проектов&lt;/li&gt; &lt;/ul&gt;</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>[{'name': 'GA4'}, {'name': 'Shopify'}, {'name': 'Kajabi'}, {'name': 'ClickFunnels'}, {'name': 'Python'}, {'name': 'SQL'}, {'name': 'Tableau'}, {'name': 'Power BI'}]</t>
+          <t>[{'name': 'Web3'}, {'name': 'Английский язык'}, {'name': 'websockets'}, {'name': 'CEX'}, {'name': 'Prometheus'}, {'name': 'Grafana'}, {'name': 'GraphQL'}, {'name': 'Git'}, {'name': 'REST API'}, {'name': 'Crypto'}, {'name': 'websocket'}, {'name': 'Python'}, {'name': 'ByBit API'}, {'name': 'CCXT'}, {'name': 'MySQL'}, {'name': 'HTML'}, {'name': 'CSS'}, {'name': 'JavaScript'}, {'name': 'Rust'}]</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2025-03-31T15:50:23+0300</t>
+          <t>2025-04-21T19:37:59+0300</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>2025-03-31T15:50:23+0300</t>
+          <t>2025-04-21T19:37:59+0300</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>https://api.hh.ru/vacancies/118080934?host=hh.ru</t>
+          <t>https://api.hh.ru/vacancies/118768426?host=hh.ru</t>
         </is>
       </c>
     </row>
@@ -1672,12 +1660,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>119041390</t>
+          <t>118847483</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>SRE-инженер (senior)</t>
+          <t>Python разработчик Middle+</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1692,33 +1680,33 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/119041390</t>
+          <t>https://hh.ru/vacancy/118847483</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>&lt;p&gt;Лемана Тех ищет &lt;strong&gt;инженера по доступности сервиса/SRE&lt;/strong&gt;, который будет отвечать за работу и отказоустойчивость инсталляций приватного облака, поддерживать пользователей (продуктовые команды), а также развивать автоматизацию управления облаками.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;ОСНОВНЫЕ ЗАДАЧИ:&lt;/strong&gt;&lt;/p&gt; &lt;p&gt;Настройка и эксплуатация публичных и приватного (OpenStack) облака, восстановление от сбоев, развитие автоматизации развёртывания и балансировки нагрузок, масштабирование решений.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;ЧТО МЫ ОЖИДАЕМ ОТ КАНДИДАТА:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;5+ лет опыта эксплуатации Linux серверов (Bare Metal, Cloud Infra) с высокой степенью автоматизации в роли старшего инженера, либо ведущего инженера;&lt;/li&gt; &lt;li&gt;хорошие знания Linux ядра и ключевых компонент размещения современных нагрузок, обязательно умение траблшутить системные проблемы;&lt;/li&gt; &lt;li&gt;хорошие знания сети и Linux networking;&lt;/li&gt; &lt;li&gt;знание устройства k8s, желательно опыт эксплуатации на BareMetal;&lt;/li&gt; &lt;li&gt;опыт работы с Terraform, Ansible, Jenkins, Helm;&lt;/li&gt; &lt;li&gt;опыт решения инцидентов/сбоев в ИТ-инфраструктуре;&lt;/li&gt; &lt;li&gt;опыт с системами мониторинга: Prometheus, Grafana, желательно VictoriaMetrics;&lt;/li&gt; &lt;li&gt;опыт с системами логирования: EFK, Vector и пр.;&lt;/li&gt; &lt;li&gt;обязательно знание Python, умение разбираться и дорабатывать чужой код для системных компонент.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;БУДЕТ ПЛЮСОМ:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;опыт эксплуатации и развития приватной инсталляции OpenStack;&lt;/li&gt; &lt;li&gt;опыт тестирования нагрузок/отказоустойчивости;&lt;/li&gt; &lt;li&gt;понимание Архитектуры ЦОДов;&lt;/li&gt; &lt;li&gt;опыт настройки, эксплуатации, обслуживания ИТ-инфраструктуры: (Сервера, СХД, Сеть);&lt;/li&gt; &lt;li&gt;знание Golang.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;МЫ ПРЕДЛАГАЕМ:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;работу в компании с развитой инженерной культурой;&lt;/li&gt; &lt;li&gt;гибкую систему премирования;&lt;/li&gt; &lt;li&gt;расширенный социальный пакет: ДМС со стоматологией с первого месяца работы, психолог и страхование жизни, компенсация питания и оплата мобильной связи;&lt;/li&gt; &lt;li&gt;возможности профессионального роста, программы развития для сотрудников;&lt;/li&gt; &lt;li&gt;корпоративное обучение и доступ к базе знаний;&lt;/li&gt; &lt;li&gt;внутренние профессиональные сообщества и мероприятия;&lt;/li&gt; &lt;li&gt;автономность работы, возможность менять правила, ошибаться и создавать новое;&lt;/li&gt; &lt;li&gt;гибридный или удаленный формат работы;&lt;/li&gt; &lt;li&gt;современный офис в 2 минутах ходьбы от МЦК ЗИЛ.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;С каждым годом на выбор сотрудника становится доступно больше дополнительных опций. Например, частичная компенсация путешествий, затрат на обучение, спортивных занятий.&lt;/p&gt;</t>
+          <t>&lt;p&gt;&lt;strong&gt;О нашем продукте:&lt;/strong&gt;&lt;/p&gt; &lt;p&gt;XINDATA это AI-ассистент для финансового анализа для аналитиков, финансовых менеджеров и любых руководителей. Этот продукт позволяет руководителям получать нужную информацию мгновенно, без обращения к аналитикам или разработчикам. Теперь больше не нужно разбираться в сложных системах или настраивать отчеты — вы просто задаете вопрос на естественном языке и сразу получаете ответ или отчет. Продукт интегрирован в чат-формат, включая Telegram, что даёт возможность пользоваться им в любом месте: на встречах, собраниях или вне офиса.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Мы верим в демократизацию работы с финансовыми данными, делая их в первую очередь доступными и не в последнюю очередь – понятными. &lt;/strong&gt;&lt;/p&gt; &lt;p&gt;Сейчас мы в поиске увлеченного Python разработчика уровня Middle+&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Наш стек: &lt;/strong&gt;Python, FastAPI, OpenAI, Celery&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Что предстоит делать:&lt;/strong&gt;&lt;/p&gt; &lt;p&gt;Реализовывать бэкенд разных систем завязанных AI-ассистентов, например:&lt;/p&gt; &lt;ul&gt; &lt;li&gt;собрать простенькую админку для настройки системы&lt;/li&gt; &lt;li&gt;спроектировать и реализовать API для взаимодействия между бэком и фронтом&lt;/li&gt; &lt;li&gt;собрать цепочку вызова LLM для решения какой-нибудь задачи, прогнать по тестовой базе реплик и поставить задачу на разметку&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;От тебя мы ждем:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Опыт разработки на Python 3.10+ в production-разработке&lt;/li&gt; &lt;li&gt;Опыт работы с LLM, в частности с langchain&lt;/li&gt; &lt;li&gt;Умение покрыть свой код тестами и документацией&lt;/li&gt; &lt;li&gt;Способность спроектировать небольшой бэкенд-сервис: выбрать стек, спроектировать хранение данных и API&lt;/li&gt; &lt;li&gt;Git, SSH, Linux (на уровне пользователя терминала)&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Хорошим плюсом будет:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Навыки анализа данных - посчитать метрики точности модели, например.&lt;/li&gt; &lt;li&gt;Знание чего-то из инфраструктурных тулзов: (в порядке убывания важности): Docker (включая Compose), Gitlab CI, Linux на уровне администратора.&lt;strong&gt; &lt;/strong&gt;&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Мы предлагаем:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;Официальное трудоустройство (аккредитованная IT компания)&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Полностью белая ЗП&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Удалённая работа из любой точки мира или гибкий график&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Возможности для профессионального роста и развития в инновационном проекте&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt;</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>[{'name': 'Bare Metal'}, {'name': 'Cloud Infra'}, {'name': 'Linux'}, {'name': 'Linux networking'}, {'name': 'Kubernetes'}, {'name': 'Terraform'}, {'name': 'Ansible'}, {'name': 'Jenkins'}, {'name': 'Helm'}, {'name': 'Prometheus'}, {'name': 'Grafana'}, {'name': 'EFK'}, {'name': 'Vector'}, {'name': 'Python'}]</t>
+          <t>[{'name': 'Python'}, {'name': 'FastAPI'}, {'name': 'OpenAl'}, {'name': 'Celery'}]</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2025-04-01T18:21:03+0300</t>
+          <t>2025-04-23T09:59:34+0300</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>2025-04-01T18:21:03+0300</t>
+          <t>2025-04-23T09:59:34+0300</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>https://api.hh.ru/vacancies/119041390?host=hh.ru</t>
+          <t>https://api.hh.ru/vacancies/118847483?host=hh.ru</t>
         </is>
       </c>
     </row>
@@ -1728,53 +1716,53 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>118749778</t>
+          <t>118492478</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Python-разработчик / Бэкенд-разработчик</t>
+          <t>Machine Learning Engineer - Computer Vision (GANs &amp; Stable Diffusion)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Челябинск</t>
+          <t>Москва</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Проектная работа</t>
+          <t>Полная занятость</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/118749778</t>
+          <t>https://hh.ru/vacancy/118492478</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>&lt;p&gt;Обязанности:&lt;/p&gt; &lt;p&gt; &lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;Создание Telegram-бота с использованием aiogram/pyTelegramBotAPI (или альтернативных фреймворков).&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Интеграция с Wildberries API и Ozon API (если доступны) для получения данных о товарах, заказах и ценах.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Реализация парсинга данных (через API или веб-скрапинг) при отсутствии официальных методов.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Настройка вебхуков или long polling для обработки запросов.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Разработка системы хранения и обработки данных&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Настройка уведомлений (изменение цен, статусы заказов, сроки возврата).&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Разработка алгоритмов сравнения цен между WB и Ozon.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Создание системы отслеживания скидок и промокодов.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Защита от банов при парсинге (ротация IP, User-Agent, задержки).&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Оптимизация запросов к API (чтобы не превышать лимиты).&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Резервное копирование данных.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Написание unit- и интеграционных тестов.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Исправление багов, мониторинг стабильности работы.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Развертывание бота на VPS/облаке (Docker, Nginx, Gunicorn).&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Настройка CI/CD (если используется GitLab/GitHub Actions).&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Техническая поддержка и обновление функционала.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;В будущем: интеграция с платежными системами (для монетизации)./Подключение ChatGPT/LLM для обработки сложных запросов пользователей.&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt; &lt;p&gt;Требования:&lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;Опыт с Celery/RabbitMQ&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Знание Pandas/NumPy&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Навыки работы с Jupyter Notebook&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Опыт интеграции с платежными системами&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Самостоятельность&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Гибкость в работе&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Внимание к деталям&lt;/p&gt; &lt;/li&gt; &lt;li&gt;Аналитический склад ума&lt;/li&gt; &lt;li&gt;Умение работать с неполными данными&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;Условия:&lt;/p&gt; &lt;p&gt; &lt;/p&gt; &lt;ul&gt; &lt;li&gt;Своевременная оплата труда&lt;/li&gt; &lt;li&gt;Интересный проект&lt;/li&gt; &lt;/ul&gt;</t>
+          <t>&lt;p&gt;&lt;strong&gt;EXITEK&lt;/strong&gt; team is looking for a Machine Learning Engineer. We&amp;#39;re expanding our development team and looking for a passionate, experienced, self-organised candidate to work on our BeautyUp app (apps.apple.com/us/app/id1671843069).&lt;/p&gt; &lt;p&gt; &lt;/p&gt; &lt;p&gt;&lt;strong&gt;Responsibilities:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Design, develop, and optimize state-of-the-art computer vision pipelines, algorithms and models;&lt;/li&gt; &lt;li&gt;Conceive and experiment with innovative features and functionalities in the realm of photo editing and enhancement;&lt;/li&gt; &lt;li&gt;Collaborate with cross-functional teams to integrate machine learning models into production systems and pipelines.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt; &lt;/p&gt; &lt;p&gt;&lt;strong&gt;Requirements:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Proficiency in Python and PyTorch;&lt;/li&gt; &lt;li&gt;Experience in Computer Vision (GANs, SD, etc.) is a must;&lt;/li&gt; &lt;li&gt;Deep understanding of the current state of the art in machine learning and computer vision;&lt;/li&gt; &lt;li&gt;Robust communication skills, complemented by the ability to thrive in a collaborative team environment.&lt;/li&gt; &lt;/ul&gt;</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>[{'name': 'Python'}]</t>
+          <t>[{'name': 'Python'}, {'name': 'Computer Vision'}, {'name': 'PyTorch'}, {'name': 'Numpy'}, {'name': 'OpenCV'}]</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2025-03-31T10:12:51+0300</t>
+          <t>2025-04-14T11:07:31+0300</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>2025-03-31T10:12:51+0300</t>
+          <t>2025-04-14T11:07:31+0300</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>https://api.hh.ru/vacancies/118749778?host=hh.ru</t>
+          <t>https://api.hh.ru/vacancies/118492478?host=hh.ru</t>
         </is>
       </c>
     </row>
@@ -1784,12 +1772,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>118286710</t>
+          <t>118523931</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Специалист по компьютерному зрению (высоконагруженные системы видеоаналитики)</t>
+          <t>Python-разработчик (Junior/Middle)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1804,33 +1792,33 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/118286710</t>
+          <t>https://hh.ru/vacancy/118523931</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>&lt;p&gt;&lt;strong&gt;Требования:&lt;/strong&gt;&lt;/p&gt; &lt;ol&gt; &lt;li&gt;&lt;strong&gt;Опыт работы&lt;/strong&gt;: &lt;ul&gt; &lt;li&gt;2+ года коммерческого опыта в разработке и оптимизации систем компьютерного зрения для обработки видеопотоков в реальном времени.&lt;/li&gt; &lt;li&gt;Участие в проектах, связанных с высоконагруженными системами (более 1000 кадров/сек), включая декодирование/кодирование видео на GPU (NVENC, NVDEC, FFmpeg, GStreamer).&lt;/li&gt; &lt;li&gt;Опыт оптимизации производительности ML-моделей: quantization, pruning, дистилляция, использование TensorRT, OpenVINO, ONNX Runtime.&lt;/li&gt; &lt;/ul&gt; &lt;/li&gt; &lt;li&gt;&lt;strong&gt;Технические навыки&lt;/strong&gt;: &lt;ul&gt; &lt;li&gt;Профильное знание Python и фреймворков: &lt;strong&gt;PyTorch&lt;/strong&gt;, &lt;strong&gt;TensorFlow&lt;/strong&gt;, &lt;strong&gt;OpenCV&lt;/strong&gt;, &lt;strong&gt;Keras&lt;/strong&gt;, &lt;strong&gt;Dask&lt;/strong&gt; или &lt;strong&gt;Ray&lt;/strong&gt; для распределенных задач.&lt;/li&gt; &lt;li&gt;Глубокое понимание алгоритмов детекции (YOLO, Faster R-CNN), сегментации (Mask R-CNN, U-Net), трекинга (DeepSORT, SiamRPN), а также их метрик (mAP, IoU, MOTA).&lt;/li&gt; &lt;li&gt;Опыт работы с GPU/TPU (CUDA, cuDNN), оптимизации инференса моделей под аппаратные ускорители.&lt;/li&gt; &lt;li&gt;Знание инструментов для обработки видеопотоков: &lt;strong&gt;FFmpeg&lt;/strong&gt;, &lt;strong&gt;GStreamer&lt;/strong&gt;, &lt;strong&gt;RTSP&lt;/strong&gt;, &lt;strong&gt;WebRTC&lt;/strong&gt;.&lt;/li&gt; &lt;li&gt;Уверенное владение Docker, Kubernetes, Airflow.&lt;/li&gt; &lt;/ul&gt; &lt;/li&gt; &lt;li&gt;&lt;strong&gt;Инфраструктура&lt;/strong&gt;: &lt;ul&gt; &lt;li&gt;Опыт настройки CI/CD (GitLab CI, GitHub Actions), мониторинга (Prometheus, Grafana) и логирования (ELK Stack).&lt;/li&gt; &lt;li&gt;Знание баз данных для работы с большими данными: PostgreSQL, Redis, TimescaleDB.&lt;/li&gt; &lt;/ul&gt; &lt;/li&gt; &lt;li&gt;&lt;strong&gt;GitHub&lt;/strong&gt;: &lt;ul&gt; &lt;li&gt;Публичные проекты с примерами оптимизированного кода для задач реального времени, включая обработку видео и интеграцию с GPU.&lt;/li&gt; &lt;/ul&gt; &lt;/li&gt; &lt;/ol&gt; &lt;div&gt; &lt;/div&gt; &lt;p&gt;&lt;strong&gt;Функциональные обязанности:&lt;/strong&gt;&lt;/p&gt; &lt;ol&gt; &lt;li&gt;Разработка и оптимизация ML-моделей и пайплайнов для анализа видеопотоков в &lt;strong&gt;реальном времени&lt;/strong&gt; с учетом ограничений по latency (менее 50 мс/кадр).&lt;/li&gt; &lt;li&gt;Интеграция алгоритмов детекции, сегментации и трекинга в высоконагруженные системы (микросервисная архитектура, распределенные вычисления).&lt;/li&gt; &lt;li&gt;Работа с низкоуровневой оптимизацией: &lt;ul&gt; &lt;li&gt;Декодирование видеопотоков на GPU.&lt;/li&gt; &lt;li&gt;Асинхронная обработка кадров с использованием многопоточности (asyncio, Celery).&lt;/li&gt; &lt;li&gt;Сокращение нагрузки на CPU/GPU за счет эффективного управления памятью и batch-обработки.&lt;/li&gt; &lt;/ul&gt; &lt;/li&gt; &lt;li&gt;Анализ и улучшение метрик качества моделей, A/B-тестирование алгоритмов.&lt;/li&gt; &lt;li&gt;Проектирование отказоустойчивых конвейеров обработки данных с балансировкой нагрузки.&lt;/li&gt; &lt;li&gt;Взаимодействие с DevOps для деплоя решений на облачных платформах (AWS, GCP, Azure) и edge-устройствах.&lt;/li&gt; &lt;/ol&gt; &lt;div&gt; &lt;/div&gt; &lt;p&gt;&lt;strong&gt;Ключевые задачи компьютерного зрения:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Реализация алгоритмов для работы в условиях частичной потери данных (артефакты сжатия, низкое качество видео).&lt;/li&gt; &lt;li&gt;Трекинг объектов в сценах с высокой плотностью (crowd detection) и динамическим фоном.&lt;/li&gt; &lt;li&gt;Оптимизация пайплайна &amp;quot;frame capture → preprocessing → inference → postprocessing&amp;quot; для минимизации задержек.&lt;/li&gt; &lt;/ul&gt; &lt;div&gt; &lt;/div&gt; &lt;p&gt;&lt;strong&gt;Навыки написания продакшн-кода:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Умение писать код, готовый к масштабированию (чистые интерфейсы, модульность, кэширование).&lt;/li&gt; &lt;li&gt;Знание принципов тестирования (unit, integration, нагрузочные тесты).&lt;/li&gt; &lt;/ul&gt; &lt;div&gt; &lt;/div&gt; &lt;p&gt;&lt;strong&gt;Soft Skills:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Способность аргументировать выбор архитектурных решений (например, TorchScript vs ONNX).&lt;/li&gt; &lt;li&gt;Опыт менторства junior-разработчиков.&lt;/li&gt; &lt;li&gt;Умение работать в Agile/Scrum, декомпозировать задачи с учетом бизнес-требований.&lt;/li&gt; &lt;/ul&gt; &lt;div&gt; &lt;/div&gt; &lt;p&gt;&lt;strong&gt;Будет плюсом:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Публикации или доклады на темы оптимизации ML-моделей.&lt;/li&gt; &lt;li&gt;Знание C++ для написания высокопроизводительных модулей.&lt;/li&gt; &lt;li&gt;Опыт работы с edge-устройствами (NVIDIA Jetson, Intel Movidius).&lt;/li&gt; &lt;/ul&gt; &lt;div&gt; &lt;/div&gt; &lt;p&gt;&lt;strong&gt;Условия:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Работа над продуктами, обрабатывающими &amp;gt;200 часов видео ежедневно.&lt;/li&gt; &lt;li&gt;Внедрение решений, напрямую влияющих на ключевые метрики бизнеса.&lt;/li&gt; &lt;li&gt;Удаленный формат работы с 09.00 до 18.00 по мск;&lt;/li&gt; &lt;li&gt;Сильная команда, в которой есть возможность для реализации творческих идей и профессионального роста.&lt;/li&gt; &lt;/ul&gt;</t>
+          <t>&lt;p&gt;&lt;strong&gt;LATOKEN&lt;/strong&gt;, одна из ведущих криптобирж мира, приглашает в команду Продакт Разработчика Python для развития AI сервисов для трейдинга, а также внутренней платформы операций.&lt;/p&gt; &lt;p&gt;О компании: LATOKEN входит в ТОП 20 криптобирж мира, является крупнейшей Веб3 компанией из СНГ и входит в Forbes ТОП 30 компаний для удаленной работы в 2022 году. Наша платформа - это супермаркет криптоактивов с более чем 3,000 наименований. Наша миссия: помочь людям узнать о будущем и заработать на нем, узнавая о передовых активах.&lt;/p&gt; &lt;p&gt;&lt;br /&gt;&lt;strong&gt;Наши Python разработчики:&lt;/strong&gt;&lt;br /&gt;Собирают данные и строят аналитические сервисы для десятков тысяч активов&lt;br /&gt;Развивают платформу маркетинга для токенов&lt;br /&gt;Внедряют автоматические воронки и телеграм ботов&lt;br /&gt;Развивают платформу управления компании&lt;br /&gt;Использует LLM и RAG&lt;br /&gt;Ротируются между командами и быстро растут&lt;br /&gt;&lt;br /&gt;&lt;strong&gt;Как продакт разработчик вы:&lt;/strong&gt;&lt;br /&gt;Отвечаете за доставку проектов в продакшн каждую неделю и решаете кросс-командных проблемы для этого&lt;br /&gt;Грумите и планируете беклог&lt;br /&gt;Вникаете, как вы влияете на клиентские метрики&lt;br /&gt;Делает прозрачным работу вашей команды и повышаете стандарты&lt;br /&gt;&lt;br /&gt;&lt;strong&gt;Требования:&lt;/strong&gt;&lt;br /&gt;1+ год опыта в Python&lt;br /&gt;Увлечение передовыми технологиями, опыт применения GPT для анализа данных с подключением к базам данных&lt;br /&gt;Трудолюбие и способность работать под давлением 50-60 часов в неделю, стремление вырасти в лида и CTO&lt;br /&gt;&lt;br /&gt;&lt;strong&gt;Преимущества:&lt;/strong&gt;&lt;br /&gt;Возможность быстрого роста в культуре спортивных достижений&lt;br /&gt;Работа с передовыми технологиями AI и Web3&lt;br /&gt;Крупнейшая компания в области Web3 из СНГ&lt;br /&gt;Удаленная работа&lt;br /&gt;Оплата в твердой валюте&lt;br /&gt;Опционы&lt;/p&gt; &lt;p&gt;Работа в LATOKEN - это уникальная возможность попасть на передовую технологий, развиться и создать будущее. Мы приглашаем энтузиастов технологий с духом спортивных достижений. Откликнитесь на эту вакансию, если чувствуете, что у нас есть лучшая работа для роста вашего потенциала изменить мир.&lt;/p&gt; &lt;p&gt; &lt;/p&gt;</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>[{'name': 'PyTorch'}, {'name': 'TensorFlow'}, {'name': 'OpenCV'}, {'name': 'Keras'}, {'name': 'Python'}, {'name': 'CI/CD'}, {'name': 'GitLab CI'}, {'name': 'GitHub'}, {'name': 'PostgreSQL'}, {'name': 'ETL'}]</t>
+          <t>[{'name': 'Python'}]</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2025-03-31T11:01:33+0300</t>
+          <t>2025-04-14T18:51:38+0300</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>2025-03-31T11:01:33+0300</t>
+          <t>2025-04-14T18:51:38+0300</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>https://api.hh.ru/vacancies/118286710?host=hh.ru</t>
+          <t>https://api.hh.ru/vacancies/118523931?host=hh.ru</t>
         </is>
       </c>
     </row>
@@ -1840,17 +1828,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>118740671</t>
+          <t>118128471</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Python Backend Developer</t>
+          <t>Аналитик данных</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Алматы</t>
+          <t>Москва</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1860,33 +1848,33 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/118740671</t>
+          <t>https://hh.ru/vacancy/118128471</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>&lt;p&gt;&lt;strong&gt;Hello there! &lt;/strong&gt;&lt;/p&gt; &lt;p&gt;Our development department has a project for which they&amp;#39;re seeking an experienced Python developer to join our team working on our analytics AI agent system. You&amp;#39;ll be responsible for enhancing our analytics tools, improving our AI prompts, and developing new data processing capabilities.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Technology Stack&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Python backend services&lt;/li&gt; &lt;li&gt;OpenAI GPT models&lt;/li&gt; &lt;li&gt;LangChain framework for AI orchestration&lt;/li&gt; &lt;li&gt;Pydantic for data validation and modeling&lt;/li&gt; &lt;li&gt;RESTful API architecture&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;What You&amp;#39;ll Do&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Maintain and extend our analytics tools that process campaign, source, ad, and user data&lt;/li&gt; &lt;li&gt;Optimize API calls and improve data processing efficiency&lt;/li&gt; &lt;li&gt;Refine AI prompt engineering to better understand user queries&lt;/li&gt; &lt;li&gt;Implement data visualization capabilities for analytics reports&lt;/li&gt; &lt;li&gt;Ensure secure data handling and proper parameter validation&lt;/li&gt; &lt;li&gt;Develop new analytics features based on business requirements&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Key Challenges&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Translating natural language requests into precise analytics queries&lt;/li&gt; &lt;li&gt;Optimizing API calls to minimize resource usage while maximizing data insights&lt;/li&gt; &lt;li&gt;Handling complex date ranges and comparison operations&lt;/li&gt; &lt;li&gt;Ensuring accurate metric calculations and proper data formatting&lt;/li&gt; &lt;li&gt;Maintaining clear and helpful error messaging for users&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Required Skills&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Strong Python development experience (3+ years)&lt;/li&gt; &lt;li&gt;Experience with AI/ML frameworks, particularly LLMs&lt;/li&gt; &lt;li&gt;Familiarity with analytics concepts (marketing channels, user behavior, etc.)&lt;/li&gt; &lt;li&gt;RESTful API development background&lt;/li&gt; &lt;li&gt;Knowledge of data validation and processing techniques&lt;/li&gt; &lt;li&gt;Ability to work with complex data structures and transformations&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Preferred Qualifications&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Experience with LangChain or similar LLM framework&lt;/li&gt; &lt;li&gt;Background in marketing analytics or web analytics&lt;/li&gt; &lt;li&gt;Knowledge of prompt engineering for LLMs&lt;/li&gt; &lt;li&gt;Experience with data visualization libraries&lt;/li&gt; &lt;li&gt;Understanding of e-commerce metrics and KPIs&lt;br /&gt;&lt;br /&gt;&lt;em&gt;The reason this job vacancy is written in English is that we are looking for a candidate who has proficiency in the language at the B1-B2 level.&lt;/em&gt;&lt;br /&gt;&lt;strong&gt;﻿&lt;br /&gt;﻿﻿&lt;strong&gt;If you are interested in participating in our project, please apply for the vacancy! We look forward to meeting you!&lt;/strong&gt;﻿&lt;/strong&gt;&lt;/li&gt; &lt;/ul&gt;</t>
+          <t>&lt;p&gt;На данный момент мы ищем &lt;strong&gt;Middle Data Analyst&lt;/strong&gt; в &amp;quot;Даталаб&amp;quot; в команду рекомендательные системы. Задач много как с табличными данными, так и с текстом. Глобальная цель - доверие клиентов и поставщиков. Направление достаточно новое, поэтому многие решения нужно будет делать с нуля или почти с нуля.&lt;br /&gt;&lt;br /&gt;&lt;strong&gt;«ДатаЛаб» &lt;/strong&gt;специализируется на Big Data, машинном и глубоком обучением и искусственном интеллекте с 2021 года. В составе направления более 120 экспертов. Занимаемся разработкой решений для разных сфер бизнеса: от ритейла до промышленных предприятий.&lt;/p&gt; &lt;p&gt;Создали для «ВкусВилл» предиктивную модель по прогнозированию сроков доставки, а также систему, которая рекомендует покупателям товары в мобильном приложении, что улучшает лояльность клиентов.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Что предстоит делать:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;Анализировать потребности бизнеса и искать оптимальные методы решения&lt;/p&gt; &lt;p&gt;Встречи с заказчиками, снятие бизнес-требований, презентация результатов;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Участие в проектировании, анализе, разработке, внутреннем тестировании и документировании рекомендательных сервисов;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Настройка автоматической отчетности, построение витрин данных, дашбордов;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Сотрудничество с другими отделами для понимания их потребностей в аналитике данных;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Дизайн и оценка A/B-тестов;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Получение и интерпретация данных, построение гипотез.&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Ждем от тебя:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;Опыт работы с рекомендательными алгоритмами;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Опыт работы с numpy и pandas;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Опыт работы с Git;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Уверенное знание SQL и Python;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Понимание статистики и применения в А\Б тестах, опыт проведения А\Б тестов;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Опыт создания читабельных Jupyter-ноутбуков;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Навыки работы с BI-системами;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Понимание бизнес-метрик для ритейла;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Знание базовых ML-подходов;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Умение оценивать сроки задач и соблюдать их.&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt; &lt;p&gt; &lt;/p&gt;</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>[{'name': 'Python'}, {'name': 'REST API'}, {'name': 'Pydantic'}, {'name': 'LangChain'}]</t>
+          <t>[{'name': 'SQL'}, {'name': 'Python'}, {'name': 'Jupiter'}, {'name': 'Git'}, {'name': 'A/B тесты'}, {'name': 'Data Analysis'}]</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2025-03-31T07:07:16+0300</t>
+          <t>2025-04-06T12:55:00+0300</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>2025-03-31T07:07:16+0300</t>
+          <t>2025-04-06T12:55:00+0300</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>https://api.hh.ru/vacancies/118740671?host=hh.ru</t>
+          <t>https://api.hh.ru/vacancies/118128471?host=hh.ru</t>
         </is>
       </c>
     </row>
@@ -1896,12 +1884,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>118499171</t>
+          <t>118929691</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Аналитик-разработчик</t>
+          <t>Python-разработчик / Data Engineer (анализ и автоматизация данных)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1916,33 +1904,33 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/118499171</t>
+          <t>https://hh.ru/vacancy/118929691</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>&lt;p&gt;В Управление математического моделирования и отчетности ищем аналитика-разработчика.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Чем предстоит заниматься:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Анализом требований заказчиков, предложением наилучшего пути решения.&lt;/li&gt; &lt;li&gt;Реализацией ETL процессов (загрузкой и обработкой данных), а также расчётом сложных показателей.&lt;/li&gt; &lt;li&gt;Аудитом и оптимизацией SQL скриптов в текущих процессах.&lt;/li&gt; &lt;li&gt;Автоматизацией процессов при помощи Airflow/Python.&lt;/li&gt; &lt;li&gt;Написанием требований в ИТ для доработок существующих данных или получения новых.&lt;/li&gt; &lt;li&gt;Коммуникацией с другими подразделениями Банка в рамках выполнения задач.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Требования:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Наличие релевантного опыта работы в роле аналитика-разработчика.&lt;/li&gt; &lt;li&gt;Быстрая обучаемость, умение представлять конечную цель, декомпозировать задачу на подзадачи.&lt;/li&gt; &lt;li&gt;Опыт написания сложных запросов на SQL, знание аналитических функций, опыт оптимизации запросов.&lt;/li&gt; &lt;li&gt;Опыт работы в Банке/знание банковских процессов/опыт работы с Airflow/Python - как преимущество.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Мы предлагаем:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Официальное трудоустройство по ТК РФ с первого дня работы.&lt;/li&gt; &lt;li&gt;График работы с 9:00 до 18:00.&lt;/li&gt; &lt;li&gt;Удаленный формат работы.&lt;/li&gt; &lt;li&gt;Белая заработная плата два раза в месяц.&lt;/li&gt; &lt;li&gt;Ежегодный отпуск, больничный, льготное ДМС.&lt;/li&gt; &lt;li&gt;Программа бенефитов и скидок.&lt;/li&gt; &lt;/ul&gt;</t>
+          <t>&lt;p&gt;Ищем Python-разработчика / Data Engineer, который поможет нам построить автоматизированную систему сбора, структурирования и анализа данных из различных источников.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Что предстоит делать:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;Автоматизировать сбор и обработку данных (API, веб-скрапинг, базы данных, внешние источники).&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Настроить интеграцию данных из различных источников.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Создавать инструменты для анализа и визуализации данных (дашборды, графики, таблицы).&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Разрабатывать и поддерживать базы данных для хранения и быстрого доступа к информации.&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Кого мы ищем:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;Python-разработчика с опытом от 3-х лет.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Навыки работы с библиотеками Pandas, Requests, BeautifulSoup или Scrapy.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Уверенный опыт работы с PostgreSQL (желательно с расширением TimescaleDB) или аналитическими базами данных (например, ClickHouse).&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Опыт интеграции данных через API и автоматизации веб-скрапинга.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Желание разобраться в предметной области и быстро вникнуть в специфику данных.&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Будет плюсом:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;Опыт создания дашбордов (например, с помощью Dash, Streamlit, Plotly или других инструментов).&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Знание JavaScript/React для визуализации данных.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Интерес к финансовым рынкам, трейдингу или аналитике.&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Что мы предлагаем:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;Возможность самостоятельно построить полезную систему, влияющую на принятие решений.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Свободу в выборе инструментов и подходов к решению задач.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Дружескую атмосферу без формальностей.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Конкурентную зарплату и гибкие условия работы (удалёнка или офис на выбор).&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt; &lt;p&gt;Откликайтесь, будем рады обсудить детали!&lt;/p&gt;</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>[{'name': 'SQL'}, {'name': 'Python'}]</t>
+          <t>[{'name': 'Python'}, {'name': 'pandas'}, {'name': 'Numpy'}, {'name': 'Requests'}, {'name': 'BeautifulSoup'}, {'name': 'Scrapy'}, {'name': 'API Integration'}, {'name': 'SQL'}, {'name': 'PostgreSQL'}, {'name': 'TimescaleDB'}, {'name': 'Clickhouse'}, {'name': 'Web Scraping'}, {'name': 'ETL'}, {'name': 'Data Engineering'}]</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2025-03-31T15:40:20+0300</t>
+          <t>2025-04-25T10:23:12+0300</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>2025-03-31T15:40:20+0300</t>
+          <t>2025-04-25T10:23:12+0300</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>https://api.hh.ru/vacancies/118499171?host=hh.ru</t>
+          <t>https://api.hh.ru/vacancies/118929691?host=hh.ru</t>
         </is>
       </c>
     </row>
@@ -1952,12 +1940,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>119042546</t>
+          <t>118770116</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Продуктовый аналитик / Product Analyst</t>
+          <t>Backend-разработчик (Python)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1972,33 +1960,33 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/119042546</t>
+          <t>https://hh.ru/vacancy/118770116</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>&lt;p&gt;&lt;strong&gt;ЧТО ТАКОЕ EL В ЦИФРАХ?&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;div&gt;Входим в ТОП-3 школ по количеству учеников в нише ЕГЭ/ОГЭ;&lt;/div&gt; &lt;/li&gt; &lt;li&gt; &lt;div&gt;Входим в ТОП-30 EdTech компаний РФ;&lt;/div&gt; &lt;/li&gt; &lt;li&gt; &lt;div&gt;7 лет создаем аномалии в рынке школьного образования;&lt;/div&gt; &lt;/li&gt; &lt;li&gt; &lt;div&gt;Более 167.000 выпускников по всей стране;&lt;/div&gt; &lt;/li&gt; &lt;li&gt; &lt;div&gt;800+ человек в команде по всей стране и за ее пределами;&lt;/div&gt; &lt;/li&gt; &lt;li&gt; &lt;div&gt;1000+ амбассадоров и фанатов бренда;&lt;/div&gt; &lt;/li&gt; &lt;li&gt; &lt;div&gt;Аккредитованная IT-компания, резиденты Сколково.&lt;/div&gt; &lt;/li&gt; &lt;/ul&gt; &lt;div&gt;ㅤ&lt;/div&gt; &lt;div&gt;Сейчас компания активно растет, появляются новые направления поиска, поэтому&lt;strong&gt; мы ищем заряженного продуктового аналитика &lt;/strong&gt;для работы с операционными метриками!&lt;/div&gt; &lt;p&gt;&lt;strong&gt;Твои основные задачи для достижения результата:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;div&gt;Подготовка и автоматизация выгрузок из баз данных для повышения эффективности операционных процессов компании;&lt;/div&gt; &lt;/li&gt; &lt;li&gt; &lt;div&gt;Создание интерактивных дашбордов и визуализаций, помогающих принимать обоснованные решения и отслеживать ключевые продуктовые метрики;&lt;/div&gt; &lt;/li&gt; &lt;li&gt; &lt;div&gt;Первичная предобработка и аналитика данных, выявление взаимосвязей между параметрами.&lt;/div&gt; &lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Ты идеальный кандидат, ведь у тебя есть:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;div&gt;Опыт работы в области анализа данных от 1 года;&lt;/div&gt; &lt;/li&gt; &lt;li&gt; &lt;div&gt;Уверенные навыки написания SQL-запросов и их оптимизации (PostgreSQL, MySQL);&lt;/div&gt; &lt;/li&gt; &lt;li&gt; &lt;div&gt;Опыт создания интерактивных дашбордов и визуализации данных в DataLens;&lt;/div&gt; &lt;/li&gt; &lt;li&gt; &lt;div&gt;Владение Python для анализа данных, разработки ETL-скриптов и автоматизации задач;&lt;/div&gt; &lt;/li&gt; &lt;li&gt; &lt;div&gt;Способность анализировать и интерпретировать данные, выявлять закономерности и аномалии и умение предлагать оптимальные решения для улучшения бизнес-процессов.&lt;/div&gt; &lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;ПОЧЕМУ ЭТО БУДЕТ ТВОЙ ЛУЧШИЙ ОПЫТ?&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;div&gt;&lt;strong&gt;ПРОДУКТ&lt;/strong&gt;: ты будешь работать в компании с одним из лучших продуктов на рынке, который без преувеличения меняет жизни и влияет на общее будущее.&lt;/div&gt; &lt;/li&gt; &lt;li&gt; &lt;div&gt;&lt;strong&gt;МОБИЛЬНОСТЬ И СВОБОДА В ВЫБОРЕ:&lt;/strong&gt; полностью удалённый формат работы - можешь выполнять задачи из любой точки мира.&lt;/div&gt; &lt;/li&gt; &lt;li&gt; &lt;div&gt;&lt;strong&gt;ВЫЗОВЫ, КОТОРЫЕ ПРОКАЧАЮТ ТЕБЯ КАК ПРОФЕССИОНАЛА:&lt;/strong&gt; большая зона ответственности без микроменеджмента и невозможность НЕ сделать результат!&lt;/div&gt; &lt;/li&gt; &lt;li&gt; &lt;div&gt;&lt;strong&gt;СКОРОСТЬ:&lt;/strong&gt; от идеи до результата - одно касание. С нами можно тестировать идеи, о которых в других компаниях даже побоялись бы думать.&lt;/div&gt; &lt;/li&gt; &lt;li&gt; &lt;div&gt;&lt;strong&gt;ПРОГНОЗИРУЕМЫЙ ФИНАНСОВЫЙ И КАРЬЕРНЫЙ РОСТ: &lt;/strong&gt;если ты даешь результат, то ты будешь расти не только по хардам, но и по финансам.&lt;/div&gt; &lt;/li&gt; &lt;li&gt; &lt;div&gt;&lt;strong&gt;КОМАНДА ТАКИХ ЖЕ, КАК И ТЫ: &lt;/strong&gt;мы общаемся на равных, не душные и очень целеустремленные. Честность, отсутствие масок, поддержка и вайб - это то, что ты можешь ждать при работе с командой.&lt;/div&gt; &lt;/li&gt; &lt;li&gt; &lt;div&gt;&lt;strong&gt;УЧЕБА У ЛУЧШИХ:&lt;/strong&gt; создаем все условия для того, чтобы ты сделал лучшие результаты в своей карьере! В этом году мы выделили более 10.000.000 рублей на обучение наших сотрудников.&lt;/div&gt; &lt;/li&gt; &lt;/ul&gt; &lt;div&gt;⠀&lt;/div&gt; &lt;div&gt; &lt;p&gt;&lt;strong&gt;ЭТАПЫ ОТБОРА:&lt;/strong&gt;&lt;/p&gt; &lt;ol&gt; &lt;li&gt; &lt;div&gt;Тестовое задание;&lt;/div&gt; &lt;/li&gt; &lt;li&gt; &lt;div&gt;Собеседование с HR и Руководителем;&lt;/div&gt; &lt;/li&gt; &lt;li&gt; &lt;div&gt;Оффер :)&lt;/div&gt; &lt;/li&gt; &lt;/ol&gt; &lt;/div&gt; &lt;p&gt; &lt;/p&gt;</t>
+          <t>&lt;p&gt;В аккредитованную ИТ компанию «Коулмэн Тех» в данный момент ведем подбор на вакансию &amp;quot;&lt;strong&gt;Backend-разработчик (Python)&lt;/strong&gt;&amp;quot;.&lt;/p&gt; &lt;p&gt;Наши партнёры – крупные FMCG компании.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Чем предстоит заниматься:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;разработка веб-сайта в команде Back End;&lt;/li&gt; &lt;li&gt;участие в декомпозиции задач и непосредственное их выполнение;&lt;/li&gt; &lt;li&gt;решение багов и проблем, найденных тестировщиками и бизнесом.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Мы ожидаем:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;опыт коммерческой разработки на Python от 2 до 4 лет;&lt;/li&gt; &lt;/ul&gt; &lt;ul&gt; &lt;li&gt;знание Python не ниже 3.8, fastapi, pydantic, sqlalchemy;&lt;/li&gt; &lt;li&gt;опыт написания библиотек и/ или sdk;&lt;/li&gt; &lt;li&gt;опыт с микросервисной и монолитной архитектурой;&lt;/li&gt; &lt;li&gt;опыт тестирования через pytest или unittest;&lt;/li&gt; &lt;li&gt;понимание REST;&lt;/li&gt; &lt;li&gt;Docker;&lt;/li&gt; &lt;li&gt;Redis;&lt;/li&gt; &lt;li&gt;Jwt/oauth;&lt;/li&gt; &lt;li&gt;Git (gitlab);&lt;/li&gt; &lt;li&gt;PythonVenv/Poetry;&lt;/li&gt; &lt;li&gt;опыт и понимание работы асинхронности в Python;&lt;/li&gt; &lt;li&gt;Apache Kafka/RabbitMQ.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Плюсом&lt;/strong&gt;&lt;strong&gt; &lt;/strong&gt;&lt;strong&gt;будет&lt;/strong&gt;&lt;strong&gt;:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;опыт написания документации для SDK или библиотеки;&lt;/li&gt; &lt;li&gt;Kubernetes;&lt;/li&gt; &lt;li&gt;Gitlab CI/CD;&lt;/li&gt; &lt;li&gt;опыт интеграции с SSO;&lt;/li&gt; &lt;li&gt;ElasticSearch, OpenSearch;&lt;/li&gt; &lt;li&gt;Sentry;&lt;/li&gt; &lt;li&gt;Openapi/swagger;&lt;/li&gt; &lt;li&gt;Yandex Tracker/jira;&lt;/li&gt; &lt;li&gt;опыт проведения нагрузочного тестирования в рамках разработки.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Условия, которые мы предлагаем:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;официальное трудоустройство по ТК РФ;&lt;/li&gt; &lt;li&gt;работа в команде профессионалов в крупнейшей международной FMCG компании с развитыми корпоративными ценностями и стандартами;&lt;/li&gt; &lt;li&gt;для работы выдаём корпоративный ноутбук;&lt;/li&gt; &lt;li&gt;график работы: 5/2, сб и вс- выходные дни;&lt;/li&gt; &lt;li&gt;формат работы: удаленно с выездом в Москву по запросу, оформленному за 2 недели.&lt;/li&gt; &lt;/ul&gt;</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>[{'name': 'SQL'}, {'name': 'DataLens'}, {'name': 'Python'}, {'name': 'Исследовательский анализ данных'}, {'name': 'Продуктовые метрики'}, {'name': 'Работа с большим объемом информации'}, {'name': 'Визуализация данных'}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>2025-04-01T19:18:07+0300</t>
+          <t>2025-04-24T10:24:05+0300</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>2025-04-01T19:18:07+0300</t>
+          <t>2025-04-24T10:24:05+0300</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>https://api.hh.ru/vacancies/119042546?host=hh.ru</t>
+          <t>https://api.hh.ru/vacancies/118770116?host=hh.ru</t>
         </is>
       </c>
     </row>
@@ -2008,17 +1996,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>118964342</t>
+          <t>118027658</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Python developer на проект "Ценообразование"</t>
+          <t>ML Engineer / AI Data Scientist (AI Intent Marketing)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Москва</t>
+          <t>Тбилиси</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2028,33 +2016,33 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/118964342</t>
+          <t>https://hh.ru/vacancy/118027658</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>&lt;p&gt;В связи со стартом новых проектов, мы набираем в команду разработчиков &lt;strong&gt;Python&lt;/strong&gt;.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Какие проекты придется реализовать – приложения для регулярного ценообразования –расчет регулярных цен, квотирование и очередь цен.&lt;/strong&gt;&lt;/p&gt; &lt;p&gt; &lt;/p&gt; &lt;p&gt;То, что мы делаем находится на острие технологий — зачастую аналогов нет ни у кого на российском рынке.&lt;/p&gt; &lt;p&gt;Мы ищем сильных backend-разработчиков, которые помогут нам построить (спроектировать и разработать) оптимальный бэк для наших продуктов.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Чем предстоит заниматься:&lt;/strong&gt;&lt;/p&gt; &lt;p&gt;- Проектировать backend-часть наших продуктов вместе&lt;/p&gt; &lt;p&gt;- Проектирование и оптимизация баз данных (PostgreSQL)&lt;/p&gt; &lt;p&gt;- Разрабатывать API&lt;/p&gt; &lt;p&gt;- Проводить код-ревью&lt;/p&gt; &lt;p&gt;- Не забывать тестировать и документировать код&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Стек технологий&lt;/strong&gt;&lt;strong&gt;:&lt;/strong&gt; Python, Django, React, Postgres&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Что для нас важно:&lt;/strong&gt;&lt;/p&gt; &lt;p&gt;- Опыт коммерческой разработки на Python от 3х лет (Flask/Django/FastAPI)&lt;/p&gt; &lt;p&gt;- Опыт работы с ORM, миграциями (SQLAlchemy, Django ORM, Alembic)&lt;/p&gt; &lt;p&gt;- Опыт работы с брокерами сообщений&lt;/p&gt; &lt;p&gt;- Навык написания тестов (pytest)&lt;/p&gt; &lt;p&gt;- Умение выбирать оптимальный стек под продукт/задачу, работать с легковесными фреймворками, знание принципов оптимизации кода и работы с БД, кеширования&lt;/p&gt; &lt;p&gt;- CI/CD, Docker, K8S&lt;/p&gt; &lt;p&gt;- Опыт работы с unix-системами, реляционными БД, инструментами контроля версий&lt;/p&gt; &lt;p&gt;- Умение оценивать задачи и соблюдать сроки&lt;br /&gt;&lt;br /&gt;&lt;strong&gt;Что мы предлагаем:&lt;/strong&gt;&lt;/p&gt; &lt;p&gt;- Оформление в аккредитованную IT компанию&lt;/p&gt; &lt;p&gt;- Полностью удаленный формат работы, гибрид или офис на выбор&lt;/p&gt; &lt;p&gt;- Официальная оплата труда и система годового премирования по результатам деятельности&lt;/p&gt; &lt;p&gt;- ДМС, включая стоматологию&lt;/p&gt; &lt;p&gt; &lt;/p&gt;</t>
+          <t>&lt;p&gt;About Role:&lt;/p&gt; &lt;p&gt;You will be working day-to-day with world class Big Data Engineers and Data Scientists on taking the current AI Intent Marketing Product to next level. You will be responsible for working with data on day-to-day and coming up with new ways on how to improve and reshape the product. More details to be shared.&lt;/p&gt; &lt;p&gt; &lt;/p&gt; &lt;p&gt;&lt;strong&gt;Responsibilities:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Building models for Marketing Intent Analysis&lt;/li&gt; &lt;li&gt;Improving existing algorithms and build new Proofs of Concept&lt;/li&gt; &lt;li&gt;Delivering real impact to the products through rigorous data-driven solutions&lt;/li&gt; &lt;li&gt;Able to test multiple PoCs and improve model to improve accuracy as the Data Quality / AI Decisions is the core&lt;/li&gt; &lt;li&gt;Researching and then delivering PoCs into data products&lt;/li&gt; &lt;li&gt;Collaborating with product owners, engineers, and data scientists to continually solve complex data problems&lt;/li&gt; &lt;li&gt;Follow Clean Code principles to ensure maintainable and scalable code.&lt;/li&gt; &lt;li&gt;Follow modern security guidelines and best practices.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt; &lt;/p&gt; &lt;p&gt;&lt;strong&gt;Requirements:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Experience working in a data science team in Marketing/AdTech domain.&lt;/li&gt; &lt;li&gt;A Bachelor&amp;#39;s/Master&amp;#39;s/PhD in STEM (Mathematics, Computer Science, Engineering)&lt;/li&gt; &lt;li&gt;Excellent knowledge of data science tools, including, python coding, SQL and production tools&lt;/li&gt; &lt;li&gt;A big-picture mindset to correctly diagnose problems, produce research, and discover solutions&lt;/li&gt; &lt;li&gt;Excellent communication and collaboration skills to partner with Product Owners and business heads&lt;/li&gt; &lt;li&gt;Strong problem-solving and facilitation skills.&lt;/li&gt; &lt;li&gt;Familiarity with modern security practices in application development.&lt;/li&gt; &lt;li&gt;Intermediate English proficiency.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt; &lt;/p&gt; &lt;p&gt;&lt;strong&gt;Tech you will be working with:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Python&lt;/li&gt; &lt;li&gt;Trino / Spark&lt;/li&gt; &lt;li&gt;Various Python packages for model training&lt;/li&gt; &lt;/ul&gt; &lt;p&gt; &lt;/p&gt; &lt;p&gt;We Offer:&lt;/p&gt; &lt;p&gt;- Competitive salary aligned with your experience.&lt;/p&gt; &lt;p&gt;- Professional growth in a leadership-nurturing environment.&lt;/p&gt;</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>[{'name': 'Python'}, {'name': 'Pytest'}, {'name': 'PostgreSQL'}, {'name': 'Django Rest Framework'}]</t>
+          <t>[{'name': 'Python'}, {'name': 'Data Analysis'}]</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t>2025-03-31T11:21:09+0300</t>
+          <t>2025-04-02T10:45:25+0300</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>2025-03-31T11:21:09+0300</t>
+          <t>2025-04-02T10:45:25+0300</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>https://api.hh.ru/vacancies/118964342?host=hh.ru</t>
+          <t>https://api.hh.ru/vacancies/118027658?host=hh.ru</t>
         </is>
       </c>
     </row>
@@ -2064,12 +2052,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>118080506</t>
+          <t>118562732</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>Python-разработчик (банковский проект)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2084,33 +2072,33 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/118080506</t>
+          <t>https://hh.ru/vacancy/118562732</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>&lt;p&gt;&lt;strong&gt;LogicLike&lt;/strong&gt; - цифровая среда для развития логики и мышления детей и взрослых. Мы помогаем провести время за экраном весело и с пользой.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Наши продукты:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;WEB платформа для детей 4-12 лет&lt;/li&gt; &lt;li&gt;App для детей 4-12 лет (iOS + Android)&lt;/li&gt; &lt;li&gt;App для взрослых (iOS + Android)&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;Месячная аудитория - 1 000 000 пользователей в 60 странах.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Кого мы ищем?&lt;/strong&gt;&lt;/p&gt; &lt;p&gt;Мы в поиске инженера данных, который не только собирает отчеты, но и помогает выстраивать масштабируемую аналитику, автоматизировать процессы и поддерживать инфраструктуру данных.&lt;/p&gt; &lt;p&gt;Ключевая особенность роли – глубокое погружение в бизнес-часть и участие в стратегических решениях команды. &lt;/p&gt; &lt;p&gt;&lt;strong&gt;Обязанности:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Доработка инфраструктуры: пайплайнов данных, автоматизации сбора и обработки данных.&lt;/li&gt; &lt;li&gt;Разработка новых дашбордов и аналитических инструментов, их поддержка и масштабирование.&lt;/li&gt; &lt;li&gt;Подведение итогов A/B-тестов.&lt;/li&gt; &lt;li&gt;Анализ аномалий в метриках/данных, взаимодействие с внешними и внутренними системами, заказчиками.&lt;/li&gt; &lt;li&gt;Поддержка существующей аналитики: интеграция новых метрик, устранение багов, доработка текущих ETL.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Обязательные требования:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Опыт работы data-инженером или аналитиком данных от 3-х лет.&lt;/li&gt; &lt;li&gt;Глубокие знания статистики.&lt;/li&gt; &lt;li&gt;Уверенное владение SQL.&lt;/li&gt; &lt;li&gt;Опыт работы с Clickhouse.&lt;/li&gt; &lt;li&gt;Опыт работы с Python (разработка скриптов и автоматизация) и владение библиотеками анализа данных и визуализации (Pandas, NumPy, Scipy).&lt;/li&gt; &lt;li&gt;Опыт работы с любым BI-инструментом (Tableau, Looker, Apache Superset).&lt;/li&gt; &lt;li&gt;Опыт работы с API, cron, git.&lt;/li&gt; &lt;li&gt;Глубокое понимание маркетинговой аналитики и атрибуции трафика.&lt;/li&gt; &lt;li&gt;Опыт работы с A/B тестированием и причинно-следственным анализом не менее 3-х лет.&lt;/li&gt; &lt;li&gt;Опыт оптимизации и автоматизации аналитических процессов.&lt;/li&gt; &lt;li&gt;Структурность и системность: умение находить наиболее эффективные решения, а не просто выполнять задачи.&lt;/li&gt; &lt;li&gt;Коммуникабельность: способность объяснить сложные вещи простым языком разным командам.&lt;/li&gt; &lt;li&gt;Готовность выполнить наше ТЗ.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Будет плюсом:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Знание и представления в области ML, предсказательные модели.&lt;/li&gt; &lt;li&gt;Опыт построения аналитической инфраструктуры с нуля.&lt;/li&gt; &lt;li&gt;Опыт работы в SaaS, AdTech, Mobile.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Мы предлагаем:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Международный и мульти-платформенный продукт, который имеет устойчивый рост (40% и более рост выручки год к году)&lt;/li&gt; &lt;li&gt;9 языковых локализаций уже выпущено и мы работаем над новыми&lt;/li&gt; &lt;li&gt;Помощь команды и возможность постоянно прокачивать свою экспертизу&lt;/li&gt; &lt;li&gt;График работы с 10 до 19 (по Москве)&lt;/li&gt; &lt;li&gt;Четкие и понятные KPI для работы&lt;/li&gt; &lt;li&gt;Распределенная русскоговорящая команда из 40 человек. Можно работать из любой точки мира.&lt;/li&gt; &lt;/ul&gt;</t>
+          <t>&lt;p&gt;Мы российская быстрорастущая платформа, созданная для взаимодействия разработчиков и ведущих компаний России.&lt;/p&gt; &lt;p&gt;У нас множество компаний-партнёров, которые готовы принять к себе в команду &lt;em&gt;&lt;strong&gt;Python разработчика&lt;/strong&gt; &lt;/em&gt;для работы над современными продуктами.&lt;/p&gt; &lt;p&gt;Одно из наших преимуществ-это &lt;em&gt;оператив&lt;/em&gt;ный процесс найма. Обычно 1-2 собеседования независимо от компании.&lt;br /&gt;&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Проект: банк&lt;/strong&gt;&lt;/p&gt; &lt;p&gt;&lt;br /&gt;Python разработчик в команду поддержки ML-приложений. Эта позиция идеально подходит для разработчиков, желающих развиваться в направлении Machine Learning Operations (MLOps) и получить глубокое понимание жизненного цикла ML-проектов.&lt;br /&gt;&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Технологический стек:&lt;/strong&gt; Python, REST API, Apache Kafka, Apache Airflow, Hadoop, Apache Spark, Kubernetes, Git&lt;br /&gt;&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Задачи:&lt;/strong&gt;&lt;br /&gt;- Поддержка и troubleshooting ML-приложений на третьей линии поддержки&lt;br /&gt;- Анализ и разбор инцидентов, связанных с работой ML-приложений&lt;br /&gt;- Участие в оптимизации и доработке существующего кода на основе выявленных проблем&lt;br /&gt;- Взаимодействие с командами разработки и data science для решения сложных инцидентов&lt;br /&gt;- Документирование найденных решений и улучшение процессов поддержки&lt;br /&gt;- Разработка и поддержка интеграций между сервисами через REST API и Kafka&lt;br /&gt;&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Требования:&lt;/strong&gt;&lt;br /&gt;- Высшее образования&lt;br /&gt;- Уверенное владение Python (от 2 лет)&lt;br /&gt;- Понимание принципов интеграции между системами и сервисами&lt;br /&gt;- Опыт работы с системами контроля версий (Git)&lt;br /&gt;- Умение разбираться в чужом коде&lt;br /&gt;- Базовое понимание принципов REST API&lt;br /&gt;- Аналитический склад ума и желание глубоко разбираться в проблемах&lt;br /&gt;- Готовность к обучению и освоению новых технологий&lt;/p&gt; &lt;p&gt; &lt;/p&gt; &lt;p&gt;&lt;strong&gt;Будет плюсом:&lt;/strong&gt;&lt;br /&gt;- Базовые знания или интерес к машинному обучению&lt;br /&gt;- Опыт работы с любыми из технологий стека: Airflow, Hadoop, Spark, Kubernetes&lt;br /&gt;- Опыт работы с Apache Kafka или другими системами обмена сообщениями&lt;br /&gt;- Опыт разработки интеграционных сервисов с помощью REST API&lt;br /&gt;- Понимание принципов CI/CD&lt;br /&gt;- Опыт работы с системами мониторинга&lt;br /&gt;&lt;br /&gt;&lt;strong&gt;Условия:&lt;/strong&gt;&lt;br /&gt;- Удалённая работа с первого дня ;&lt;br /&gt;- Полная занятость;&lt;br /&gt;-&lt;strong&gt; Оформление по ИП;&lt;/strong&gt;&lt;br /&gt;- Job offer, отталкиваясь от ваших финансовых пожеланий.&lt;/p&gt;</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'name': 'Python'}, {'name': 'Apache Airflow'}, {'name': 'Hadoop'}, {'name': 'Apache Spark'}, {'name': 'Kubernetes'}, {'name': 'Git'}, {'name': 'REST API'}, {'name': 'Apache Kafka'}, {'name': 'CI/CD'}]</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>2025-03-31T15:37:17+0300</t>
+          <t>2025-03-19T15:15:54+0300</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>2025-03-31T15:37:17+0300</t>
+          <t>2025-03-19T15:15:54+0300</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>https://api.hh.ru/vacancies/118080506?host=hh.ru</t>
+          <t>https://api.hh.ru/vacancies/118562732?host=hh.ru</t>
         </is>
       </c>
     </row>
@@ -2120,12 +2108,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>116398070</t>
+          <t>118809975</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Аналитик данных/Разработчик BI</t>
+          <t>Senior Python-разработчик</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2140,33 +2128,33 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/116398070</t>
+          <t>https://hh.ru/vacancy/118809975</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>&lt;strong&gt;Чем придется заниматься:&lt;/strong&gt; &lt;ul&gt; &lt;li&gt;Создание дэшбордов (Power BI, PIX BI, Форсайт).&lt;/li&gt; &lt;li&gt;Написание сложных SQL-запросов (CTE, оконные функции, хранимые процедуры), формирование DAG, написание скриптов на языке Python (numpy, xlsxwriter)&lt;/li&gt; &lt;/ul&gt; &lt;strong&gt;Требования:&lt;/strong&gt; &lt;ul&gt; &lt;li&gt;опыт от 3х лет в качестве аналитика данных/аналитика SQL/ дата-инженера&lt;/li&gt; &lt;li&gt; &lt;p&gt;Стэк: BI, SQL, Python, SQL (pgSql, mySql), PIX Meta, Fore, Airflow&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt; &lt;strong&gt;Условия:&lt;/strong&gt; &lt;ul&gt; &lt;li&gt;возможность удаленной работы на территории РФ;&lt;/li&gt; &lt;li&gt; &lt;p&gt;наличие ИТ-аккредитации Минцифры России;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;расширенная программа ДМС (после испытательного срока) со стоматологией и госпитализацией;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;забота о здоровье сотрудников (диспансеризация за счет компании в лучших клиниках);&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;компенсация занятий любым видом спорта (после испытательного срока);&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;работа в команде одной из крупнейших корпоративных ЭТП России, которая является ключевой площадкой для обеспечения закупочной деятельности для компаний индустрии ТЭК.&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt;</t>
+          <t>&lt;p&gt;&lt;strong&gt;IndigoLab - лаборатория бизнес-решений для маркетплейсов. &lt;/strong&gt;Мы охватываем все сферы работы продавцов: фулфилмент, логистика, персональные программы мини-склада, работа с личным кабинетом маркетплейса, SEO, аналитика продаж.&lt;/p&gt; &lt;p&gt;Мы являемся авторизованными партнёрами Wildberries, Ozon, Яндекс.Маркет, Aliexpress. Наши решения работают с Авито, LeroyMerlin (ЛеманаПро), МегаМаркетом и другими маркетплейсами.&lt;/p&gt; &lt;p&gt;Выбирая нас, Вы выбираете надёжного работодателя с перспективными разработками. Мы &lt;strong&gt;являемся аккредитованной IT-компанией&lt;/strong&gt;, резидентами Сколково и Московского инновационного кластера. Наши разработки оценивают тысячи клиентов и поддерживают Фонд содействия инновациям (он же ФСИ, Фонд Бортника) и Российский фонд развития информационных технологий (РФРИТ). Сотрудничаем с Яндекс.Практикумом, Сбер500 и Академией Инноваторов Москвы.&lt;/p&gt; &lt;p&gt; &lt;/p&gt; &lt;p&gt;&lt;strong&gt;В Ваши обязанности будет входить:&lt;/strong&gt;&lt;br /&gt;- Создание и поддержка нового функционала на Pytnon 3, интеграция со сторонними системами, работа с большими объемами данных,&lt;/p&gt; &lt;p&gt;- проектирование отказоустойчивой и масштабируемой архитектуры,&lt;/p&gt; &lt;p&gt;- координация разработчиков, менторство junior- и middle-специалистов,&lt;/p&gt; &lt;p&gt;- развитие процессов разработки в команде, работа с метриками эффективности, оптимизация процессов,&lt;/p&gt; &lt;p&gt;- решение оперативных вопросов,&lt;/p&gt; &lt;p&gt;- развитие инженерной части продукта, обеспечение соответствия архитектурным стандартам, стандартам производительности, надежности,&lt;/p&gt; &lt;p&gt;- проведение технического ревью спроектированных решений, код-ревью команды,&lt;/p&gt; &lt;p&gt;- взаимодействие со смежными командами (фронтенд, бизнес-аналитики),&lt;/p&gt; &lt;p&gt;- участие в планировании и оценке задач.&lt;/p&gt; &lt;p&gt; &lt;/p&gt; &lt;p&gt;&lt;strong&gt;Мы подходим друг другу, если Вы:&lt;/strong&gt;&lt;/p&gt; &lt;p&gt;- имеете &lt;strong&gt;5+ лет &lt;/strong&gt;коммерческого опыта на Python 3.&lt;/p&gt; &lt;p&gt;- имеете опыт в роли Team Lead/ Tech Lead &lt;strong&gt;от 1 года&lt;/strong&gt;.&lt;/p&gt; &lt;p&gt;- имеете опыт проектирования и разработки высоконагруженных и отказоустойчивых приложений,&lt;/p&gt; &lt;p&gt;- пишете простой и понятный код, покрытый тестами,&lt;/p&gt; &lt;p&gt;- умеете организовать правильный мониторинг приложений. &lt;/p&gt; &lt;p&gt; &lt;/p&gt; &lt;p&gt;&lt;strong&gt;У Вас должны быть глубокие знания и опыт:&lt;/strong&gt;&lt;/p&gt; &lt;p&gt;Алгоритмы и структуры данных.&lt;/p&gt; &lt;p&gt;Фреймворки: Django, FastAPI, Celery.&lt;/p&gt; &lt;p&gt;Асинхронность: asyncio, aiohttp.&lt;/p&gt; &lt;p&gt;Базы данных: PostgreSQL, MySQL (SQL, Django ORM, SQLAlchemy), транзакции, репликации, шардирование.&lt;/p&gt; &lt;p&gt;RabbitMQ, ARQ, Kafka&lt;/p&gt; &lt;p&gt;Контейнеризация и виртуализация: docker, docker-compose, k8s &lt;/p&gt; &lt;p&gt;Автоматизация CI/CD процессов.&lt;/p&gt; &lt;p&gt;&lt;br /&gt;&lt;strong&gt;У Вас будет преимущество перед другими кандидатами, если имеются:&lt;/strong&gt;&lt;br /&gt;- опыт в ML/AI или data-intensive проектах,&lt;/p&gt; &lt;p&gt;- знание других языков программирования и фреймворков,&lt;/p&gt; &lt;p&gt;- работа с ClickHouse, ElasticSearch, MongoDB, Redis и др.&lt;br /&gt;&lt;br /&gt;&lt;strong&gt;Что мы предлагаем?&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;&lt;strong&gt;Формат:&lt;/strong&gt; Гибрид или полная удалёнка (только на территории РФ).&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;&lt;strong&gt;График:&lt;/strong&gt; 5-дневка с гибким началом дня.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;&lt;strong&gt;Оформление:&lt;/strong&gt; По ТК, &lt;strong&gt;белая зарплата&lt;/strong&gt; с первого дня.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;&lt;strong&gt;Развитие:&lt;/strong&gt; Компенсация обучения, участие в митапах, конференцииях.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;&lt;strong&gt;Поддержка:&lt;/strong&gt; Помощь в сложных ситуациях.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Профессиональная среда с &lt;strong&gt;нетривиальными задачами.&lt;/strong&gt;&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt; &lt;p&gt;При необходимости готовы организовать комфортное рабочее место в нашем офисе в Москва-сити.&lt;br /&gt;&lt;br /&gt;&lt;strong&gt;Бонусы&lt;/strong&gt;&lt;br /&gt;Являемся резидентами Сколково, Московского инновационного кластера (МИК) и аккредитованной IT-компанией и готовы помочь Вам получить все соответствующие преференции.&lt;br /&gt;У нас приятный коллектив, есть система менторства. Обучаем сотрудников внутри компании, помогаем с обучением во вне.&lt;br /&gt;Участвуем в профильных мероприятиях, готовы пригласить Вас с нами, а также будем рады, если инициатива будет исходить от Вас.&lt;br /&gt;Стараемся обходиться без бюрократии - недавно перевели все взаимодействие с сотрудниками в электронный документооборот.&lt;/p&gt;</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'name': 'Python'}, {'name': 'Django Framework'}, {'name': 'FastAPI'}, {'name': 'Celery'}, {'name': 'REST API'}, {'name': 'руководство командой разработчиков'}, {'name': 'Оптимизация кода'}, {'name': 'PostgreSQL'}, {'name': 'MySQL'}, {'name': 'RabbitMQ'}, {'name': 'Apache Kafka'}, {'name': 'Docker-compose'}, {'name': 'Docker'}, {'name': 'CI/CD'}]</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
-          <t>2025-03-31T20:24:20+0300</t>
+          <t>2025-04-22T11:55:53+0300</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>2025-03-31T20:24:20+0300</t>
+          <t>2025-04-22T11:55:53+0300</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>https://api.hh.ru/vacancies/116398070?host=hh.ru</t>
+          <t>https://api.hh.ru/vacancies/118809975?host=hh.ru</t>
         </is>
       </c>
     </row>
@@ -2176,53 +2164,41 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>118941947</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Junior Python Developer</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Полная занятость</t>
-        </is>
-      </c>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/118941947</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>&lt;p&gt;Компания Tech Horizon ищет Junior Python Developer&lt;/p&gt; &lt;p&gt;График: 5/2( можно свой )&lt;/p&gt; &lt;p&gt;Рабочие часы: по договоренности&lt;/p&gt; &lt;p&gt;Формат работы: удаленно&lt;/p&gt; &lt;p&gt;Опыт работы: не требуется&lt;/p&gt; &lt;p&gt;Выплаты: два раза в месяц&lt;/p&gt; &lt;p&gt;О компании Tech Horizon: Мы — динамично развивающаяся компания, работающая в сфере разработки IT-продуктов для различных отраслей. Наши проекты охватывают широкий спектр задач — от создания сложных веб-приложений до интеграций с различными сервисами. Мы создаём инновационные решения, помогаем нашим клиентам адаптироваться к меняющимся условиям рынка и всегда в поисках &lt;em&gt;начинающих &lt;/em&gt;и амбициозных специалистов, готовых расти и развиваться вместе с нами.&lt;/p&gt; &lt;p&gt;Обязанности:&lt;/p&gt; &lt;p&gt;• Разработка и поддержка программного обеспечения на Python.&lt;/p&gt; &lt;p&gt;• Создание интеграций с внешними API и сервисами.&lt;/p&gt; &lt;p&gt;• Участие в разработке веб-серверов с использованием Flask.&lt;/p&gt; &lt;p&gt;• Разработка автоматизации для внутренних процессов компании.&lt;/p&gt; &lt;p&gt;• Совместная работа с командой по улучшению и поддержке текущих решений.&lt;/p&gt; &lt;p&gt;Требования:&lt;/p&gt; &lt;p&gt;• Знания Python на базовом уровне.&lt;/p&gt; &lt;p&gt;• Опыт работы с фреймворками Flask или Django (будет плюсом).&lt;/p&gt; &lt;p&gt;• Опыт работы с реляционными базами данных (MySQL, PostgreSQL).&lt;/p&gt; &lt;p&gt;• Базовые знания работы с API.&lt;/p&gt; &lt;p&gt;• Желание учиться и развиваться в области разработки.&lt;/p&gt; &lt;p&gt;• Умение работать в команде, ответственность, инициативность.&lt;/p&gt; &lt;p&gt;Будет плюсом:&lt;/p&gt; &lt;p&gt;• Знания HTML, CSS.&lt;/p&gt; &lt;p&gt;• Опыт работы с Docker, Git.&lt;/p&gt; &lt;p&gt;• Опыт работы с внешними сервисами, такими как Telegram API, Google Sheets API.&lt;/p&gt; &lt;p&gt;Мы предлагаем:&lt;/p&gt; &lt;p&gt;• Удалённую работу с гибким графиком.&lt;/p&gt; &lt;p&gt;• Конкурентоспособную заработную плату.&lt;/p&gt; &lt;p&gt;• Профессиональный рост и возможность работать с новейшими технологиями.&lt;/p&gt; &lt;p&gt;• Поддержку наставников, обучение и участие в внутренних мероприятиях.&lt;/p&gt; &lt;p&gt;• Дружную команду, готовую поделиться знаниями и опытом.&lt;/p&gt; &lt;p&gt;Если вы хотите стать частью нашей команды и развиваться в современном IT- мире, отправляйте ваше резюме. Мы с нетерпением ждем вашего отклика и уверены, что вместе сможем достичь больших успехов!&lt;/p&gt; &lt;p&gt; &lt;/p&gt;</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>2025-03-30T22:58:29+0300</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
-          <t>2025-03-30T22:58:29+0300</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>https://api.hh.ru/vacancies/118941947?host=hh.ru</t>
+          <t>https://api.hh.ru/vacancies/118702008?host=hh.ru</t>
         </is>
       </c>
     </row>
@@ -2232,17 +2208,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>118968281</t>
+          <t>117052546</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>TechLead Python</t>
+          <t>Middle+ Python Developer</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Москва</t>
+          <t>Минск</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2252,33 +2228,33 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/118968281</t>
+          <t>https://hh.ru/vacancy/117052546</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>&lt;strong&gt; &lt;/strong&gt; &lt;p&gt;&lt;strong&gt;KT.Team&lt;/strong&gt; — аккредитованная IT-компания. Работаем с крупными b2b клиентами, помогаем им развивать их IT-инфраструктуру, в том числе используя AI. Наши клиенты: Самолет, Аскона, Снежная Королева и другие.&lt;/p&gt; &lt;p&gt;Наша миссия - избавить людей от (тупой) рутинной работы, чтобы работа каждого была осмыслена и приносила пользу человечеству.&lt;/p&gt; &lt;p&gt;Сейчас в команде 90 сотрудников, мы работаем как удаленно, так и в офисе в Тольятти или в коворкинге в Москве. Большая часть команды на удаленке.&lt;/p&gt; &lt;p&gt;Сейчас мы находимся в поиске &lt;strong&gt;TechLead на стеке Python&lt;/strong&gt;, который будет который будет глубоко погружаться в бизнес процессы клиента и выстраивать архитектуру.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Проект: &lt;/strong&gt;Интеграции для обмена данными между IT-системами. С помощью ESB подхода и Data Lake снижаем нагрузку на системы, исключаем потерю данных при обмене, упрощаем изменение IT-систем, ускоряем анализ всех данных.&lt;/p&gt; &lt;strong&gt;&lt;br /&gt;Инженеры в нашей компании:&lt;/strong&gt;&lt;br /&gt;&lt;ul&gt; &lt;li&gt;нацелены на результат&lt;/li&gt; &lt;li&gt;самостоятельные и проактивные (думают наперед)&lt;/li&gt; &lt;li&gt;клиентоцентричные (стремление доставить ценность, а не задачу на бизнес-языке)&lt;/li&gt; &lt;li&gt;обеспечивают слабую связанность и частоту поставки&lt;br /&gt;&lt;strong&gt;Ты нам подходишь если у тебя есть опыт работы с:&lt;/strong&gt;&lt;/li&gt; &lt;li&gt; &lt;p&gt;&lt;strong&gt;построение архитектуры проекта с нуля&lt;/strong&gt;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;&lt;strong&gt;Python&lt;/strong&gt; от 5 лет&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;&lt;strong&gt;Docker&lt;/strong&gt;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Git и GitLab&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;&lt;strong&gt;Linux&lt;/strong&gt;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Опыт написания Unit-тестов&lt;/p&gt; &lt;/li&gt; &lt;li&gt;опыт работы с JS, Elasticsearch, Magento (будет плюсом)&lt;br /&gt;&lt;p&gt;&lt;strong&gt;Наши условия:&lt;/strong&gt;&lt;br /&gt;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Официальное трудоустройство по ТК РФ, «белая» заработная плата, размер будем обсуждать с кандидатами при первом знакомстве&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Работать можно как удаленно или в коворкинге в Москве&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Минимум бюрократии&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Возможность принять участие в выездных мероприятиях: свежий воздух, баня, яхтинг и много другого (для тебя и твоей семьи), а также ежеквартальные командные встречи в Тольятти, поездки полностью оплачиваются&lt;/p&gt; &lt;/li&gt; &lt;li&gt;Выдаем хорошую технику для работы или компенсируем технику для тех, кто работает в гибридном или удаленном формате&lt;br /&gt;&lt;p&gt;&lt;strong&gt;Этапы коммуникации:&lt;/strong&gt;&lt;/p&gt; &lt;p&gt;1. Общение с рекрутером&lt;/p&gt; &lt;p&gt;2. Интервью по софтам&lt;/p&gt; &lt;p&gt;3. Тех. интервью без лайвкодинга&lt;/p&gt; &lt;p&gt;4. Оффер&lt;/p&gt; &lt;p&gt;Мы вкладываемся в развитие сотрудников. Для нас это одна из наших ценностей. Если ты готов вкладываться в себя и в команду - давай общаться!&lt;/p&gt; &lt;p&gt;&lt;strong&gt;P.S.&lt;/strong&gt; В любой непонятной ситуации - откликайся!&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt;</t>
+          <t>&lt;p&gt;RocketData – белорусская IT-компания, резидент Парка высоких технологий Беларуси, разрабатывающая платформу для управления информацией о бизнесе и работе с отзывами в популярных онлайн источниках.&lt;/p&gt; &lt;p&gt;Rocketdata — платформа, которая позволяет компаниям с множеством филиалов автоматически добавлять информацию о каждой офлайн-точке во все наиболее популярные интернет-источники: Google и Яндекс-карты, навигаторы, каталоги, справочники, социальные сети; исправлять неверную информацию и вносить актуальную во все эти ресурсы из единого кабинета, а также получать моментальные уведомления об отзывах и отвечать на них.&lt;/p&gt; &lt;p&gt;Сейчас мы находимся в поиске коллеги в одну из наших команд разработки - Boost, которая занимается разработкой новых дополнительных продуктов, которые помогают клиентам усилить своё онлайн-присутствие — сбор и предоставление аналитических данных, сервис отслеживания локальных позиций, публикации постов в социальных сетях и на картах, работа с фото и видео на картах, сервисы для работы с меню и товарами в каталогах.&lt;/p&gt; &lt;p&gt;Мы используем &lt;strong&gt;Agile-подход&lt;/strong&gt; в работе. На каждую задачу обязательно должны быть написаны тесты и метрики.&lt;/p&gt; &lt;p&gt;Наш стек технологий:&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Python3.11 +&lt;/li&gt; &lt;li&gt;Django&lt;/li&gt; &lt;li&gt;FastAPI&lt;/li&gt; &lt;li&gt;SQLAlchemy&lt;/li&gt; &lt;li&gt;ElasticSearch/OpenSearch&lt;/li&gt; &lt;li&gt;Kafka&lt;/li&gt; &lt;li&gt;Celery + RabbitMQ&lt;/li&gt; &lt;li&gt;PostgreSQL&lt;/li&gt; &lt;li&gt;MongoDB&lt;/li&gt; &lt;li&gt;Redis&lt;/li&gt; &lt;li&gt;Clickhouse&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Ключевые задачи:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Проектирование и реализация новых фичей;&lt;/li&gt; &lt;li&gt;Рефакторинг функционала;&lt;/li&gt; &lt;li&gt;Исследование багов и их исправление;&lt;/li&gt; &lt;li&gt;Написание бит тестов;&lt;/li&gt; &lt;li&gt;Код ревью.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Мы ожидаем от вас:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;&lt;strong&gt;Опыт коммерческой разработки - от 3 лет;&lt;/strong&gt;&lt;/li&gt; &lt;li&gt;Знание и опыт работы с Django, Django ORM, FastAPI;&lt;/li&gt; &lt;li&gt;Опыт работы с PostgreSQL;&lt;/li&gt; &lt;li&gt;Опыт работы с Celery, RabbitMQ.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Будет плюсом:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Опыт работы с MongoDB;&lt;/li&gt; &lt;li&gt;Опыт работы с Kafka.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Взамен на ваши компетенции мы предлагаем:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;возможности для профессионального роста и развития;&lt;/li&gt; &lt;li&gt;гибкий график работы и возможность гибридного формата работы (совмещение офисной и удаленной работы);&lt;/li&gt; &lt;li&gt;28 дней трудового отпуска;&lt;/li&gt; &lt;li&gt;3 days off на первый рабочий год с последующим увеличением;&lt;/li&gt; &lt;li&gt;ДМС после испытательного срока с 50% компенсацией;&lt;/li&gt; &lt;li&gt;современный dog-friendly офис в центре Осмоловки в Минске.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;Ссылка на общереспубликанский банк вакансий: https://gsz.gov.by/registration/employer/vacancy/1437495/detail-public/&lt;/p&gt;</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>[{'name': 'Python'}, {'name': 'Docker'}, {'name': 'Linux'}, {'name': 'Git'}, {'name': 'Gitlab'}, {'name': 'Unit Testing'}]</t>
+          <t>[{'name': 'Python'}, {'name': 'PostgreSQL'}, {'name': 'Django Framework'}, {'name': 'Django Rest Framework'}, {'name': 'Git'}, {'name': 'Celery'}, {'name': 'RabbitMQ'}, {'name': 'FastAPI'}, {'name': 'MongoDB'}]</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>2025-03-31T12:12:57+0300</t>
+          <t>2025-04-08T09:56:19+0300</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>2025-03-31T12:12:57+0300</t>
+          <t>2025-04-08T09:56:19+0300</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>https://api.hh.ru/vacancies/118968281?host=hh.ru</t>
+          <t>https://api.hh.ru/vacancies/117052546?host=hh.ru</t>
         </is>
       </c>
     </row>
@@ -2288,12 +2264,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>118198863</t>
+          <t>118775268</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Backend разработчик (Python)</t>
+          <t>Python-разработчик</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2308,33 +2284,33 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/118198863</t>
+          <t>https://hh.ru/vacancy/118775268</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>&lt;p&gt;Мы ищем опытного Python-разработчика со знанием Python на новые проекты в США для нашего клиента.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Обязательно знание разговорного английского языка&lt;/strong&gt; так как общение будет происходить с англоязычными коллегами, и наличие портфолио для оценки вашего опыта.&lt;/p&gt; &lt;p&gt; &lt;/p&gt; &lt;p&gt;&lt;strong&gt;Нам важны следующие качества&lt;/strong&gt;&lt;/p&gt; &lt;ol&gt; &lt;li&gt; &lt;p&gt;При возникновении задачи, которую не понятно как решать (таких будет много), вы пытаетесь найти решения поставленной задачи - копаетесь на GitHub, перечитываете посты StackOverflow, изучаете документацию, а не просто говорите «я не смог»&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Если вы знаете решение задачи или нашли его (см. 1 пункт), вы включаете критическое мышление (на самом деле мы надеемся, что вы его никогда не выключаете) и думаете, подходит ли оно вам в данных условиях, можно ли его улучшить, можно ли сделать код более красивым&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Вы не боитесь задавать вопросы, даже, как вам кажется, самые глупые. Если вам что-то не понятно в задачи, вы спрашиваете, переспрашиваете, а потом ещё раз переспрашиваете, пока задача не станет вам полностью ясна&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Способны и не боитесь признавать свои ошибки. Вовремя найденная и формализованная ошибка может превратиться в «фичу» :)&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;По хорошему любопытны — логичное продолжение пунктов 1 и 2. Вам интересно находить и изучать новые алгоритмы, методы, инструменты. В поисках решения текущей задачи, Вы можете «залипнуть» на случайно найденном подходе/алгоритме/методологии, потому что это показалось вам очень интересным/полезным/красивым.&lt;/p&gt; &lt;/li&gt; &lt;/ol&gt; &lt;p&gt;Если компетенции будут отвечать требованиям, пришлем домашнее задание. Домашнее задание успешно выполнено - приглашаем на встречу с клиентом.&lt;/p&gt; &lt;p&gt; &lt;/p&gt; &lt;p&gt;&lt;strong&gt;Чем предстоит заниматься&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;Реализовывать извлечение данных с сайтов и проверять их на соответствие правилам&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Использовать Selenium вкупе с Chrome/Firefox для различных сайтов, оптимизировать скорость и качество извлечения данных и их проверки&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Уметь работать с различными видами CAPTCHA, как текстовыми, так и с изображениями или аудио-файлами&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Находить решение нетривиальных задач&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Проводить декомпозицию и оценивать сроки выполнения задач&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Проектировать и реализовывать новый, а также дорабатывать существующий функционал&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt; &lt;p&gt; &lt;/p&gt; &lt;p&gt;&lt;strong&gt;Что делать НЕ придётся&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;Разрабатывать frontend приложения&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Заниматься UX/UI дизайном&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt; &lt;p&gt; &lt;/p&gt; &lt;p&gt;&lt;strong&gt;Какие навыки и опыт нам важен у кандидата&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Отличное понимание и практическое знание Python 3.12, фреймворка Selenium и requests, а также Celery&lt;/li&gt; &lt;li&gt;Внимание к деталям и скрупулезность в работе&lt;/li&gt; &lt;li&gt;Умение самостоятельно анализировать и тестировать свои идеи для достижения и/или улучшения результатов&lt;/li&gt; &lt;li&gt;Опыт подключения и использования внутренних и сторонних сервисов.&lt;/li&gt; &lt;li&gt;Опыт в разработке архитектуры приложения и меж-сервисного взаимодействия&lt;/li&gt; &lt;li&gt;Понимание шаблонов проектирования и их применение в построении backend систем.&lt;/li&gt; &lt;li&gt;Практика и умение работать с системами версионирования&lt;/li&gt; &lt;/ul&gt; &lt;p&gt; &lt;/p&gt; &lt;p&gt;&lt;strong&gt;Желателен, но не обязателен опыт с&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;Docker&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Создание тестов&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt; &lt;p&gt; &lt;/p&gt; &lt;p&gt;&lt;strong&gt;Технологии&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Python (от 3+ лет)&lt;/li&gt; &lt;li&gt;Git (от 2+ лет)&lt;/li&gt; &lt;li&gt;Celery или другие очереди обработки задач&lt;/li&gt; &lt;/ul&gt; &lt;p&gt; &lt;/p&gt; &lt;p&gt;&lt;strong&gt;Приветствуется&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Опыт работы в составе команды&lt;/li&gt; &lt;li&gt;Опыт работы с иностранными заказчиками/работодателями&lt;/li&gt; &lt;/ul&gt; &lt;p&gt; &lt;/p&gt; &lt;p&gt;&lt;strong&gt;Мы предлагаем&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;Зарплату выплачиваемую вовремя&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Полностью удаленную работу&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Удобный график&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt;</t>
+          <t>&lt;p&gt;В нашей IT-команде уже больше 850 специалистов, которые постоянно совершенствуют свои навыки. Мы не стоим на месте — постоянно улучшаем процессы разработки (ATDD, CI/CD и другие), пробуем новые подходы и развиваем команду. Нам важно, чтобы каждый сотрудник продолжал расти, поэтому мы проводим внутренние митапы, хакатоны, развиваем гильдии по направлениям и поддерживаем обучение за пределами компании. У нас есть много возможностей для профессионального развития и не только.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;О проекте:&lt;/strong&gt;&lt;br /&gt;Мы находимся в поиске Python разработчика в направление роботизации. Наша команда занимается роботизацией процессов, созданием цифровых помощников, оптимизацией клиентского пути.&lt;br /&gt;&lt;strong&gt;Стек&lt;/strong&gt;&lt;strong&gt;: &lt;/strong&gt;Python 3.11+, Mongo DB, PostgreSQL Selenium, Pandas, Openpyxl, Confluence, Jira,Git, GitLab.&lt;br /&gt;&lt;strong&gt;Команда: &lt;/strong&gt;4 разработчика в направлении роботизации.&lt;br /&gt;&lt;br /&gt;&lt;strong&gt;Чем предстоит заниматься:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Разработка решений и обеспечение контроля качества на всех этапах проекта (анализ, проектирование, разработка, тестирование, составление документации) – полный цикл;&lt;/li&gt; &lt;li&gt;Коммуникация с бизнес-заказчиком и участниками команды, составление и согласование документации;&lt;/li&gt; &lt;li&gt;Оценка трудозатрат по длительности/сроку выполнения анализа, составление оперативного статуса;&lt;/li&gt; &lt;li&gt;Тестировании разработанных решений;&lt;/li&gt; &lt;li&gt;Участие в процессе технического сопровождения решений. &lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Мы ожидаем:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Опыт разработки от 2 лет;&lt;/li&gt; &lt;li&gt;Python 3.11 (или выше);&lt;/li&gt; &lt;li&gt;Брокеры сообщений (Kafka);&lt;/li&gt; &lt;li&gt;Опыт использования библиотек: Selenium, pyAutoGUI, pydantic, Pandas, Openpyxl;&lt;/li&gt; &lt;li&gt;Опыт разработки высоконагруженных приложений (Multithreading, multiprocessing, asyncio);&lt;/li&gt; &lt;li&gt;Хорошие знания SQL, опыт работы с PostgreSQL;&lt;/li&gt; &lt;li&gt;Опыт работы c NoSQL БД (Mongo Db);&lt;/li&gt; &lt;li&gt;Понимание принципов REST API, SOAP (JSON, XML);&lt;/li&gt; &lt;li&gt;Знание HTML/CSS/JS на базовом уровне.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt; &lt;/p&gt;</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>[{'name': 'Python'}, {'name': 'Английский язык'}, {'name': 'Навыки межличностного общения'}, {'name': 'Работа в команде'}, {'name': 'Redis'}, {'name': 'Микросервисная архитектура'}, {'name': 'Чтение чужого кода'}, {'name': 'Анализ требований'}, {'name': 'Celery'}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>2025-04-01T15:06:36+0300</t>
+          <t>2025-04-24T09:46:40+0300</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>2025-04-01T15:06:36+0300</t>
+          <t>2025-04-24T09:46:40+0300</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>https://api.hh.ru/vacancies/118198863?host=hh.ru</t>
+          <t>https://api.hh.ru/vacancies/118775268?host=hh.ru</t>
         </is>
       </c>
     </row>
@@ -2344,12 +2320,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>118153221</t>
+          <t>118508577</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Аналитик данных</t>
+          <t>Data Scientist в области языковых моделей (Middle)</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2364,33 +2340,33 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/118153221</t>
+          <t>https://hh.ru/vacancy/118508577</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>&lt;p&gt;&lt;strong&gt;МТС — это мультисервисная цифровая экосистема, где помимо мобильной связи есть множество сервисов в сфере больших данных, искусственного интеллекта, облачного хранения, медиа и финансов. Сервисы экосистемы делают жизнь людей проще и интереснее!&lt;/strong&gt;&lt;/p&gt; &lt;p&gt;&lt;strong&gt;МТС Юрент – часть экосистемы МТС и один из самых крупных сервисов аренды электросамокатов. Фиолетовые самокаты вы наверняка видели на улицах города или даже катались на них. Мы создаём новый транспорт, новый стиль передвижения и меняем облик городов.&lt;/strong&gt;&lt;/p&gt; &lt;p&gt;Сейчас мы в поиске человека на роль &lt;strong&gt;Аналитика&lt;/strong&gt;, который усилит нашу команду! В Департаменте Продукта создают продукты для пользователей и сотрудников. Здесь проектируют и рисуют интерфейсы приложений, внедряют новый функционал, чтобы пользователь получил самый лучший сервис на рынке.&lt;/p&gt; &lt;p&gt;Вместе мы точно сможем больше &lt;strong&gt;⚡️&lt;/strong&gt;&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Чем предстоит заниматься:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;Проверка продуктовых гипотез;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Поиск и исследование источников данных;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Разработка и валидация новых метрик;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Взаимодействие с владельцами продукта, BI-Engineer, DE, основными стейкхолдерами;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Формирование ТЗ на изменение/создание витрин данных;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Автоматизация аналитических процессов.&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Наши требования к кандидатам:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;Требование №1: способность сделать самостоятельный вывод на основе полученных данных;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Знание маркетинговых, финансовых и операционных метрик;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Высшее техническое или экономическое образование;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Опыт от 4-х лет в роли Аналитика;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Уверенный SQL;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Навыки визуализации данных, умение наглядно представлять важную информацию и делать выводы, основываясь на цифрах;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Знания библиотек Python для работы с данными на базовом уровне;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Опыт построения дашбордов.&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Круто, если:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;Знаешь ML модели для прогнозирования спроса;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Есть опыт работы в шеринговых сервисах, такси и маркетплейсах;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Есть опыт написание запросов к MongoDB;&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Что мы можем предложить:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;Сильный федеральный бренд, один из лидеров на рынке России;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Полностью белая и своевременная заработная плата и официальное оформление по ТК РФ;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Удаленная работа 5/2, 8-ми часовой рабочий день, с гибким началом дня;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Широкую зону ответственности и возможность расти вместе с компанией;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Обучение и развитие (оценка компетенций сотрудников, составление ИПР для сотрудников);&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Полное отсутствие бюрократии;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;ДМС (стоматология, телемедицина, психолог, вызов врача на дом, а также вызов «скорой помощи», полис путешественника);&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Интересные профессиональные задачи;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Талантливая команда, готовая поддержать ваши инициативы, где вы сможете наблюдать, как выстраиваются четкие процессы там, где был беспорядок и участвовать в их построении;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Возможность реализовать свои идеи в проекте с многомиллионной аудиторией;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Бонусы для поездок на электросамокатах Юрент.&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;МТС Юрент —&lt;/strong&gt; &lt;strong&gt;это возможность построить социальный продукт, которым уже пользуются твои друзья/знакомые и ты сам!&lt;/strong&gt;&lt;/p&gt; &lt;p&gt; &lt;/p&gt; &lt;p&gt; &lt;/p&gt;</t>
+          <t>&lt;p&gt;Мы, команда компании «ИНИТИ», предлагаем специалистам по профилю «Data Scientist в области языковых моделей (Middle)» присоединиться к числу своих сотрудников.&lt;/p&gt; &lt;p&gt;Компания состоит в реестре российских аккредитованных IT-компаний, что в числе прочего подразумевает под собой отсрочку от призыва на военную службу, а также льготную ипотеку.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Обязанности:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Сбор, предобработка и анализ текстовых данных для обучения моделей.&lt;/li&gt; &lt;li&gt;Помощь в дообучении языковых моделей (LLM) под специфические задачи компании.&lt;/li&gt; &lt;li&gt;Разработка пайплайнов для подготовки текстовых данных, включая очистку, токенизацию и создание пользовательских токенов.&lt;/li&gt; &lt;li&gt;Проведение экспериментов с различными моделями и конфигурациями для повышения качества.&lt;/li&gt; &lt;li&gt;Создание отчетов о результатах экспериментов.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Требования:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Опыт работы с текстовыми данными, включая предобработку&lt;/li&gt; &lt;li&gt;Уверенные знания Python, библиотек для работы с данными (pandas, numpy, matplotlib) и библиотек для обработки текста (transformers, Hugging Face).&lt;/li&gt; &lt;li&gt;Базовые знания методов машинного обучения&lt;/li&gt; &lt;li&gt;Знания классических и современных методов работы с текстовыми данными (например, TF-IDF, embeddings и т.п.).&lt;/li&gt; &lt;li&gt;Опыт работы с крупными текстовыми датасетами.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Приветствуется:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Опыт работы с языковыми моделями GPT, BERT или их аналогами.&lt;/li&gt; &lt;li&gt;Навыки разработки в распределенных системах обработки данных.&lt;/li&gt; &lt;li&gt;Знание современных подходов к обучению LLM.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Условия:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;оформление по ТК&lt;/li&gt; &lt;li&gt;удаленный режим работы&lt;/li&gt; &lt;li&gt;график работы (09:00-18:00) (сб, вс - выходные)&lt;/li&gt; &lt;li&gt;возможно согласование рабочего графика (смещение рабочего дня, перенос рабочего дня на выходной)&lt;/li&gt; &lt;li&gt;дополнительная неделя отпуска&lt;/li&gt; &lt;li&gt;испытательный срок 1-3 мес&lt;/li&gt; &lt;li&gt;начальный уровень з/п определяется, исходя из результатов собеседования&lt;/li&gt; &lt;/ul&gt;</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>[{'name': 'SQL'}, {'name': 'Маркетинговые метрики'}, {'name': 'Python'}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>2025-03-31T17:48:35+0300</t>
+          <t>2025-04-14T14:43:24+0300</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>2025-03-31T17:48:35+0300</t>
+          <t>2025-04-14T14:43:24+0300</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>https://api.hh.ru/vacancies/118153221?host=hh.ru</t>
+          <t>https://api.hh.ru/vacancies/118508577?host=hh.ru</t>
         </is>
       </c>
     </row>
@@ -2400,12 +2376,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>118523931</t>
+          <t>118834944</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Python-разработчик (Junior/Middle)</t>
+          <t>Программист Python</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2415,38 +2391,38 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Полная занятость</t>
+          <t>Проектная работа</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/118523931</t>
+          <t>https://hh.ru/vacancy/118834944</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>&lt;p&gt;&lt;strong&gt;LATOKEN&lt;/strong&gt;, одна из ведущих криптобирж мира, приглашает в команду Продакт Разработчика Python для развития AI сервисов для трейдинга, а также внутренней платформы операций.&lt;/p&gt; &lt;p&gt;О компании: LATOKEN входит в ТОП 20 криптобирж мира, является крупнейшей Веб3 компанией из СНГ и входит в Forbes ТОП 30 компаний для удаленной работы в 2022 году. Наша платформа - это супермаркет криптоактивов с более чем 3,000 наименований. Наша миссия: помочь людям узнать о будущем и заработать на нем, узнавая о передовых активах.&lt;/p&gt; &lt;p&gt;&lt;br /&gt;&lt;strong&gt;Наши Python разработчики:&lt;/strong&gt;&lt;br /&gt;Собирают данные и строят аналитические сервисы для десятков тысяч активов&lt;br /&gt;Развивают платформу маркетинга для токенов&lt;br /&gt;Внедряют автоматические воронки и телеграм ботов&lt;br /&gt;Развивают платформу управления компании&lt;br /&gt;Использует LLM и RAG&lt;br /&gt;Ротируются между командами и быстро растут&lt;br /&gt;&lt;br /&gt;&lt;strong&gt;Как продакт разработчик вы:&lt;/strong&gt;&lt;br /&gt;Отвечаете за доставку проектов в продакшн каждую неделю и решаете кросс-командных проблемы для этого&lt;br /&gt;Грумите и планируете беклог&lt;br /&gt;Вникаете, как вы влияете на клиентские метрики&lt;br /&gt;Делает прозрачным работу вашей команды и повышаете стандарты&lt;br /&gt;&lt;br /&gt;&lt;strong&gt;Требования:&lt;/strong&gt;&lt;br /&gt;1+ год опыта в Python&lt;br /&gt;Увлечение передовыми технологиями, опыт применения GPT для анализа данных с подключением к базам данных&lt;br /&gt;Трудолюбие и способность работать под давлением 50-60 часов в неделю, стремление вырасти в лида и CTO&lt;br /&gt;&lt;br /&gt;&lt;strong&gt;Преимущества:&lt;/strong&gt;&lt;br /&gt;Возможность быстрого роста в культуре спортивных достижений&lt;br /&gt;Работа с передовыми технологиями AI и Web3&lt;br /&gt;Крупнейшая компания в области Web3 из СНГ&lt;br /&gt;Удаленная работа&lt;br /&gt;Оплата в твердой валюте&lt;br /&gt;Опционы&lt;/p&gt; &lt;p&gt;Работа в LATOKEN - это уникальная возможность попасть на передовую технологий, развиться и создать будущее. Мы приглашаем энтузиастов технологий с духом спортивных достижений. Откликнитесь на эту вакансию, если чувствуете, что у нас есть лучшая работа для роста вашего потенциала изменить мир.&lt;/p&gt; &lt;p&gt; &lt;/p&gt;</t>
+          <t>&lt;p&gt;&lt;strong&gt;Обязанности:&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Необходимо доработать уже существующий код для triangular arbitrage на платформе Binance.&lt;/p&gt;&lt;p&gt;Дописать код с учетом всех нюансов биржи и вывести его в тестовом режиме до стабильной прибыли.&lt;/p&gt;&lt;p&gt;Написать и так же протестировать код для Statistical Arbitrage и между биржами&lt;/p&gt;&lt;p&gt;&lt;br /&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Требования:&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Знание Stochastic Calculus, Machine Learning, знания опционов и алгоритмического трейдинга.&lt;/p&gt;&lt;p&gt;Знание Английского языка.&lt;/p&gt;&lt;p&gt;Понимание, что такое HFT (high frequency trading) и как с такими системами работать и внедрять.&lt;/p&gt;&lt;p&gt;&lt;br /&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Условия:&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;По договеренности &lt;/strong&gt;&lt;/p&gt;</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>[{'name': 'Python'}]</t>
+          <t>[{'name': 'Python'}, {'name': 'Алгоритмы и структуры данных'}, {'name': 'Стохастические процессы'}, {'name': 'Алгоритмический Трейдинг'}, {'name': 'Оптимизация кода'}, {'name': 'Тестировка'}]</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>2025-03-30T18:51:38+0300</t>
+          <t>2025-04-22T22:17:01+0300</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>2025-03-30T18:51:38+0300</t>
+          <t>2025-04-22T22:17:01+0300</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>https://api.hh.ru/vacancies/118523931?host=hh.ru</t>
+          <t>https://api.hh.ru/vacancies/118834944?host=hh.ru</t>
         </is>
       </c>
     </row>
@@ -2456,12 +2432,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>118523155</t>
+          <t>117258467</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Python разработчик (Трайб Data Office)</t>
+          <t>Data-analyst(junior)</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2476,12 +2452,12 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/118523155</t>
+          <t>https://hh.ru/vacancy/117258467</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>&lt;p&gt;&lt;strong&gt;О нас:&lt;/strong&gt; Мы - команда Data Governance. Сейчас находимся в поиске разработчика для развития процессов и инструментов Data Governance и Data Quality.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Цель:&lt;/strong&gt; разработчик (90%) и девопс (10%) задач, направленных на настройку платформы Data Governance &amp;amp; Data Quality, и разработку собственного приложения Data Portal.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Что мы ждём от тебя:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Знание Python (с уклоном в backend/fullstack), html, js, css (vanilla js, vue/react);&lt;/li&gt; &lt;/ul&gt; &lt;ul&gt; &lt;li&gt;Опыт работы с Linux.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Будет плюсом:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Знание Nginx, keycloak, camunda, swagger, ElasticSearch, Apache Airflow, Java/Groovy.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Чем предстоит заниматься:&lt;/strong&gt;&lt;/p&gt; &lt;p&gt;DATA GOVERNANCE &amp;amp; DATA QUALITY&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Доработка, настройка и сопровождение платформы Data Governance &amp;amp; Data Quality;&lt;/li&gt; &lt;li&gt;Загрузка метаданных в платформу (интеграция с системами источниками, постановка на расписание, контроль загрузки данных);&lt;/li&gt; &lt;li&gt;Настройка и управление ролевой моделью Data Governance;&lt;/li&gt; &lt;li&gt;Реализация отчетности по управлению данными Банка;&lt;/li&gt; &lt;li&gt;Разработка собственной аналитической платформы по управлению данными (Data Portal);&lt;/li&gt; &lt;li&gt;Разработка платформы Data Quality;&lt;/li&gt; &lt;li&gt;Реализация контролей качества данных;&lt;/li&gt; &lt;li&gt;Настройка оркестрации выполнения проверок качества данных;&lt;/li&gt; &lt;li&gt;Тестирование разработанного функционала Data Governance &amp;amp; Data Quality;&lt;/li&gt; &lt;li&gt;Поддержание документации реализованного\настроенного функционала платформы Data Governance &amp;amp; Data Quality.&lt;/li&gt; &lt;/ul&gt;</t>
+          <t>&lt;p&gt;&lt;strong&gt;Flowwow — это маркетплейс цветов и подарков.&lt;/strong&gt; У нас продают более 15 тысяч селлеров в 1200+ городах России и мира. Платформа позволяет из любой точки мира заказать, оплатить и отследить доставку цветов, тортов, десертов, комнатных растений, декора, украшений, картин и других товаров.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Мы — аккредитованная IT-компания&lt;/strong&gt;: создаем качественный и удобный сервис, который делает счастливыми тысячи людей по всему миру. С 2021 года показываем уверенный рост х2 по большинству показателей, в том числе по темпам расширения команды.&lt;/p&gt; &lt;p&gt;В 2024 году вошли в Топ-20 лучших работодателей, по версии HeadHunter (средние компании).&lt;br /&gt;&lt;br /&gt;&lt;strong&gt;Обязанности:&lt;/strong&gt;&lt;/p&gt; &lt;p&gt;Выполнение AD-hoc запросов;&lt;br /&gt;Выполнение базового анализа данных;&lt;br /&gt;Написание SQL-запросов для извлечения данных из БД;&lt;br /&gt;Консультации смежных команд и прочая аналитика по запросам;&lt;br /&gt;Поиск автоматизации для ручных процессов&lt;/p&gt; &lt;p&gt; &lt;/p&gt; &lt;p&gt;&lt;strong&gt;Требования:&lt;/strong&gt;&lt;/p&gt; &lt;p&gt;Профильное образование, опыт работы от полугода (коммерческий)&lt;br /&gt;Умение писать SQL запросы на уровне оконных функций, CTE&lt;br /&gt;Знание основ статистики и теории вероятностей&lt;br /&gt;Владение базовым функционалом и основными библиотеками Python pandas, matplotlib, numpy Будет плюсом умение быстро разбираться в новых библиотеках&lt;br /&gt;Желание активно расти и развиваться в сфере продуктовой аналитики/аналитики данных&lt;br /&gt;Самостоятельность: умение гуглить, думать, пробовать решить проблему, не бояться спрашивать&lt;br /&gt;Умение презентовать результаты своих исследований и объяснять сложные вещи простыми словами&lt;/p&gt; &lt;p&gt; &lt;/p&gt; &lt;p&gt;&lt;strong&gt;Мы предлагаем:&lt;/strong&gt;&lt;/p&gt; &lt;p&gt; &lt;/p&gt; &lt;ul&gt; &lt;li&gt;работу над высоконагруженным сервисом, приносящим пользу сотням тысяч людей;&lt;/li&gt; &lt;li&gt;удаленную работу или современный комфортный офис в центре Москвы/Санкт-Петербурга;&lt;/li&gt; &lt;li&gt;льготы IT-компании для всех сотрудников;&lt;/li&gt; &lt;li&gt;компенсацию стоимости техники, которую вы приобретаете для работы;&lt;/li&gt; &lt;li&gt;компенсацию расходов на занятия спортом;&lt;/li&gt; &lt;li&gt;расширенное медицинское обслуживание;&lt;/li&gt; &lt;li&gt;возможность проходить профильное обучение и повышать квалификацию за счет компании, посещать профильные конференции и воркшопы;&lt;/li&gt; &lt;li&gt;доступ к сервису психологической поддержки;&lt;/li&gt; &lt;li&gt;корпоративную программу лояльности: персональная скидка на Flowwow + предложения от партнеров;&lt;/li&gt; &lt;li&gt;развитое внутреннее комьюнити, где можно делиться опытом и навыками в разных сферах, участвовать в играх, мероприятиях и даже в режиме home office чувствовать себя частью команды.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;​​​​​​&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Наши ценности&lt;/strong&gt;&lt;/p&gt; &lt;p&gt; &lt;/p&gt; &lt;p&gt;&lt;strong&gt;Забота и любовь&lt;/strong&gt;&lt;/p&gt; &lt;p&gt;Наш продукт основан на желании людей радовать друг друга и быть вместе. Пока любовь жива, у Flowwow будут пользователи.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Развитие и рост&lt;/strong&gt;&lt;/p&gt; &lt;p&gt;Flowwow быстро развивается и с радостью поддерживает инициативы сотрудников.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Культура взаимопомощи&lt;/strong&gt;&lt;/p&gt; &lt;p&gt;У нас работают люди, вовлеченные в процесс и небезразличные к тому, что они делают.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Открытость к изменениям&lt;/strong&gt;&lt;/p&gt; &lt;p&gt;Каждый может проявлять инициативу, предлагать и быстро видеть свой вклад в общий успех.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Благотворительность&lt;/strong&gt;&lt;/p&gt; &lt;p&gt;Одна из целей Flowwow — помогать людям. Нас объединяют социальная ответственность и готовность участвовать в специальных благотворительных мероприятиях.&lt;/p&gt;</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2492,17 +2468,17 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>2025-03-31T09:57:34+0300</t>
+          <t>2025-03-31T12:06:44+0300</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>2025-03-31T09:57:34+0300</t>
+          <t>2025-03-31T12:06:44+0300</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>https://api.hh.ru/vacancies/118523155?host=hh.ru</t>
+          <t>https://api.hh.ru/vacancies/117258467?host=hh.ru</t>
         </is>
       </c>
     </row>
@@ -2512,53 +2488,53 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>119042736</t>
+          <t>118834303</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Python разработчик (backend)</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Минск</t>
+          <t>Тольятти</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Полная занятость</t>
+          <t>Проектная работа</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/119042736</t>
+          <t>https://hh.ru/vacancy/118834303</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>&lt;p&gt;&lt;strong&gt;Альфа Банк&lt;/strong&gt; – один из ведущих частных банков, который входит в число системно значимых банков Беларуси.&lt;br /&gt;Мы работаем как финтех-компания, интегрируя в свою бизнес-модель успешные практики в области мобильных платежей, онлайн-кредитования, цифровых транзакций и других передовые технологии.&lt;br /&gt;Сейчас в Альфе более 60 тысяч бизнес-клиентов и почти миллион клиентов-физлиц.&lt;/p&gt; &lt;p&gt;Сегодня в команде Альфа Банка более 2500 профессионалов.&lt;/p&gt; &lt;p&gt;Мы объединяем людей с разным опытом, взглядами и интересами.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Присоединяйся к команде. Вместе мы способны на большее!&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Ключевые задачи:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;очистка, преобразование и агрегация данных для анализа и моделирования&lt;/li&gt; &lt;li&gt;разработка ETL (Extract, Transform, Load) процессов&lt;/li&gt; &lt;li&gt;работа с большими объемами данных&lt;/li&gt; &lt;li&gt;создание масштабируемых решений (Spark, Hadoop), в т.ч. на базе контейнерной архитектуры (Kubernetes)&lt;/li&gt; &lt;li&gt;разработка, развертывание и оптимизация (квантование, прунинг, дистилляция) моделей для уменьшения размера модели и улучшения эффективности инференции&lt;/li&gt; &lt;li&gt;автоматизация процессов обучения и тестирования моделей (Airflow)&lt;/li&gt; &lt;li&gt;решение высоконагруженных промышленных задач в области NLP(LLM), Computer Vision, Deep Learning&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Пожелания к кандидатам:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;наличие профильных сертификаций по data science;&lt;/li&gt; &lt;li&gt;участие и призовые места в конкурсах по ML/DL: Kaggle, DrivenData, AIcrowd, RoboCup, etc.;&lt;/li&gt; &lt;li&gt;наличие собственных проектов в публичных репозиториях в области ML/AI, CV, NLP;&lt;/li&gt; &lt;li&gt;профильное математическое образование (статистика, теория вероятности, etc.) или в области ИИ;&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;Предпочтительно владение следующими технологиями:&lt;/p&gt; &lt;ul&gt; &lt;li&gt;один из языков программирования: Python, R, Java, Scala, C++.&lt;/li&gt; &lt;li&gt;библиотеки обработки данных: NumPy, Pandas.&lt;/li&gt; &lt;li&gt;библиотеки машинного обучения: Tensorflow, Keras, PyTorch, Scikit-Learn.&lt;/li&gt; &lt;li&gt;библиотеки NLP и CV: NLTK, SpaCy, Gensim, Hugging Face Transformers, OpenCV, YOLO, PIL.&lt;/li&gt; &lt;li&gt;библиотеки и платформы больших данных: Hadoop, Hive, Spark, PySpark, Kafka, Apache Flink.&lt;/li&gt; &lt;li&gt;ETL и БД: Apache NiFi, Talend, Apache Airflow, SQL (PostgreSQL, MySQL), NoSQL (MongoDB, Cassandra).&lt;/li&gt; &lt;li&gt;опыт работы с инструментами визуализации данных: Tableau, PowerBI, D3.js.&lt;/li&gt; &lt;li&gt;Git, Docker, Kubernetes.&lt;/li&gt; &lt;li&gt;фреймворки для создания веб-сервисов: Flask, Django.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Что предлагаем для твоего комфорта:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;работу в команде с высокой экспертизой;&lt;/li&gt; &lt;li&gt;современный стек технологий, масштабные проекты и сильную команду;&lt;/li&gt; &lt;li&gt;мощное железо для работы;&lt;/li&gt; &lt;li&gt;формат работы на выбор (удаленный/гибкий график);&lt;/li&gt; &lt;li&gt;сочетание стабильности банка и гибкости ИТ;&lt;/li&gt; &lt;li&gt;Альфа Среду (серию митапов о цифровой трансформации банка).&lt;/li&gt; &lt;/ul&gt;</t>
+          <t>&lt;p&gt;&amp;quot;СЕОТЛТ&amp;quot; в IT отрасли с 2009 кода. Аккредитованная it-компания.&lt;/p&gt; &lt;p&gt;Cпециализируемся на создании уникальных информационных систем.&lt;strong&gt; &lt;/strong&gt;Работаем крупнейшими производственными российскими компаниями, занимаемся разработкой, развитием и продвижением собственных стартап проектов.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Обязанности:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;участие в построении архитектуры и проектировании;&lt;/li&gt; &lt;li&gt;написание кода;&lt;/li&gt; &lt;li&gt;проектирование, взаимодействие с архитекторами, фронтенд командой, аналитиками, отделом тестирования;&lt;/li&gt; &lt;/ul&gt; &lt;strong&gt;Требования:&lt;/strong&gt; &lt;ul&gt; &lt;li&gt;опыт работы Python&lt;/li&gt; &lt;li&gt;местонахождение в РФ;&lt;/li&gt; &lt;li&gt;Требуется опыт работы с python + e2e тесты + сис.админинстрирование (devOps).&lt;/li&gt; &lt;/ul&gt; &lt;strong&gt;Условия:&lt;/strong&gt; &lt;ul&gt; &lt;li&gt;удаленный формат работы.&lt;/li&gt; &lt;/ul&gt;</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>[{'name': 'Python'}, {'name': 'Machine Learning'}, {'name': 'R'}, {'name': 'TensorFlow'}, {'name': 'NLP'}, {'name': 'Data Science'}, {'name': 'Машинное обучение'}, {'name': 'Kubernetes'}, {'name': 'Computer Vision Engineer'}, {'name': 'Machine Learning Engineer'}, {'name': 'Deep Learning Engineer'}, {'name': 'Data Engineer'}, {'name': 'Data Analyst'}, {'name': 'Researcher'}, {'name': 'Research Engineer'}, {'name': 'ML'}]</t>
+          <t>[{'name': 'Python'}]</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>2025-04-01T19:27:10+0300</t>
+          <t>2025-03-26T20:18:09+0300</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>2025-04-01T19:27:10+0300</t>
+          <t>2025-03-26T20:18:09+0300</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>https://api.hh.ru/vacancies/119042736?host=hh.ru</t>
+          <t>https://api.hh.ru/vacancies/118834303?host=hh.ru</t>
         </is>
       </c>
     </row>
@@ -2568,17 +2544,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>119006059</t>
+          <t>117486834</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Разработчик исследователь по машинному обучению / ML Ops (C# / Python)</t>
+          <t>Python Developer</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Москва</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2588,33 +2564,33 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/119006059</t>
+          <t>https://hh.ru/vacancy/117486834</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>&lt;p&gt;Хоу-хоу-хоу!&lt;br /&gt;&lt;br /&gt;Нашему кораблю срочно требуется вперед смотрящий матрос на мачту, для поиска новых райских информационных островов.&lt;/p&gt; &lt;p&gt;В краткосрочной перспективе, задачи исследовательские и должны обеспечить плавное вхождение в тему машинного обучения, по направлениям:&lt;/p&gt; &lt;ul&gt; &lt;li&gt;методы оптимизации (обучения) сетей: &lt;ul&gt; &lt;li&gt;локальные, градиентные;&lt;/li&gt; &lt;li&gt;глобальные, по типу управляемый случайный поиск, генетические алгоритмы, имитация отжига, всякие там сглаживания.&lt;/li&gt; &lt;/ul&gt; &lt;/li&gt; &lt;li&gt;использование сетей: &lt;ul&gt; &lt;li&gt;сверхточные;&lt;/li&gt; &lt;li&gt;генеративные;&lt;/li&gt; &lt;li&gt;трансформеры и т.п.&lt;/li&gt; &lt;/ul&gt; &lt;/li&gt; &lt;li&gt;методы оптимизации структуры сети;&lt;/li&gt; &lt;li&gt;и пр.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt; &lt;/p&gt; &lt;p&gt;Основные навыки, которые позволят стать зорким соколом:&lt;/p&gt; &lt;ul&gt; &lt;li&gt;умение читать научные статьи, строчка за строчкой;&lt;/li&gt; &lt;li&gt;математическая база, понятие гладкости, градиента, умение расширять сознание до N и редуцировать его на N-1 циклично пока оно не соберется в решение;&lt;/li&gt; &lt;li&gt;после прочтение срочно прислать в сопроводительном сообщении, чему равняется сумма гармонического ряда;&lt;/li&gt; &lt;li&gt;навык написания численных алгоритмов.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt; &lt;/p&gt; &lt;p&gt;Что может еще понадобиться:&lt;/p&gt; &lt;ul&gt; &lt;li&gt;навык удушения Python-а;&lt;/li&gt; &lt;li&gt;опыт борьбы с C#.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt; &lt;/p&gt; &lt;p&gt;Для суровых джедайчан и джедайчах:&lt;/p&gt; &lt;ul&gt; &lt;li&gt;опыт программирования gpu, любой api и shader language (OpenGL, Direct3D, Vulkan, Metal, OpenCL, hlsl, glsl и т.п.);&lt;/li&gt; &lt;li&gt;опыт написания параллельных алгоритмов.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt; &lt;/p&gt; &lt;p&gt;Мы ждем тебя, чтобы окунуться в этот дивный, чудесный мир нейронных сетей и задач оптимизации, где плавают комплексные числа и бинарные сети, где в глубине, на стыке нейробиологии и математики можно встретить настоящие задачи, монстров по естественной обработке текстов и анализу спортивных видео, где задачи робототехники могут тебя слопать в три секунды, в общем - в этот дивный и опасный мир, однако увлекательный, мир.&lt;br /&gt;&lt;br /&gt;Товарищ, отзовись, ты нам нужен и не один!&lt;/p&gt;</t>
+          <t>&lt;p&gt;&lt;strong&gt;Domclick.ru&lt;/strong&gt; - единственный в России продукт, обеспечивающий полный цикл операций с недвижимостью. Доступен на всех популярных платформах (Web, iOS, Android). Решаем любые вопросы с недвижимостью, делая сложное простым, с заботой о каждом клиенте. Мы ищем единомышленников, чтобы вместе помогать людям исполнять мечту о собственном жилье.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Проект: &lt;/strong&gt;&lt;/p&gt; &lt;p&gt;Наша команда занимается автоматизацией и упрощением ипотеки в Сбербанке. Уже сейчас вся ипотека Сбера выдается через наши сервисы. Ежедневно, мы помогаем более чем 5000 человек получить ипотечный кредит и обеспечиваем одновременную работу более чем 30 000 сотрудников. Сейчас мы ищем Python-разработчика, который бы помог нам автоматизировать рабочее место ипотечного менеджера банка. В идеале - сделать так, чтобы менеджер был не нужен. Характер работ предполагает значительное число интеграций со смежными сервисами (как синхронно, так и через брокер сообщений), реализацию сложной бизнес - логики и значительную нагрузку - более 500 запросов в секунду.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Команда и процессы:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;полная ответственность за продукт: разработку, инфраструктуру, тестирование и релиз;&lt;/li&gt; &lt;li&gt;работа по Agile;&lt;/li&gt; &lt;li&gt;мы используем современные технологии; практикуем continuous integration и continuous delivery; код в bitbucket, задачи в jira и т.д.;&lt;/li&gt; &lt;li&gt;взрослый девопс, highload;&lt;/li&gt; &lt;li&gt;понимающее IT-руководство, например, у нас есть квота на 20% от спринта на борьбу с тех. долгом;&lt;/li&gt; &lt;li&gt;бизнес-руководство, нацеленное на результат;&lt;/li&gt; &lt;li&gt;высокие темпы работы, разработанные решения очень быстро попадают в продакшн.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Наш стек:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Python и Fast API/Sanic;&lt;/li&gt; &lt;li&gt;PostgreSQL, asyncpg;&lt;/li&gt; &lt;li&gt;RabbitMQ, aio_pika;&lt;/li&gt; &lt;li&gt;Redis.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Чем предстоит заниматься:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;реализовывать высоконагруженные и производительные сервисы на Python;&lt;/li&gt; &lt;li&gt;участвовать в проектировании архитектуры, выработке решений по отказоустойчивости и производительности;&lt;/li&gt; &lt;li&gt;интегрироваться с партнерами и внутренними системами банка;&lt;/li&gt; &lt;li&gt;участвовать в груминге бэклога, быть техническим партнёром для бизнеса;&lt;/li&gt; &lt;li&gt;оценивать задачи и планировать спринты;&lt;/li&gt; &lt;li&gt;отвечать за качество: проводить code review, писать автотесты (юнит/функциональные/интеграционные);&lt;/li&gt; &lt;li&gt;разбирать инциденты.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Мы ожидаем, что вы:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;прекрасно ориентируетесь в асинхронном Python 3.9+ (фреймворки Sanic и FastApi);&lt;/li&gt; &lt;li&gt;отлично знаете и умеете работать с PostgreSQL (в том числе знакомы с профилированием и написанием сырых запросов без ORM);&lt;/li&gt; &lt;li&gt;знакомы с микросервисной архитектурой и умеете проектировать новые сервисы с нуля;&lt;/li&gt; &lt;li&gt;имеете опыт проведения CodeReview;&lt;/li&gt; &lt;li&gt;пишите много unit тестов(мы используем pytest).&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Будет плюсом:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;опыт работы с брокерами сообщений RabbitMq;&lt;/li&gt; &lt;li&gt;опыт настройки деплоя на базе Kubernetes.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Мы предлагаем:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;работу в аккредитованной IT компании;&lt;/li&gt; &lt;li&gt;конкурентную заработную плату;&lt;/li&gt; &lt;li&gt;премию по итогам календарного года;&lt;/li&gt; &lt;li&gt;полис ДМС с первого месяца работы;&lt;/li&gt; &lt;li&gt;современную технику для работы;&lt;/li&gt; &lt;li&gt;корпоративный университет, онлайн-курсы для повышения квалификации, конференции, митапы;&lt;/li&gt; &lt;li&gt;фитнес-зал в здании офиса;&lt;/li&gt; &lt;li&gt;льготную программу ипотеки для сотрудников;&lt;/li&gt; &lt;li&gt;комфортный офис класса А в 5 минутах от станции метро и МЦК Кутузовская;&lt;/li&gt; &lt;li&gt;гибкое начало рабочего дня и возможность работать в гибридном формате или удаленно.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;#Python #office #hybrid #remote&lt;/p&gt;</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>[{'name': 'Линейная алгебра'}, {'name': 'Алгоритмы и структуры данных'}, {'name': 'Математический анализ'}, {'name': 'Математическое программирование'}, {'name': 'Математическая статистика'}]</t>
+          <t>[{'name': 'Python'}, {'name': 'PostgreSQL'}, {'name': 'RabbitMQ'}, {'name': 'FastAPI'}]</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>2025-04-01T09:52:52+0300</t>
+          <t>2025-05-05T16:01:07+0300</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>2025-04-01T09:52:52+0300</t>
+          <t>2025-05-05T16:01:07+0300</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>https://api.hh.ru/vacancies/119006059?host=hh.ru</t>
+          <t>https://api.hh.ru/vacancies/117486834?host=hh.ru</t>
         </is>
       </c>
     </row>
@@ -2624,7 +2600,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>118747121</t>
+          <t>118514543</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2634,7 +2610,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Москва</t>
+          <t>Чебоксары</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2644,33 +2620,33 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/118747121</t>
+          <t>https://hh.ru/vacancy/118514543</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>&lt;p&gt;&lt;strong&gt;Rapporto&lt;/strong&gt; – одна из крупнейших IT-компаний на рынке телекоммуникаций. Более 15 лет мы обслуживаем B2B-рынок.&lt;/p&gt; &lt;p&gt;Наши продукты позволяют компаниям ежедневно общаться со своими клиентами через различные каналы коммуникаций: push-уведомления, мессенджеры, SMS-сообщения, IVR и другие.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Среди клиентов: ВкусВилл, ЦУМ, Лэтуаль, Боксберри, Л’Окситан, ОТП Банк, Раффайзенбанк&lt;/strong&gt; и другие.&lt;/p&gt; &lt;p&gt;Нас 140 человек, у нас нет лишней бюрократии, работы ради галочки или микроменеджмента. Зато есть много сложных и интересных задач, быстрое принятие решений, а главное – у нас есть отличная команда разработки, в которую нужен тот, кто поможет нам делать сервис еще лучше!&lt;/p&gt; &lt;p&gt; &lt;/p&gt; &lt;p&gt;&lt;strong&gt;Требования: &lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Уверенное владение Python и основными библиотеками анализа данных (numpy, pandas, sklearn, lightgbm, xgboost, catboost и т.п.);&lt;/li&gt; &lt;li&gt;Понимание классических методов и алгоритмов машинного обучения, опыт их применения на практике;&lt;/li&gt; &lt;li&gt;Опыт построения ML-моделей для формирования персональных рекомендаций клиентам;&lt;/li&gt; &lt;li&gt;Умение переложить бизнес-задачу на язык анализа данных, подобрать алгоритм с учетом требований и ограничений, интерпретировать результат;&lt;/li&gt; &lt;li&gt;Знание и опыт работы с BI-системами, SQL;&lt;/li&gt; &lt;li&gt;Уверенные знания и навыки применения методов математической статистики, линейной алгебры, теории вероятности;&lt;/li&gt; &lt;li&gt;Опыт работы 2-3 года в крупном b2b бизнесе (медицина, банки, телеком, ритейл) в позиции Data analyst/ Data scientist;&lt;/li&gt; &lt;li&gt;&lt;strong&gt;Практический опыт работы с PostgreSQL, ClickHouse, Python&lt;/strong&gt;;&lt;/li&gt; &lt;li&gt;Опыт самостоятельного ведения дата-проектов, ML проектов.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;br /&gt;&lt;strong&gt;Обязанности:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Анализ данных, сегментация, выявление закономерностей, next best action, предиктивные модели, подготовка баз данных для различных проектов, коммуникаций;&lt;/li&gt; &lt;li&gt;Разработка моделей для анализа эффективности деятельности подразделений, проектов, программ, акций, продуктов (услуг), а также для подбора персональных предложений клиентам;&lt;/li&gt; &lt;li&gt;Выявление целевых аудиторий для наиболее эффективного предложения продуктов (услуг);&lt;/li&gt; &lt;li&gt;Разработка, обновление, постановка на автоматизированное тестирование алгоритмов обработки данных, статистического анализа и машинного обучения;&lt;/li&gt; &lt;li&gt;Генерация и проверка гипотез, анализ эффективности внедряемых моделей машинного обучения, A/B тестирование;&lt;/li&gt; &lt;li&gt;Поиск источников данных и прикладных методов моделирования;&lt;/li&gt; &lt;li&gt;Участие в формировании требований к составу исходных данных для моделирования;&lt;/li&gt; &lt;li&gt;Участие в разработке моделей сквозной и предиктивной аналитики;&lt;/li&gt; &lt;li&gt;Анализ качества данных, разработка подходов к повышению качества данных;&lt;/li&gt; &lt;li&gt;Участие в разработке методологических документов по анализу данных и составлению прогнозов;&lt;/li&gt; &lt;li&gt;Участие в формировании бюджета компании, составлении аналитической отчетности.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt; &lt;/p&gt; &lt;p&gt;&lt;strong&gt;Что мы предлагаем:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;аккредитованная IT-компания;&lt;/li&gt; &lt;li&gt;оформление и все социальные гарантии по ТК РФ;&lt;/li&gt; &lt;li&gt;&lt;strong&gt;удаленный формат работы на территории РФ&lt;/strong&gt;;&lt;/li&gt; &lt;li&gt;ДМС со стоматологией и психологом после ИС;&lt;/li&gt; &lt;li&gt;дружную команду профессионалов: ценим юмор, проводим крутые корпоративы, организовываем мастер-классы, квизы и другие мероприятия для неформального общения с коллегами;&lt;/li&gt; &lt;li&gt;расширение экспертизы: возможность развиваться в новых направлениях.&lt;/li&gt; &lt;/ul&gt;</t>
+          <t>&lt;strong&gt;Обязанности:&lt;/strong&gt; &lt;ul&gt; &lt;li&gt;Написание сложных SQL-запросов (CTE, оконные функции, хранимые процедуры), формирование DAG, написание скриптов на языке python (numpy, xlsxwriter).&lt;/li&gt; &lt;li&gt;Подготовка Excel отчетов для акционеров компании, может занимать до 60% времени.&lt;/li&gt; &lt;/ul&gt; &lt;strong&gt;Требования:&lt;/strong&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;знание Python, SQL (pgSql, mySql), PIX Meta, Fore, Airflow, BI.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;уверенное владение Excel, включая сводные таблицы, функции (ВПР, ИНДЕКС, ПОИСКПОЗ), обработку и визуализацию данных.&lt;/p&gt; &lt;/li&gt; &lt;li&gt;опыт работы 2 года в ИТ.&lt;/li&gt; &lt;/ul&gt; &lt;strong&gt;Условия:&lt;/strong&gt; &lt;ul&gt; &lt;li&gt;удаленный формат работы;&lt;/li&gt; &lt;li&gt;оформление по ТК;&lt;/li&gt; &lt;li&gt;график работы с 09:00-18:00 (по Мск);&lt;/li&gt; &lt;li&gt;мы входим в реестр ИТ-компаний; бронь от мобилизации;&lt;/li&gt; &lt;li&gt;ДМС после испытательного срока со стоматологией, ежегодный чек-ап здоровья;&lt;/li&gt; &lt;li&gt;компенсация фитнеса до 55000 в год.&lt;/li&gt; &lt;/ul&gt;</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>[{'name': 'PostgreSQL'}, {'name': 'Python'}, {'name': 'Алгоритмы и структуры данных'}, {'name': 'Power BI'}, {'name': 'Clickhouse'}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>2025-03-31T09:39:08+0300</t>
+          <t>2025-04-05T16:17:21+0300</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>2025-03-31T09:39:08+0300</t>
+          <t>2025-04-05T16:17:21+0300</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>https://api.hh.ru/vacancies/118747121?host=hh.ru</t>
+          <t>https://api.hh.ru/vacancies/118514543?host=hh.ru</t>
         </is>
       </c>
     </row>
@@ -2680,17 +2656,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>117926121</t>
+          <t>117909571</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Middle Python-разработчик</t>
+          <t>Data analyst</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Москва</t>
+          <t>Санкт-Петербург</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2700,33 +2676,33 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/117926121</t>
+          <t>https://hh.ru/vacancy/117909571</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>&lt;p&gt;Привет!&lt;/p&gt; &lt;p&gt;Мы — команда &lt;strong&gt;Price Organizer&lt;/strong&gt;, стартап, который создает крутой продукт для управления e-commerce бизнесом. Раньше мы реализовывали крупные федеральные проекты на заказ, которые получали различные награды.&lt;/p&gt; &lt;p&gt;Наши клиенты — предприниматели, которые хотят автоматизировать процессы и сосредоточиться на росте. У нас уже есть первые продажи, и теперь мы расширяем команду.&lt;/p&gt; &lt;p&gt;Мы ищем человека, который хочет расти с нами, не боится вызовов, готов стать частью живого и энергичного стартапа. Мы готовы вкладываться в твое развитие, помогать становиться лучше и вместе строить что-то по-настоящему значимое.&lt;/p&gt; &lt;p&gt;Если ты любишь писать код, разрабатывать классные штуки и хочешь быть не просто &amp;quot;сотрудником&amp;quot;, а важной частью команды — читай дальше.&lt;/p&gt; &lt;h2&gt;Что ты будешь делать?&lt;/h2&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;Разрабатывать новые API и интеграции.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Помогать с поддержкой существующей системы: чинить баги, выгружать данные, находить точки роста.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Работать над интеграциями с маркетплейсами — будем подключать новые платформы.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Реализовывать по ТЗ алгоритмы для расчетов и аналитики (данных у нас много, и их нужно красиво использовать).&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Писать автотесты на свой код — мы любим, когда все работает надежно.&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt; &lt;p&gt;Ты не будешь работать &amp;quot;по указке&amp;quot;. Мы ценим инициативу, идеи и готовы обсуждать, как сделать наш продукт лучше.&lt;/p&gt; &lt;p&gt;Работа будет под руководством тимлида, который проектирует основную часть системы, но мы ожидаем от тебя ответственности за реализацию.&lt;/p&gt; &lt;h2&gt;Наш стек (и твой тоже)&lt;/h2&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;Python (много асинхронности, asyncio).&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;FastAPI, SQLAlchemy (без ORM).&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;PostgreSQL, RabbitMQ, Minio, Keycloak.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;pytest, pandas, polars, aio-pika, python-telegram-bot.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;В будущем: ClickHouse, чтобы справляться с высокими нагрузками.&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt; &lt;p&gt;Если ты уже работал с чем-то из этого — отлично. Если нет, но готов учиться — мы поможем!&lt;/p&gt; &lt;h2&gt;Что мы ищем в тебе&lt;/h2&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;Опыт коммерческой разработки на Python от 2 лет.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Понимание работы с асинхронностью, очередьми сообщений, FastAPI, SQLAlchemy (без ORM) и SQL.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Готовность брать на себя ответственность, расти и постоянно учиться.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Живой ум, который любит решать проблемы и головоломки.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Любовь к чистому коду и желание доводить задачи до конца.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Английский на уровне, чтобы читать документацию.&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt; &lt;div&gt;&lt;strong&gt;Плюсом будет:&lt;/strong&gt;&lt;/div&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;Опыт написания автотестов.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Работа с высоконагруженными сервисами или микросервисной архитектурой.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Умение делать рефакторинг так, чтобы старый код стал &amp;quot;как новый&amp;quot;.&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt; &lt;h2&gt;Как мы работаем&lt;/h2&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;Гибрид: 2 дня в офисе, остальное удаленно. Полная удаленка тоже обсуждается.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;График: 40 часов в неделю. Если нужно отлучиться в течение дня — не проблема, главное результат и в срок :)&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt; &lt;p&gt;Мы за честность, ответственность и искренность, поэтому договариваемся просто и по-человечески.&lt;/p&gt; &lt;h2&gt;Почему к нам?&lt;/h2&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;Минимум формальностей, максимум реальной работы.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Возможность прокачаться на сложных, но интересных задачах под присмотром ментора.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Настоящий опыт стартапа: ты увидишь, как продукт растет и меняется. С ним будешь расти и ты :)&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Мы вкладываемся в твоё развитие — обучение, новые навыки и просто качественный фидбек.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Классная команда: мы друг друга поддерживаем, делимся опытом и вместе добиваемся результата.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Мы берем в команду только близких по духу людей. Нет перекладывания ответственности и токсичности. Если возникают проблемы - каждый всегда может высказаться и будет услышан.&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt; &lt;h2&gt;Финансовые условия&lt;/h2&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;Отпуск: 30 календарных дней.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Плюс: печеньки в офисе и возможности карьерного роста вместе с нами.&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt; &lt;h2&gt;Как мы найдем друг друга?&lt;/h2&gt; &lt;ol&gt; &lt;li&gt; &lt;p&gt;Ты отправляешь резюме.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Общаемся с тобой на собеседовании (без стресса, обещаем).&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Решаешь с нами кейс в режиме онлайн.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Работаем :)&lt;/p&gt; &lt;/li&gt; &lt;/ol&gt; &lt;p&gt; &lt;/p&gt;</t>
+          <t>&lt;p&gt;Привет! &lt;strong&gt;495 Кредит&lt;/strong&gt; – динамично развивающаяся компания в сфере кредитования, основанная в марте 2022 года. Наш сервис успешно растет и стремится сделать деньги доступными!&lt;br /&gt;&lt;br /&gt;Сейчас нам нужен Data analyst!&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Твои задачи:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Подготовка регулярных и add-hoc отчетов;&lt;/li&gt; &lt;li&gt;Выполнение качественного анализа кредитного портфеля;&lt;/li&gt; &lt;li&gt;Поддержка бизнес-решений относительно стратегии кредитования и других операционных процессов;&lt;/li&gt; &lt;li&gt;Рекомендации по улучшению текущей кредитной политики и операционных процессов.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;От тебя ожидаем:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Высшее образование в области экономики, математики и/или финансов;&lt;/li&gt; &lt;li&gt;Очень хорошее знание Excel и SQL, знание R/Python является преимуществом;&lt;/li&gt; &lt;li&gt;Аналитические и презентационные навыки;&lt;/li&gt; &lt;li&gt;Хорошие коммуникативные навыки на русском языке, английский язык является преимуществом.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Мы предлагаем:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Официальное трудоустройство (согласно ТК РФ), социальный пакет;&lt;/li&gt; &lt;li&gt;Достойную Заработную плату с возможностью роста (оговариваем индивидуально на собеседовании, зависит от твоих навыков и знаний);&lt;/li&gt; &lt;li&gt;Постоянные поддержка команды рисков и наставничество со стороны руководителя;&lt;/li&gt; &lt;li&gt;Дружелюбная атмосфера и отличная команда!&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Скорее отправляй резюме, мы ждем тебя!&lt;/strong&gt;&lt;/p&gt;</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>[{'name': 'Python'}, {'name': 'FastAPI'}, {'name': 'SQLAlchemy'}, {'name': 'Git'}, {'name': 'REST API'}, {'name': 'Pytest'}, {'name': 'Agile'}, {'name': 'Оптимизация кода'}, {'name': 'Ответственность'}, {'name': 'Исполнительность'}, {'name': 'Инициативность'}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>2025-03-31T09:27:09+0300</t>
+          <t>2025-03-30T16:56:19+0300</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>2025-03-31T09:27:09+0300</t>
+          <t>2025-03-30T16:56:19+0300</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>https://api.hh.ru/vacancies/117926121?host=hh.ru</t>
+          <t>https://api.hh.ru/vacancies/117909571?host=hh.ru</t>
         </is>
       </c>
     </row>
@@ -2736,53 +2712,53 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>118200069</t>
+          <t>118915978</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>Backend-разработчик</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Минск</t>
+          <t>Санкт-Петербург</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Полная занятость</t>
+          <t>Проектная работа</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/118200069</t>
+          <t>https://hh.ru/vacancy/118915978</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>&lt;p&gt;&lt;strong&gt;LogicLike&lt;/strong&gt; - цифровая среда для развития логики и мышления детей и взрослых. Мы помогаем провести время за экраном весело и с пользой.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Наши продукты:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;WEB платформа для детей 4-12 лет&lt;/li&gt; &lt;li&gt;App для детей 4-12 лет (iOS + Android)&lt;/li&gt; &lt;li&gt;App для взрослых (iOS + Android)&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;Месячная аудитория - 1 000 000 пользователей в 60 странах.&lt;/p&gt; &lt;p&gt;&lt;br /&gt;&lt;strong&gt;Кого мы ищем?&lt;/strong&gt;&lt;/p&gt; &lt;p&gt;Мы в поиске Data Engineer, который будет отвечать за подготовку данных, необходимых для эффективного принятия управленческих и продуктовых решений.&lt;/p&gt; &lt;p&gt;&lt;br /&gt;&lt;strong&gt;Зона ответственности:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Создание и обслуживание ELT процессов.&lt;/li&gt; &lt;li&gt;Обеспечение качества данных.&lt;/li&gt; &lt;li&gt;Создание и обслуживание инфраструктуры аналитики.&lt;/li&gt; &lt;li&gt;Оптимизация и обслуживание DWH.&lt;/li&gt; &lt;li&gt;Поддержка BI системы.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Наши ожидания:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Опыт работы в роли Data Engineer от 3 лет.&lt;/li&gt; &lt;li&gt;Уверенное владение SQL.&lt;/li&gt; &lt;li&gt;Опыт с ClickHouse.&lt;/li&gt; &lt;li&gt;Уверенное владение Python.&lt;/li&gt; &lt;li&gt;Опыт с Pandas.&lt;/li&gt; &lt;li&gt;Понимание и опыт организации ETL/ELT-процессов.&lt;/li&gt; &lt;li&gt;Опыт создания дашбордов в какой-либо BI.&lt;/li&gt; &lt;li&gt;Структурность и системность: умение находить наиболее эффективные решения, а не просто выполнять задачи.&lt;/li&gt; &lt;li&gt;Коммуникабельность: способность объяснить сложные вещи простым языком разным командам.&lt;/li&gt; &lt;li&gt;Готовность выполнить наше ТЗ.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Будет плюсом:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Знание и представления в области ML, предсказательные модели.&lt;/li&gt; &lt;li&gt;Опыт построения аналитической инфраструктуры с нуля.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;br /&gt;&lt;strong&gt;Мы предлагаем:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Международный и мульти-платформенный продукт, который имеет устойчивый рост (40% и более рост выручки год к году).&lt;/li&gt; &lt;li&gt;9 языковых локализаций уже выпущено и мы работаем над новыми.&lt;/li&gt; &lt;li&gt;Помощь команды и возможность постоянно прокачивать свою экспертизу.&lt;/li&gt; &lt;li&gt;Четкие и понятные KPI для работы.&lt;/li&gt; &lt;li&gt;Распределенная русскоговорящая команда из 40 человек. Можно работать из любой точки мира.&lt;/li&gt; &lt;/ul&gt; &lt;div&gt; &lt;/div&gt;</t>
+          <t>&lt;p&gt;&lt;strong&gt;Проект, в рамках которого ищем разработчика:&lt;/strong&gt;&lt;/p&gt; &lt;p&gt;Цифровая платформа для оценки качества звонков отдела продаж и службы поддержки клиентов, с использованием технологии машинного обучения. Данная платформа оптимизирует процесс контроля качества в компаниях за счет автоматизации оценки качества звонка, совершаемого специалистом по работе с клиентами&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Продукт и технология:&lt;/strong&gt;&lt;/p&gt; &lt;p&gt;&lt;em&gt;Цифровая платформа за счет использования технологии машинного обучения позволит:&lt;/em&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Провести качественный анализ 100% звонков, с целью отобрать для заказчика наиболее и наименее успешные звонки для экспертизы, что сократит время на выбор звонка&lt;/li&gt; &lt;li&gt;Сформировать замечания и рекомендации ответственному за контроль качества звонков с целью обучения специалистов по работе с клиентами, для улучшения конверсии&lt;/li&gt; &lt;li&gt;Сформировать рекомендации по мотивации сотрудников на основании наивысшего балла за соблюдения заявленных требований, что сделает мотивацию более прозрачной&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Ожидания от кандидата: &lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;Уверенное знание &lt;strong&gt;Python 3.8+&lt;/strong&gt;, опыт разработки с &lt;strong&gt;FastAPI&lt;/strong&gt;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Работа с &lt;strong&gt;SQLAlchemy&lt;/strong&gt; и &lt;strong&gt;Alembic&lt;/strong&gt;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Опыт с базами данных:&lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;&lt;strong&gt;PostgreSQL&lt;/strong&gt; — уверенное владение&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;&lt;strong&gt;MongoDB&lt;/strong&gt; — базовые навыки&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Опыт интеграции &lt;strong&gt;Celery&lt;/strong&gt; с брокерами (Redis/RabbitMQ)&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Знание &lt;strong&gt;gRPC&lt;/strong&gt; (создание и подключение сервисов)&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Асинхронное программирование (async/await, asyncio)&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Написание автотестов с &lt;strong&gt;pytest&lt;/strong&gt;, моки&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Чистый, понятный и документированный код&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;&lt;strong&gt;Ищем разработчика в команду для реализации задач в рамках разработки сервисов:&lt;/strong&gt;&lt;/strong&gt;&lt;/p&gt; &lt;ol&gt; &lt;li&gt;распознавания речи,&lt;/li&gt; &lt;li&gt;анализа текста,&lt;/li&gt; &lt;li&gt;синхронизации (Redis, PostgreSql)&lt;/li&gt; &lt;li&gt;формирования отчётов (Postgres)&lt;/li&gt; &lt;/ol&gt; &lt;p&gt;&lt;strong&gt;Пример задач: &lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;реализовать выгрузку из базы данных по заданным параметрам (PostgreSQL, MongoDB)&lt;/li&gt; &lt;li&gt;добавить endpoint для получения данных из битрикса24&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Будет вашим преимуществом:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;Знание &lt;strong&gt;LangChain&lt;/strong&gt;, &lt;strong&gt;OpenAI API&lt;/strong&gt;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Опыт с Docker / Docker Compose&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Навыки CI/CD (GitHub Actions и др.)&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Оплата&lt;/strong&gt;:&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Вознаграждение определяется исходя из пожеланий профессионала и наших возможностей&lt;/li&gt; &lt;li&gt;Предполагается фиксированная ежемесячная оплата (оклад) на время реализации проекта.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Предлагаемые с нашей стороны условия и возможности:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Удалённая работа&lt;/li&gt; &lt;li&gt;Возможен как полный, так и не полный рабочий день (график определяется по договоренности)&lt;/li&gt; &lt;li&gt;Персональное наставничество от профессионалов данной сферы с многолетним опытом&lt;/li&gt; &lt;li&gt;Возможность участия в уникальном стартап проекте сферы b2b&lt;/li&gt; &lt;li&gt;Возможность наработки опыта, портфолио работ (готовы рассмотреть разработчиков с небольшим опытом)&lt;/li&gt; &lt;li&gt;Возможность официального трудоустройства в рамках проекта и получения официального опыта разработки в компании&lt;/li&gt; &lt;/ul&gt;</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>[{'name': 'Apache Airflow'}, {'name': 'Clickhouse'}, {'name': 'Python'}, {'name': 'SQL'}]</t>
+          <t>[{'name': 'MongoDB'}, {'name': 'CI/CD'}, {'name': 'Python'}, {'name': 'PyTorch'}, {'name': 'RabbitMQ'}, {'name': 'PostgreSQL'}, {'name': 'Backend'}, {'name': 'Celery'}, {'name': 'FastAPI'}, {'name': 'pandas'}, {'name': 'Numpy'}, {'name': 'Docker'}, {'name': 'Git'}, {'name': 'Kubernetes'}, {'name': 'Postgres'}, {'name': 'Redis'}, {'name': 'LangChain'}, {'name': 'SQLAlchemy'}]</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>2025-04-01T15:20:58+0300</t>
+          <t>2025-05-03T18:12:31+0300</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>2025-04-01T15:20:58+0300</t>
+          <t>2025-05-03T18:12:31+0300</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>https://api.hh.ru/vacancies/118200069?host=hh.ru</t>
+          <t>https://api.hh.ru/vacancies/118915978?host=hh.ru</t>
         </is>
       </c>
     </row>
@@ -2792,12 +2768,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>119033675</t>
+          <t>118509308</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Python-разработчик (интеграционные решения)</t>
+          <t>Data Scientist в области языковых моделей (Junior)</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2812,33 +2788,33 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/119033675</t>
+          <t>https://hh.ru/vacancy/118509308</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>&lt;p&gt;&lt;strong&gt;О нас&lt;/strong&gt;&lt;/p&gt; &lt;p&gt;Мы - динамично развивающаяся финтех-компания, создающая инновационные решения на рынке финансовых технологий. Наша команда профессионалов ищет талантливого Python-разработчика для усиления технического направления по интеграциям.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Кого мы ищем&lt;/strong&gt;&lt;/p&gt; &lt;p&gt;Энергичного и целеустремлённого разработчика, который возьмет на себя ответственность за интеграционные решения, архитектуру и качество кода, а также оптимизацию и поддержку текущих проектов.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Обязанности:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;Разработка интеграций: Проектирование, разработка и поддержка модулей, обеспечивающих обмен данными между различными системами и сервисами.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Работа с базами данных: Проектирование схем, оптимизация запросов, обеспечение целостности данных при взаимодействии с реляционными (PostgreSQL, MySQL) базами данных&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;API-интеграция: Разработка RESTful сервисов с использованием FastAPI, включая аутентификацию, авторизацию и обработку ошибок.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Документация и code review: Создание технической документации, участие в code review и обмен опытом с коллегами.&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Требования:&lt;/strong&gt;&lt;/p&gt; &lt;p&gt;&lt;em&gt;&lt;strong&gt;Обязательные навыки:&lt;/strong&gt;&lt;/em&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;Python: от 1 года практического опыта, уверенное владение HTTP-библиотеками (requests, httpx), понимание асинхронного программирования&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;FastAPI: опыт создания RESTful API, реализации аутентификации (OAuth, JWT) и обработки ошибок&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Базы данных: практический опыт с PostgreSQL/MySQL и/или NoSQL (MongoDB, Redis)&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Интеграции: понимание принципов обмена данными (JSON, XML, REST, WebSocket), опыт тестирования API через Postman&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Архитектура: знание и применение принципов SOLID, DRY, KISS в реальных проектах&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Git и CI/CD: опыт работы с системами контроля версий и автоматизации сборки/тестирования&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Английский язык: уровень, достаточный для чтения технической документации&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;&lt;em&gt;Будет преимуществом:&lt;/em&gt;&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;Опыт работы с Docker и Docker Compose&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Знание брокеров сообщений (RabbitMQ, Kafka) и асинхронной обработки данных&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Опыт работы в финтех-проектах&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Понимание принципов безопасности при разработке API&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Что мы предлагаем&lt;/strong&gt;&lt;strong&gt;:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;Работу над интересными проектами в быстрорастущей финтех-компании&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Возможности для профессионального роста и внедрения современных технологий&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Дружный коллектив единомышленников&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Гибкий график и возможность удаленной работы&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Конкурентную заработную плату (обсуждается индивидуально на собеседовании)&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt;</t>
+          <t>&lt;p&gt;Мы, команда компании «ИНИТИ», предлагаем специалистам по профилю «Data Scientist в области языковых моделей (Junior)» присоединиться к числу своих сотрудников.&lt;/p&gt; &lt;p&gt;Компания состоит в реестре российских аккредитованных IT-компаний, что в числе прочего подразумевает под собой отсрочку от призыва на военную службу, а также льготную ипотеку.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Обязанности:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Сбор, предобработка и анализ текстовых данных для обучения моделей.&lt;/li&gt; &lt;li&gt;Помощь в дообучении языковых моделей (LLM) под специфические задачи компании.&lt;/li&gt; &lt;li&gt;Разработка пайплайнов для подготовки текстовых данных, включая очистку, токенизацию и создание пользовательских токенов.&lt;/li&gt; &lt;li&gt;Проведение экспериментов с различными моделями и конфигурациями для повышения качества.&lt;/li&gt; &lt;li&gt;Создание отчетов о результатах экспериментов.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Требования:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Опыт работы с текстовыми данными, включая предобработку&lt;/li&gt; &lt;li&gt;Уверенные знания Python, библиотек для работы с данными (pandas, numpy, matplotlib) и библиотек для обработки текста (transformers, Hugging Face).&lt;/li&gt; &lt;li&gt;Базовые знания методов машинного обучения&lt;/li&gt; &lt;li&gt;Знания классических и современных методов работы с текстовыми данными (например, TF-IDF, embeddings и т.п.).&lt;/li&gt; &lt;li&gt;Опыт работы с крупными текстовыми датасетами.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Приветствуется:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Опыт работы с языковыми моделями GPT, BERT или их аналогами.&lt;/li&gt; &lt;li&gt;Навыки разработки в распределенных системах обработки данных.&lt;/li&gt; &lt;li&gt;Знание современных подходов к обучению LLM.&lt;/li&gt; &lt;/ul&gt; &lt;strong&gt;Условия:&lt;/strong&gt; &lt;ul&gt; &lt;li&gt;оформление по ТК&lt;/li&gt; &lt;li&gt;удаленный режим работы&lt;/li&gt; &lt;li&gt;график работы (09:00-18:00) (сб, вс - выходные)&lt;/li&gt; &lt;li&gt;возможно согласование рабочего графика (смещение рабочего дня, перенос рабочего дня на выходной)&lt;/li&gt; &lt;li&gt;дополнительная неделя отпуска&lt;/li&gt; &lt;li&gt;испытательный срок 1-3 мес&lt;/li&gt; &lt;li&gt;начальный уровень з/п определяется, исходя из результатов собеседования&lt;/li&gt; &lt;/ul&gt;</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>[{'name': 'Python'}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t>2025-04-01T15:47:08+0300</t>
+          <t>2025-04-14T14:53:15+0300</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>2025-04-01T15:47:08+0300</t>
+          <t>2025-04-14T14:53:15+0300</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>https://api.hh.ru/vacancies/119033675?host=hh.ru</t>
+          <t>https://api.hh.ru/vacancies/118509308?host=hh.ru</t>
         </is>
       </c>
     </row>
@@ -2848,12 +2824,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>119044322</t>
+          <t>118274069</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>ML инженер</t>
+          <t>ML-инженер (NLP, LLM, STT, TTS)</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2868,33 +2844,33 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/119044322</t>
+          <t>https://hh.ru/vacancy/118274069</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>&lt;p&gt;&lt;strong&gt;&lt;em&gt;В связи с расширением команды приглашаем ML-разработчика на проект разработки ПО для защиты от распределенных сетевых атак (DDoS).&lt;/em&gt;&lt;/strong&gt;&lt;strong&gt;&lt;em&gt;Работа полностью удаленная, локация кандидата значения не имеет!&lt;/em&gt;&lt;/strong&gt;&lt;/p&gt; &lt;p&gt;&lt;strong&gt;&lt;em&gt;Чего мы ожидаем:&lt;/em&gt;&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Готовность вникать во все этапы разработки ПО - от анализа требований и задач, анализа данных, выбора алгоритмов до тестирования, интеграции и разворачивания ML-решений в существующую инфраструктуру и контроля их работы;&lt;/li&gt; &lt;li&gt;Самостоятельность, умение добиваться результата и решать возникающие проблемы и сложности;&lt;/li&gt; &lt;li&gt;Способность находить решения нетривиальных задач и желание обучаться новому.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;&lt;em&gt;Требования:&lt;/em&gt;&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Уверенные знания ML принципов, алгоритмов, методов и библиотек;&lt;/li&gt; &lt;li&gt;Практический опыт разработки и внедрения ML-решений (не менее 3 лет);&lt;/li&gt; &lt;li&gt;Опыт разработки на Python с использованием библиотек для работы с данными и классическим ML;&lt;/li&gt; &lt;li&gt;Опыт анализа и предобработки данных, проведения экспериментов;&lt;/li&gt; &lt;li&gt;Практический опыт разработки ПО под Linux и владение Git.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Будет преимуществом:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Знание языков программирования С/С++;&lt;/li&gt; &lt;li&gt;Опыт работы c Spark, PySpark, Apache Flink, Apache Storm;&lt;/li&gt; &lt;li&gt;Опыт работы с большими объемами данных, потоковыми данными и time-series;&lt;/li&gt; &lt;li&gt;Опыт работы с СУБД (Clickhouse, PostgreSQL и т.п.) и SQL.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;&lt;em&gt;Обязанности:&lt;/em&gt;&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Разработка программируемых (правила формирует человек) систем анализа и фильтрации действий пользователей;&lt;/li&gt; &lt;li&gt;Разработка самообучающихся автономных систем фильтрации данных: сбор, хранение, обработка, выявление закономерностей и формирование правил/моделей фильтрации данных;&lt;/li&gt; &lt;li&gt;Все вышеуказанное надо будет проектировать, воплощать в код и тестировать с измерением метрик.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Предлагаем:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Официальное трудоустройство в аккредитованной ИТ-компании;&lt;/li&gt; &lt;li&gt;Введение в должность (адаптация, обучение продукту, поддержка на всех этапах);&lt;/li&gt; &lt;li&gt;Возможность работать из любой точки мира. Нет ограничений по локации;&lt;/li&gt; &lt;li&gt;ДМС (стоматология + мед. услуги);&lt;/li&gt; &lt;li&gt;Оплата компанией занятий в языковой школе Skyeng;&lt;/li&gt; &lt;li&gt;Компенсация занятий спортом;&lt;/li&gt; &lt;li&gt;Отличные возможности для самореализации и карьерного роста;&lt;/li&gt; &lt;li&gt;Слаженные процессы и сильная, дружная команда;&lt;/li&gt; &lt;li&gt;Богатая корпоративная жизнь, совместные праздники, онлайн-встречи.&lt;/li&gt; &lt;/ul&gt;</t>
+          <t>&lt;p&gt;Мы находимся в поиске &lt;strong&gt;ML- инженера&lt;/strong&gt; на удаленный формат работы.&lt;/p&gt; &lt;p&gt;Работаем в сфере Информационной безопасности с 2015 года. Нашими клиентами являются банки, входящие в ТОП-10 России, организации из топливно-энергетического комплекса и многие другие компании федерального значения.&lt;/p&gt; &lt;p&gt;Сейчас в разработке находится новый интересный продукт - &lt;strong&gt;DAILO&lt;/strong&gt;. Это - интерактивный речевой тренажер для обучения, который позволяет развивать коммуникативные навыки: продажи, эффективные коммуникации с сотрудниками и коллегами, публичные выступления и многое другое.&lt;/p&gt; &lt;p&gt;В наших разработках мы используем новейшие ИИ-технологии, а также потоковое распознавание речи.&lt;/p&gt; &lt;p&gt;В 2023 году мы смогли доказать работоспособность наших перспективных методологий обучения и получили патент на изобретение&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Мы предлагаем:&lt;/strong&gt;&lt;/p&gt; &lt;p&gt;Стабильную белую конкурентную заработную плату&lt;/p&gt; &lt;p&gt;Оформление на работу по ТК РФ&lt;/p&gt; &lt;p&gt;Возможность решать интересные задачи, расширять свою экспертизу&lt;/p&gt; &lt;p&gt;Работу в профессиональной команде&lt;/p&gt; &lt;p&gt;Минимум бюрократии, гибкая настройка рабочего дня&lt;/p&gt; &lt;p&gt;ЗП от 150 000 на руки (по результатам собеседования)&lt;/p&gt; &lt;p&gt;&lt;strong&gt;О вакансии&lt;/strong&gt;:&lt;/p&gt; &lt;p&gt;Ищем увлеченного ML Engineer для работы над передовыми проектами в **NLP, LLM, STT и TTS**. Вы будете ключевым членом команды, занимаясь разработкой, развертыванием и оптимизацией ML-моделей для наших инновационных продуктов. Вакансия для тех, кто любит сложные задачи, исследования и видеть результат своей работы в реальном мире.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;**Чем предстоит заниматься:**&lt;/strong&gt;&lt;/p&gt; &lt;p&gt;* **Развертывание и эксплуатация ML-моделей:** Production-развертывание, мониторинг, масштабирование и обеспечение стабильной работы нейросетевых моделей (NLP, STT, TTS).&lt;/p&gt; &lt;p&gt;* **Разработка и доработка ML-решений:** Полный цикл разработки ML-решений, от прототипирования до внедрения и поддержки. Улучшение существующих и разработка новых решений.&lt;/p&gt; &lt;p&gt;* **Исследование и разработка новых моделей:** Самостоятельное изучение и адаптация новых инструментов, подходов и архитектур для NLP, STT, TTS.&lt;/p&gt; &lt;p&gt;* **Оптимизация производительности inference:** Повышение эффективности и скорости inference моделей.&lt;/p&gt; &lt;p&gt;* **Документирование ML-процессов:** Создание технической документации для обеспечения воспроизводимости и масштабируемости.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;**Что мы ждем от кандидата:**&lt;/strong&gt;&lt;/p&gt; &lt;p&gt;**Технические навыки и опыт:**&lt;/p&gt; &lt;p&gt;* **ML &amp;amp; AI Основы:** Глубокое понимание методов ML (обучение с учителем/без учителя/с подкреплением), NLP, глубокого обучения (CNN, RNN, Transformer и др.), оценка качества моделей.&lt;/p&gt; &lt;p&gt;* **NLP Модели:** Опыт работы с Transformer-based моделями (BERT, RoBERTa, T5 и др.), fine-tuning pre-trained моделей.&lt;/p&gt; &lt;p&gt;* **Аудио Модели:** Опыт работы с нейросетевыми моделями для работы с речью (STT, TTS, VAD, Diarization), включая современные архитектуры (Zipformer, Wav2Vec, Whisper, VITS и др.). Понимание принципов STT/TTS систем.&lt;/p&gt; &lt;p&gt;* **Python Программирование:** Экспертное знание Python, включая асинхронный код, фоновые задачи, очереди задач. Библиотеки: PyTorch (или TensorFlow), ONNX, Scikit-learn, Pandas, NumPy. Тестирование кода, Git, code review, CI/CD.&lt;/p&gt; &lt;p&gt;* **Inference-сервисы:** Опыт разработки и развертывания inference-сервисов с использованием фреймворков (FastAPI, vLLM, Sherpa-ONNX, TensorRT и др.). Понимание масштабируемости и отказоустойчивости.&lt;/p&gt; &lt;p&gt;* **Контейнеризация и оркестрация:** Docker (обязательно), Kubernetes (желательно).&lt;/p&gt; &lt;p&gt;**Решение проблем и аналитическое мышление:**&lt;/p&gt; &lt;p&gt;* Декомпозиция сложных задач на ML задачи.&lt;/p&gt; &lt;p&gt;* Выбор оптимального подхода к решению задач (ML или эвристики/статистика).&lt;/p&gt; &lt;p&gt;* Отладка и оптимизация inference моделей.&lt;/p&gt; &lt;p&gt;* Анализ результатов экспериментов и улучшение моделей.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;**Будет плюсом:**&lt;/strong&gt;&lt;/p&gt; &lt;p&gt;* MLOps: Управление жизненным циклом ML-моделей, автоматизация.&lt;/p&gt; &lt;p&gt;* ML-пайплайны: Построение и интеграция end-to-end пайплайнов.&lt;/p&gt; &lt;p&gt;* Оценка и мониторинг качества моделей: использование автоматизированных инструментов оценки качества моделей.&lt;/p&gt; &lt;p&gt;* LLM: Понимание принципов работы LLM, опыт inference, оптимизации, RAG.&lt;/p&gt; &lt;p&gt;* Векторные БД: Опыт работы с векторными базами данных для RAG.&lt;/p&gt; &lt;p&gt;* Мониторинг ML-систем: Использование Prometheus, Grafana, MLflow Monitoring.&lt;/p&gt; &lt;p&gt;* SQL и БД: Навыки SQL и опыт работы с базами данных.&lt;/p&gt; &lt;p&gt;* CI/CD: Настройка CI/CD для ML-приложений.&lt;/p&gt; &lt;p&gt;* Опыт оркестрации k8s ML сервиса&lt;/p&gt; &lt;p&gt;* Опыт работы с cuda+docker или cuda+docker+k8s&lt;/p&gt; &lt;p&gt;* Open Source: Участие в Open Source проектах по NLP/STT/TTS.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;**Обязательные навыки:**&lt;/strong&gt;&lt;/p&gt; &lt;p&gt;* Машинное обучение&lt;/p&gt; &lt;p&gt;* Python&lt;/p&gt; &lt;p&gt;* Docker&lt;/p&gt; &lt;p&gt;* Git&lt;/p&gt; &lt;p&gt;* Опыт работы с любой облачной платформой (Yandex Cloud, AWS, GCP, Azure)&lt;/p&gt; &lt;p&gt;***&lt;/p&gt; &lt;p&gt; &lt;/p&gt; &lt;p&gt; &lt;/p&gt; &lt;p&gt; &lt;/p&gt;</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>[{'name': 'Machine Learning'}, {'name': 'Обработка потоковых данных'}, {'name': 'Data Stream'}, {'name': 'Fraud'}, {'name': 'MLOps'}, {'name': 'Time Series Analysis'}, {'name': 'Kafka'}, {'name': 'Apache Kafka'}, {'name': 'PySpark'}, {'name': 'Apache Spark'}, {'name': 'High-Frequency Trading'}, {'name': 'HFT'}, {'name': 'Data Engineering'}, {'name': 'Анализ временных рядов'}, {'name': 'Противодействие мошенничеству'}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t>2025-04-02T00:21:42+0300</t>
+          <t>2025-04-03T07:48:42+0300</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>2025-04-02T00:21:42+0300</t>
+          <t>2025-04-03T07:48:42+0300</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>https://api.hh.ru/vacancies/119044322?host=hh.ru</t>
+          <t>https://api.hh.ru/vacancies/118274069?host=hh.ru</t>
         </is>
       </c>
     </row>
@@ -2904,12 +2880,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>118263442</t>
+          <t>118893048</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Python Developer</t>
+          <t>Разработчик Python (Groovy)</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2924,33 +2900,33 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/118263442</t>
+          <t>https://hh.ru/vacancy/118893048</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>&lt;p&gt;&lt;strong&gt;Instories&lt;/strong&gt; — один из лучших &lt;strong&gt;мобильных видеоредакторов&lt;/strong&gt; для маркетологов, SMM-специалистов и блогеров. Мы активно развиваемся на рынках Северной, Латинской Америки и Европы. Наше приложение имеет более 30 млн скачиваний и входит в топ-20 в категории Photo&amp;amp;Video в американском AppStore.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Наша миссия&lt;/strong&gt; — помогать креаторам и брендам создавать вовлекающий контент и зарабатывать с помощью него, способствовать развитию профессий в сфере создания контента.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Уже более 5 лет&lt;/strong&gt; мы предоставляем инструменты профессионального уровня, позволяя &lt;strong&gt;миллионам наших пользователей по всему миру &lt;/strong&gt;безгранично креативить и придавать индивидуальность своему контенту.&lt;/p&gt; &lt;p&gt;Мы работаем удаленно, а наши юридические лица расположены на Кипре, в Сербии и России.&lt;br /&gt;&lt;br /&gt;Мы ищем самостоятельного &lt;strong&gt;Backend Developer&lt;/strong&gt;&lt;strong&gt;, &lt;/strong&gt;перед которым будем стоять задача развивать Photo и Video Editor.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;О процессе разработки в Instories:&lt;/strong&gt;&lt;br /&gt;У нас есть несколько направлений разработки:&lt;/p&gt; &lt;ol&gt; &lt;li&gt;&lt;em&gt;Направления разработки клиентской части:&lt;/em&gt;&lt;br /&gt;◎ Разработка фичей на нативных платформах;&lt;br /&gt;◎ Разработка экспериментов;&lt;br /&gt;◎ RnD в сфере работы с графикой и оптимизацией приложения;&lt;br /&gt;◎ Инфраструктурные задачи для оптимизации процессов в компании;&lt;br /&gt;◎ Кросс-платформенное графическое ядро.&lt;/li&gt; &lt;li&gt;&lt;em&gt;Направления разработки серверной части:&lt;/em&gt;&lt;br /&gt;◎ Разработка server-side фичей для клиентской части;&lt;br /&gt;◎ Разработка инфраструктурных задач.&lt;/li&gt; &lt;/ol&gt; &lt;p&gt;&lt;strong&gt;А ещё:&lt;/strong&gt;&lt;br /&gt;◎ Используем последние стабильные версии языков, библиотек и фреймворков;&lt;br /&gt;◎ Еженедельно разбавляем производство новых фичей задачами по техдолгу и оптимизацией производства;&lt;br /&gt;◎ Создаём комфортные процессы под потребности разных команд;&lt;br /&gt;◎ Сохраняем баланс работы и отдыха.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Наш стек технологий включает:&lt;/strong&gt; Python; Django, django_rq, есть также микросервис на FastAPI; PostgreSQL, Redis; AWS (RDS, EC2, S3, CloudFront); GitHub, Jira.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Тебе предстоит:&lt;/strong&gt;&lt;br /&gt;◎ Написание нового и поддержка существующего кода;&lt;br /&gt;◎ Создание сложных и переиспользуемых архитектурных решений;&lt;br /&gt;◎ Активно развивать web версию instories.com и продуктовые flow для iOS/Android;&lt;br /&gt;◎ Разворачивать и тюнить решения на базе ML. Создавать внутреннюю инфраструктуру для ML;&lt;br /&gt;◎ Участвовать в развитие инфраструктуры на базе AWS, в том числе для ML.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Что для нас важно:&lt;/strong&gt;&lt;br /&gt;◎ Опыт работы на Python &lt;strong&gt;от 4 лет&lt;/strong&gt;;&lt;br /&gt;◎ Опыт работы с &lt;strong&gt;Django и FastAPI&lt;/strong&gt;;&lt;br /&gt;◎ Опыт работы с реляционными базами данных (PostgreSQL/ MySQL);&lt;br /&gt;◎ Опыт написания Unit тестов;&lt;br /&gt;◎ Интерес к работе с инфраструктурой.&lt;/p&gt; &lt;p&gt;&lt;em&gt;&lt;strong&gt;Будет плюсом:&lt;/strong&gt;&lt;/em&gt;&lt;br /&gt;◎ Опыт работы с AWS;&lt;br /&gt;◎ Опыт Redis, RabbitMQ плюс;&lt;br /&gt;◎ Понимание/взаимодействие с Datadog;&lt;br /&gt;◎ Опыт работы с инфраструктурой.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Как мы нанимаем?&lt;/strong&gt;&lt;br /&gt;Мы готовы оперативно выходить с оффером, если понимаем, что подходим друг другу. Наши этапы:&lt;br /&gt;1. Звонок-знакомство с HR;&lt;br /&gt;2. Техническое интервью с СТО;&lt;br /&gt;3. Cultural fit &amp;amp; Soft skills интервью с СТО и HR.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Почему мы?&lt;/strong&gt;&lt;br /&gt;◎ &lt;strong&gt;Инновационный продукт: &lt;/strong&gt;Instories работает с передовыми технологиями Gen AI и ML. Это уникальная возможность для тех, кто хочет быть в центре самых актуальных трендов в области AI и создавать инструменты, которые меняют правила игры в создании контента;&lt;br /&gt;◎ &lt;strong&gt;Международный успех:&lt;/strong&gt; Instories пользуется популярностью среди миллионов пользователей по всему миру, что открывает огромные возможности для роста;&lt;br /&gt;◎ &lt;strong&gt;Динамичная команда: &lt;/strong&gt;ты будешь работать в дружной и креативной среде с отлаженными, но гибкими бизнес-процессами, где ценится инициативность, сотрудничество и стремление к новым высотам.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Что ещё?&lt;/strong&gt;&lt;br /&gt;◎ &lt;strong&gt;Официальное оформление и конкурентоспособная зарплата: &lt;/strong&gt;на уровне топовых IT-компаний страны;&lt;br /&gt;◎ &lt;strong&gt;Удалённый формат: &lt;/strong&gt;полная занятость с возможностью работы из любой точки мира. Мы оплатим тебе коворкинг, если это необходимо;&lt;br /&gt;◎ &lt;strong&gt;Гибкий график: &lt;/strong&gt;ты сам выбираешь, когда начинать рабочий день, главное — не пропускать общекомандные созвоны;&lt;br /&gt;◎ &lt;strong&gt;Свобода в выборе отпуска: &lt;/strong&gt;ты сам решаешь, когда и сколько отдыхать, тебе будет доступно 3 дополнительных оплачиваемых дня к отпуску в год;&lt;br /&gt;◎ &lt;strong&gt;Профессиональное развитие:&lt;/strong&gt; 50%-оплата курсов, обучения и онлайн-конференций, регулярные Performance Review каждые полгода – ты сам влияешь на свой уровень дохода и зону ответственности;&lt;br /&gt;◎ &lt;strong&gt;Забота о здоровье:&lt;/strong&gt; ДМС со стоматологией после испытательного срока для проживающих в РФ, а также компенсация до 40% стоимости занятий с психологом через сервис Ясно;&lt;br /&gt;◎ &lt;strong&gt;Технологический All-inclusive: &lt;/strong&gt;предоставляем всю необходимую для работы технику, лицензии на ПО;&lt;br /&gt;◎ &lt;strong&gt;Возможность релокации в Сербию и на Кипр: &lt;/strong&gt;мы поможем с получением ВНЖ и официальным трудоустройством;&lt;br /&gt;◎ &lt;strong&gt;IT аккредитация в РФ.&lt;/strong&gt;&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Присоединяйся к нам, если ты:&lt;/strong&gt;&lt;br /&gt;◎ Хочешь быть частью быстрорастущего технологического стартапа с международными амбициями;&lt;br /&gt;◎ Готов работать с инновационным продуктом, который помогает миллионам пользователей создавать лучший контент;&lt;br /&gt;◎ Ценишь креативность, скорость и командную работу.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Наши истории начинаются с людей, и каждый из нас — это и есть Instories!&lt;/strong&gt;&lt;/p&gt;</t>
+          <t>&lt;p&gt;&lt;em&gt;Мы ведущий технологический партнер Счетной палаты Российской Федерации.&lt;br /&gt;АНО «Цифровой аудит» специализируется на внедрении инноваций в области Big Data и AI для создания надежных, эффективных и масштабируемых технологических решений.&lt;/em&gt;&lt;/p&gt; &lt;p&gt;&lt;br /&gt;&lt;strong&gt;Обязанности:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Реализация бизнес-правил и их тестирование на базе имеющегося low-code инструмента&lt;/li&gt; &lt;li&gt;Работа с базами данных: написание SQL запросов, в случае подключения к внешним сервисам – написание кода на Python или Groovy&lt;/li&gt; &lt;li&gt;Взаимодействие с экспертами/аналитиками по вопросам методологий бизнес-правил&lt;/li&gt; &lt;li&gt;Взаимодействие с дата-инженерами по вопросам получения данных&lt;/li&gt; &lt;li&gt;Взаимодействие с разработчиками/аналитиками смежных проектных команд&lt;/li&gt; &lt;li&gt;Консультирование и поддержка пользователей в зоне своих компетенций&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Требования:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Высшее ИТ/техническое/математическое образование&lt;/li&gt; &lt;li&gt;Навыки написания запросов на языке SQL базового уровня&lt;/li&gt; &lt;li&gt;Навыки программирования на языках Python/Groovy будет преимуществом&lt;/li&gt; &lt;li&gt;Навыки алгоритмизации&lt;/li&gt; &lt;li&gt;Понимание принципов работы программных продуктов по анализу данных и систем принятия решений будет преимуществом&lt;/li&gt; &lt;li&gt;Опыт работы с государственными органами или в области финансовых проверок и аудита будет преимуществом&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Условия:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;работа в it компании с большим потенциалом&lt;/li&gt; &lt;li&gt;прозрачная система мотивации, стабильная загрузка&lt;/li&gt; &lt;li&gt;оформление в соответствии с ТК РФ&lt;/li&gt; &lt;li&gt;дружный коллектив и лояльное внимательное руководство&lt;/li&gt; &lt;li&gt;разнообразный набор социальных льгот и гарантий&lt;/li&gt; &lt;li&gt;уровень заработной платы обсудим на собеседовании&lt;/li&gt; &lt;li&gt;график работы: пн-пт с 09:00 до 18:00ч.&lt;/li&gt; &lt;/ul&gt;</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>[{'name': 'Django Framework'}, {'name': 'Python'}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>2025-04-01T10:45:55+0300</t>
+          <t>2025-04-24T10:57:29+0300</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>2025-04-01T10:45:55+0300</t>
+          <t>2025-04-24T10:57:29+0300</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>https://api.hh.ru/vacancies/118263442?host=hh.ru</t>
+          <t>https://api.hh.ru/vacancies/118893048?host=hh.ru</t>
         </is>
       </c>
     </row>
@@ -2960,17 +2936,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>117929531</t>
+          <t>118695502</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Инженер данных (Data Engineer)</t>
+          <t>Python Developer</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Москва</t>
+          <t>Таганрог</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2980,33 +2956,33 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/117929531</t>
+          <t>https://hh.ru/vacancy/118695502</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>&lt;p&gt;&lt;strong&gt;AutoAllianse&lt;/strong&gt;&lt;strong&gt; &lt;/strong&gt;является надежным поставщиком оригинальных автозапчастей на рынке РФ. Решает комплексные задачи поставок автозапчастей, начиная от помощи в размещении заказа, заканчивая логистикой груза до склада клиента. Портфель брендов компании насчитывает более 50 контрактов с ведущими мировыми и российскими производителями автозапчастей.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Обязанности:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Проектирование и наполнение DWH на базе MS SQL Server.&lt;/li&gt; &lt;li&gt;Разработка и поддержка ETL-процессов с использованием SQL-скриптов и Python-скриптов.&lt;/li&gt; &lt;li&gt;Управление ETL-процессами через Airflow.&lt;/li&gt; &lt;li&gt;Интеграция данных из различных источников: MS SQL Server, внешние сайты, внутренние порталы.&lt;/li&gt; &lt;li&gt;Оптимизация производительности ETL-процессов и запросов к DWH.&lt;/li&gt; &lt;li&gt;Обеспечение качества данных и мониторинг ETL-процессов.&lt;/li&gt; &lt;li&gt;Взаимодействие с командой аналитиков в рамках создания витрин данных для Power BI&lt;/li&gt; &lt;li&gt;Разработка и поддержка сервисов сбора и предоставления данных. Сервисы на Python.&lt;/li&gt; &lt;li&gt;Анализ текущих алгоритмов ценообразования, поиск точек роста, ad hoc аналитика.&lt;/li&gt; &lt;/ul&gt; &lt;strong&gt;Требования:&lt;/strong&gt; &lt;ul&gt; &lt;li&gt;Высшее образование&lt;/li&gt; &lt;li&gt;Опыт работы 3-6 лет на позиции data engineer&lt;/li&gt; &lt;li&gt;Опыт работы с MS SQL Server и знание T-SQL.&lt;/li&gt; &lt;li&gt;Умение разрабатывать ETL-процессы с использованием SQL и Python.&lt;/li&gt; &lt;li&gt;Опыт работы с Airflow для оркестрации ETL-процессов.&lt;/li&gt; &lt;li&gt;Знание принципов проектирования DWH (Star Schema, Snowflake Schema).&lt;/li&gt; &lt;/ul&gt; &lt;strong&gt;Условия:&lt;/strong&gt; &lt;ul&gt; &lt;li&gt;Достойный уровень дохода - готовы обсуждать пожелания кандидата;&lt;/li&gt; &lt;li&gt;Работа в успешной стабильной компании;&lt;/li&gt; &lt;li&gt;Полностью белая заработная плата, полный соц. пакет;&lt;/li&gt; &lt;li&gt;ДМС после испытательного срока&lt;/li&gt; &lt;li&gt;График работы с 09-00 до 18-00; офис/гибрид/удаленный формат.&lt;/li&gt; &lt;/ul&gt;</t>
+          <t>&lt;p&gt;&lt;strong&gt;Кто мы?&lt;/strong&gt;&lt;/p&gt; &lt;p&gt;&lt;em&gt;&lt;strong&gt;Мы - IT-компания A2SEVEN&lt;/strong&gt;&lt;/em&gt;,&lt;strong&gt; &lt;/strong&gt;существующая на рынке уже 14 лет. За это время нами было запущено свыше 30 стартапов и сделано 62 B2B проекта&lt;strong&gt;!&lt;/strong&gt;&lt;/p&gt; &lt;p&gt;&lt;strong&gt;&lt;em&gt;Наш главный принцип - “Нам не все равно!”.&lt;/em&gt; &lt;/strong&gt;Мы не просто делаем поставленные задачи, а являемся надежным техническим партнером для своих клиентов, берем на себя ответственность за результат.&lt;br /&gt;&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Кто нам нужен?&lt;/strong&gt;&lt;/p&gt; &lt;p&gt;Мы ищем специалиста разработки бэкенд приложений на Python с опытом от 3-х лет для работы на аутсорс-проекте в сфере E-commerce.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Чем предстоит заниматься:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;Участие в построении архитектуры приложений, баз данных и разработке решений;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Создавать новую функциональность и оптимизировать ее;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Предоставление оценки трудоемкости реализации задач по предоставленным бизнес требованиям;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Развитие технологического стека и инфраструктурных компонентов;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Проведение code review команды;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Создание внутренних инструментов и стандартов для улучшения процессов разработки (контроль качества кода, соблюдение принятых подходов к разработке, CI/CD).&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Требования:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;Опыт коммерческой разработки на Python;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Опыт работы с FastAPI;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Опыт работы с RabbitMQ/Kafka.&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Опыт работы с PostgreSQL, уверенное владение языком запросов, основы проектирования БД, понимание транзакций;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Умение работать с платежными системами;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Опыт написания тестов;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Уверенное знание ООП;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Знание паттернов проектирования и опыт их прикладного применения;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Умение писать поддерживаемый читаемый код;&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;Умение работать в команде.&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Будет преимуществом:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;Опыт работы над сложными E-commerce проектами.&lt;br /&gt;&lt;br /&gt;&lt;strong&gt;Что мы предлагаем?&lt;/strong&gt;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Трудоустройство по ТК РФ, гибкий график с возможностью работать удаленно;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Система онбординга с тимлидом и регламентированные процессы для легкой адаптации и постепенного включения в работу;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Performance review каждые 6 месяцев для определения твоих навыков и выстраивания индивидуального плана развития;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Возможность карьерного и профессионального роста: ты можешь развивать свои навыки, охватывать и внедрять новые методы и технологии, а также расти как управленец;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Прозрачность: проведение регулярных отчетов о проделанной работе всех отделов компании каждые две недели;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Компетентная команда специалистов: регулярно проходим обучения, анализируем текущую работу и постоянно совершенствуем процессы;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Пишем статьи, участвуем в конференциях, митапах, квизах, тимбилдингах, съемках экспертных и развлекательных видео и участвуем в других активностях компании: это учитывается и поощряется с помощью разработанной нами системой геймификации;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Минимум бюрократии - максимум работы.&lt;br /&gt;&lt;br /&gt;&lt;em&gt;&lt;strong&gt;Пиши, чтобы обсудить все детали и условия!&lt;/strong&gt;&lt;/em&gt;&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt;</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'name': 'Python'}, {'name': 'FastAPI'}, {'name': 'PostgreSQL'}, {'name': 'ORACLE'}, {'name': 'Git'}, {'name': 'Backend'}, {'name': 'SQL'}, {'name': 'RabbitMQ'}, {'name': 'Apache Kafka'}]</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>2025-03-31T10:08:17+0300</t>
+          <t>2025-03-24T10:12:52+0300</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>2025-03-31T10:08:17+0300</t>
+          <t>2025-03-24T10:12:52+0300</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>https://api.hh.ru/vacancies/117929531?host=hh.ru</t>
+          <t>https://api.hh.ru/vacancies/118695502?host=hh.ru</t>
         </is>
       </c>
     </row>
@@ -3016,17 +2992,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>117942969</t>
+          <t>118572837</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Python разработчик (junior+/middle)</t>
+          <t>Junior+ Python Developer</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Москва</t>
+          <t>Санкт-Петербург</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -3036,33 +3012,33 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/117942969</t>
+          <t>https://hh.ru/vacancy/118572837</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>&lt;p&gt;&lt;strong&gt;Привет!&lt;/strong&gt;&lt;br /&gt;&lt;strong&gt;Мы — партнёры самой большой IT-компании в России и создатели собственного продукта.&lt;/strong&gt;&lt;/p&gt; &lt;p&gt;В числе наших ребят тестировщики, аналитики-консультанты, архитекторы и разработчики.&lt;/p&gt; &lt;p&gt;Мы расширяем команду и &lt;strong&gt;ищем backend разработчика на python.&lt;/strong&gt;&lt;/p&gt; &lt;p&gt;&lt;strong&gt;О проекте:&lt;/strong&gt; мы разрабатываем сервис отправки коммуникаций для b2b компаний. Сервис уже умеет отправлять пуши, email, смс, сообщения в мессенджеры; написан на Python. Также мы используем Temporal как современный бэк для управления очередями и нагрузкой.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Что мы предлагаем:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Работа с крупной Российской IT-компанией;&lt;/li&gt; &lt;li&gt;Возможность роста и обмена опытом в комфортной атмосфере и с командой профессионалов;&lt;/li&gt; &lt;li&gt;Оформление по ТК РФ или по другим форматам сотрудничества;&lt;/li&gt; &lt;li&gt;Полностью удаленный формат работы, а если ты в Москве - можно иногда приезжать в офис;&lt;/li&gt; &lt;li&gt;Качественный онбординг в первые три месяца и поддержка команды на постоянной основе;&lt;/li&gt; &lt;li&gt;График работы 10-19 ч. по Мск времени;&lt;/li&gt; &lt;li&gt;Понятная и прозрачная система развития и роста по грейдам;&lt;/li&gt; &lt;li&gt;Оплата уроков английского языка в Skyeng;&lt;/li&gt; &lt;li&gt;Участие в проектах, которыми пользуются миллионы людей.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Какой опыт мы ищем:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;Опыт коммерческой разработки от 2 лет;&lt;/p&gt; &lt;/li&gt; &lt;li&gt;Высшее образование в области информационных технологий;&lt;/li&gt; &lt;li&gt;Опыт работы с Python3 (asyncio), SQL, PostgreSQL, FastAPI, Redis, RabbitMQ;&lt;/li&gt; &lt;li&gt;Разрабатывал(а) распределённые системы и знаком(а) с микросервисной архитектурой;&lt;/li&gt; &lt;li&gt;Опыт работы с проектами, построенными на асинхронной архитектуре;&lt;/li&gt; &lt;li&gt;Настройки конфигурации проекта CI, Docker;&lt;/li&gt; &lt;li&gt;Понимание протоколов (HTTP, Rest, Soap, Odata);&lt;/li&gt; &lt;li&gt;Elastic search + mongodb (либо аналоги);&lt;/li&gt; &lt;li&gt;Стремишься глубоко погружаться в продукт, над которым работаешь;&lt;/li&gt; &lt;li&gt;Знаком(а) с Agile, Scrum и Kanban.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Задачи:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Проработка архитектуры высоконагруженного сервиса согласно требованиям к продукту;&lt;/li&gt; &lt;li&gt;Разработка ключевых элементов продукта;&lt;/li&gt; &lt;li&gt;Взаимодействие с владельцем продукта и другими техническими командами;&lt;/li&gt; &lt;li&gt;Презентация технических решений менеджменту.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Будем рады знакомству! Присылайте ссылку на ваш телеграм вместе с откликом - так мы сможем оперативно договориться о встрече.&lt;/strong&gt;&lt;/p&gt;</t>
+          <t>&lt;p&gt;&lt;strong&gt;We are Buzz.ai (Divo.ai)&lt;/strong&gt;&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Buzz&lt;/strong&gt; is a rapidly-scaling SaaS company in the Sales Engagement space. We’ve grown incredibly quickly to 7000+ clients and 40+ employees in Belgrade - SRB, Saint Petersburg - &lt;em&gt;RU&lt;/em&gt;, Toronto - CA offices.&lt;/p&gt; &lt;p&gt; &lt;/p&gt; &lt;p&gt;&lt;strong&gt;Обязанности:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;Разработка и поддержка основного функционала платформа системы;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Разработка и обслуживание интеграций с внешними бизнес партнерами, приложениями и сервисами;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Участие в улучшении процесса разработки, анализ и внедрение новых подходов и инструментов.&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Требования:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;Опыт коммерческой разработки от 1 года;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Уверенное знание и опыт работы с Python/Flask;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;No-SQL (MongoDB);&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Опыт с системами контроля версий (git);&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Опыт работы с Celery/Redis;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Понимание HTTP / HTTPS и основ современного веба;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Опыт написания data scrapers и тестов на pytest.&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Условия:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;p&gt;Удаленный формат работы;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Интересные и живые проекты, нестандартные задачи, возможность влиять на продукт;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Низкий уровень бюрократии и контроля;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Дружная команда, которая поддержит тебя и поможет влиться в проект.&lt;/p&gt; &lt;/li&gt; &lt;/ul&gt;</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>[{'name': 'Python'}, {'name': 'Redis'}, {'name': 'SQL'}, {'name': 'PostgreSQL'}, {'name': 'API'}, {'name': 'Elasticsearch'}, {'name': 'RabbitMQ'}, {'name': 'HTML'}, {'name': 'Docker'}, {'name': 'Agile'}]</t>
+          <t>[{'name': 'Python'}, {'name': 'Git'}, {'name': 'Flask'}, {'name': 'MongoDB'}, {'name': 'NoSQL'}, {'name': 'Redis'}, {'name': 'Celery'}, {'name': 'API'}, {'name': 'Web Application Development'}, {'name': 'Английский язык'}, {'name': 'Gunicorn'}]</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>2025-03-31T13:04:25+0300</t>
+          <t>2025-03-19T18:47:47+0300</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>2025-03-31T13:04:25+0300</t>
+          <t>2025-03-19T18:47:47+0300</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>https://api.hh.ru/vacancies/117942969?host=hh.ru</t>
+          <t>https://api.hh.ru/vacancies/118572837?host=hh.ru</t>
         </is>
       </c>
     </row>
@@ -3072,12 +3048,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>118975427</t>
+          <t>118783196</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Python разработчик Middle/Middle+</t>
+          <t>Старший Python разработчик</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -3092,33 +3068,33 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/118975427</t>
+          <t>https://hh.ru/vacancy/118783196</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>&lt;p&gt;&lt;strong&gt;«Главный радиочастотный центр»&lt;/strong&gt; — это многопрофильное предприятие с уникальным опытом в области развития инфокоммуникационных технологий. Наши специалисты занимаются экспертизой электромагнитной совместимости для всех технологий связи, которые используют радиочастотный спектр, и созданием ИТ-систем федерального значения.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Обязанности:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Анализ программного кода на соответствие требованиям по читаемости и производительности;&lt;/li&gt; &lt;li&gt;Внесение изменений в программный код и проверка его работоспособности;&lt;/li&gt; &lt;li&gt;Оценка времени и трудоёмкости реализации требований к программному обеспечению;&lt;/li&gt; &lt;li&gt;Разработка программного кода;&lt;/li&gt; &lt;li&gt;Подготовка тестовых наборов данных в соответствии с выбранной методикой;&lt;/li&gt; &lt;li&gt;Рефакторинг и оптимизация кода;&lt;/li&gt; &lt;li&gt;Работа с системой контроля версий;&lt;/li&gt; &lt;li&gt;Проверка работоспособности программного продукта;&lt;/li&gt; &lt;li&gt;Проектирование структур данных;&lt;/li&gt; &lt;li&gt;проектирование программных сервисов;&lt;/li&gt; &lt;li&gt;Разработка и документирование программных сервисов;&lt;/li&gt; &lt;li&gt;Разработка процедур проверки работоспособности программного обеспечения.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Требования:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Высшее техническое образование;&lt;/li&gt; &lt;li&gt;Разработка сервисов и приложений на Python с использованием фреймворка FastAPI (или аналогичных) промышленных приложений минимум от 2 лет;&lt;/li&gt; &lt;li&gt;Умение писать SQL или ORM запросы;&lt;/li&gt; &lt;li&gt;Опыт работы с Docker, Git, PosgreSQL, RabbitMQ, Redis;&lt;/li&gt; &lt;li&gt;Продвинутые знания в области математики.&lt;/li&gt; &lt;/ul&gt; &lt;strong&gt;Условия:&lt;/strong&gt; &lt;ul&gt; &lt;li&gt;Оформление по ТК РФ, 100% белая заработная плата;&lt;/li&gt; &lt;li&gt;График работы 5/2 с 8:30-17:30, пятница – сокращенный день до 16:15, гибрид или удаленка;&lt;/li&gt; &lt;li&gt;Забота о здоровье сотрудников:&lt;br /&gt;- Добровольное медицинское страхование (после 3 месяцев работы);&lt;br /&gt;- Скидки по ДМС для родственников сотрудника;&lt;br /&gt;- Скидки на стоматологию;&lt;br /&gt;- Полис для выезжающих за границу.&lt;/li&gt; &lt;li&gt;Материальные бонусы:&lt;br /&gt;- Годовая премия;&lt;br /&gt;- Дополнительные выплаты к отпуску;&lt;br /&gt;- Материальная помощь при рождении детей и к другим значимым событиям в жизни сотрудника;&lt;br /&gt;- Материальная помощь в сложных жизненных ситуациях.&lt;/li&gt; &lt;li&gt;Забота о развитии:&lt;br /&gt;- Внешнее обучение за счет работодателя;&lt;br /&gt;- Внутреннее обучение: СДО, тренинги.&lt;/li&gt; &lt;li&gt;Корпоративные мероприятия, подарки для детей.&lt;/li&gt; &lt;/ul&gt;</t>
+          <t>&lt;p&gt;&lt;strong&gt;EnjoyPRO &lt;/strong&gt;– это команда экспертов в области высоких технологий и разработки программного обеспечения.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Проекты: &lt;/strong&gt;&lt;/p&gt; &lt;p&gt;1. Автоматизация крупной сети продуктовых магазинов.&lt;/p&gt; &lt;p&gt;2. Банковский проект.&lt;/p&gt; &lt;p&gt;3. Проект по документообороту.&lt;br /&gt;&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Вам предстоит:&lt;/strong&gt;&lt;/p&gt; &lt;p&gt;— Командная web-разработка; &lt;/p&gt; &lt;p&gt;— Участие в проектировании архитектуры приложений и моделей данных; &lt;/p&gt; &lt;p&gt;— Интеграция с внешними и внутренними API. &lt;/p&gt; &lt;p&gt;— Поддержка реализованного функционала; &lt;/p&gt; &lt;p&gt;— Оптимизация сервисов под высокие нагрузки; &lt;/p&gt; &lt;p&gt;— Сопровождение и документирование написанного кода; &lt;/p&gt; &lt;p&gt;— Code-review.&lt;/p&gt; &lt;p&gt; &lt;/p&gt; &lt;p&gt;&lt;strong&gt;Мы ожидаем от Вас:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Уверенное владение Python (версии 3+) от 4 лет опыта;&lt;/li&gt; &lt;li&gt;Отличное знание библиотек requsts, scapy;&lt;/li&gt; &lt;li&gt;Опыт работы с веб-фреймворками (Django, Flask или FastAPI);&lt;/li&gt; &lt;li&gt;Знание и опыт работы с реляционными базами данных (PostgreSQL, MySQL) и/или NoSQL базами данных (MongoDB, Redis);&lt;/li&gt; &lt;li&gt;Опыт написания и поддержки RESTful API;&lt;/li&gt; &lt;li&gt;Опыт работы с KAFKA;&lt;/li&gt; &lt;li&gt;Опыт работы с Linux;&lt;/li&gt; &lt;li&gt;Знание принципов объектно-ориентированного программирования и паттернов проектирования;&lt;/li&gt; &lt;li&gt;Опыт написания тестов и работы с фреймворками для тестирования (pytest, unittest).&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Будет плюсом опыт работы :&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Опыт работы в технического лидера будет плюсом.&lt;/li&gt; &lt;li&gt;Опыт работы с Docker и системами контейнеризации;&lt;/li&gt; &lt;li&gt;Понимание принципов CI/CD;&lt;/li&gt; &lt;li&gt;Базовые знания front-end технологий (HTML, CSS, JavaScript);&lt;/li&gt; &lt;li&gt;Опыт работы в команде пентеста (Red Team).&lt;/li&gt; &lt;/ul&gt; &lt;p&gt; &lt;/p&gt; &lt;p&gt;&lt;strong&gt;Мы готовы предложить:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Удаленная работа;&lt;/li&gt; &lt;li&gt;График работы 5/2 с гибким началом рабочего дня;&lt;/li&gt; &lt;li&gt;Оформление на выбор - ТК РФ (Аккредитованная ИТ Компания), ИП, Самозанятость;&lt;/li&gt; &lt;li&gt;Амбициозные проекты, интересные с профессиональной точки зрения задачи;&lt;/li&gt; &lt;li&gt;Широкий технологический стек;&lt;/li&gt; &lt;li&gt;Возможность профессионального и карьерного роста - в динамично развивающейся компании.&lt;br /&gt;&lt;br /&gt;&lt;strong&gt;Ждём тебя в нашей команде!&lt;/strong&gt;&lt;/li&gt; &lt;/ul&gt; &lt;p&gt; &lt;/p&gt;</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>[{'name': 'Python'}, {'name': 'PostgreSQL'}, {'name': 'Git'}, {'name': 'RabbitMQ'}, {'name': 'Redis'}, {'name': 'Docker'}, {'name': 'FastAPI'}]</t>
+          <t>[{'name': 'Linux'}, {'name': 'Python'}, {'name': 'SQL'}, {'name': 'Docker'}, {'name': 'PostgreSQL'}, {'name': 'REST API'}, {'name': 'Django Rest Framework'}, {'name': 'FastAPI'}, {'name': 'Django Framework'}, {'name': 'SQLAlchemy'}, {'name': 'Микросервисная архитектура'}]</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>2025-03-31T13:51:17+0300</t>
+          <t>2025-05-06T17:51:24+0300</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>2025-03-31T13:51:17+0300</t>
+          <t>2025-05-06T17:51:24+0300</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>https://api.hh.ru/vacancies/118975427?host=hh.ru</t>
+          <t>https://api.hh.ru/vacancies/118783196?host=hh.ru</t>
         </is>
       </c>
     </row>
@@ -3128,17 +3104,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>118463917</t>
+          <t>118726725</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Архитектор в команду "Биллинг"</t>
+          <t>Аналитик данных/СlickHouse DBA</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Москва</t>
+          <t>Санкт-Петербург</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -3148,33 +3124,33 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/118463917</t>
+          <t>https://hh.ru/vacancy/118726725</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>&lt;p&gt;Привет, мы команда разработки биллинга НН.&lt;/p&gt; &lt;p&gt;Сейчас биллингом в НН мы называем все, что связанно опытом клиента после покупки услуг на сайте НН. Важно что бы после покупки услуг для клиента были прозрачны траты этих услуг, он получил все необходимые документы о тратах и его могли бы корректно обслужить в случае возникновения вопросов по ходу его работы с сайтом.&lt;/p&gt; &lt;p&gt;По этой причине биллинг является платформенной командой которая предоставляет возможность продавать все текущие и новые продукты НН. Сейчас у компании есть запрос на активное расширение кол-ва продуктов для выхода в новые сегменты рынка труда, для нас это означает что мы должны уметь быстро и качественно запускать и обслуживать новые продукты и расти по нагрузке в старых.&lt;/p&gt; &lt;p&gt;Для нас это является сложным вызовом и глобальной задачей на перестройку биллинга. Сейчас мы уже во многом развязали сильную связность платформы с другими частями НН. Мы подготовили новую архитектуру и начали двигаться в сторону ее реализации.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Чем предстоит заниматься:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Участие в формировании технической стратегии юнита. &lt;/li&gt; &lt;li&gt;Получение запросов от продакта и вписывание его в целевую архитектуру продукта. &lt;/li&gt; &lt;li&gt;Проектирование архитектурных решений, составление и защита дизайн-документации.&lt;/li&gt; &lt;li&gt;Демо архитектурных решений для команд и заказчиков.&lt;/li&gt; &lt;li&gt;Разрешение всех технических развилок в рамках ADR.&lt;/li&gt; &lt;li&gt;Работа с другими архитекторами юнитов в рамках кросскомандных проектов.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Требования:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;5–10 лет опыта в разработке программного обеспечения, включая участие в сложных проектах.&lt;/li&gt; &lt;li&gt;1–3 года опыта на позиции архитектора, ведущего разработчика или технического лидера, ответственного за проектирование и внедрение решений.&lt;/li&gt; &lt;li&gt;Опыт проектирования масштабируемых, отказоустойчивых и безопасных систем.&lt;/li&gt; &lt;li&gt;Знание архитектурных подходов: микросервисы, монолит, SOA (сервис-ориентированная архитектура), Serverless.&lt;/li&gt; &lt;li&gt; Владение одним из языков программирования: Java, C#, Python, Go,&lt;/li&gt; &lt;li&gt; Понимание контейнеризации (Docker, Kubernetes) и оркестрации.&lt;/li&gt; &lt;li&gt; Опыт работы с реляционными (PostgreSQL, MySQL) и NoSQL (MongoDB, Cassandra) базами данных.&lt;/li&gt; &lt;li&gt; Знание принципов кэширования (Redis, Memcached).&lt;/li&gt; &lt;li&gt; Опыт проектирования API (REST, GraphQL, gRPC).&lt;/li&gt; &lt;li&gt; Интеграция с внешними системами и legacy-приложениями.&lt;/li&gt; &lt;li&gt; Опыт работы с полным жизненным циклом разработки ПО: от анализа требований до внедрения, тестирования и поддержки.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Мы предлагаем:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Удобное светлое рабочее место, со всем необходимым для работы.&lt;/li&gt; &lt;li&gt;«Белую» заработную плату, выплачиваемую точно в срок.&lt;/li&gt; &lt;li&gt;Гибкий или удаленный график работы (забыть про утренние пробки — это бесценно).&lt;/li&gt; &lt;li&gt;Хороший тренажерный зал в офисе и душ при нем. А также занятия йогой, настольный теннис и кикер.&lt;/li&gt; &lt;li&gt;Кофе в кофемашинах, чай, печенье, фрукты на кухне.&lt;/li&gt; &lt;li&gt;Корпоративный ДМС (решаем вопросы со здоровьем быстро и удобно).&lt;/li&gt; &lt;li&gt;Из другого региона? Поможем с возмещением расходов на переезд.&lt;/li&gt; &lt;li&gt;Если вам есть, что рассказать и чему научить, или хочется поучиться, — мы даём возможность участвовать (и как слушатель, и как тренер) в специализированных конференциях и внутренних семинарах, в т.ч. в Школе программистов&lt;/li&gt; &lt;/ul&gt;</t>
+          <t>&lt;p&gt;&lt;strong&gt;Pixel Sky &lt;/strong&gt;- занимается разработкой мобильных, консольных и компьютерных игр. Наша распределенная команда работает из разных городов России и ближайшего зарубежья.&lt;/p&gt; &lt;p&gt;В связи с активным развитием, наша компания объявляет конкурс на место&lt;strong&gt; &amp;quot;Аналитик данных/ ClickHouse DBA&amp;quot;.&lt;/strong&gt;&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Требования:&lt;/strong&gt;&lt;/p&gt; &lt;ol&gt; &lt;li&gt; &lt;p&gt;Уверенный опыт работы с СlickHouse. Понимание различных движков таблиц (MergeTree, ReplacingMergeTree и т.д.);&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Знание SQL;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Опыт работы с Materialized View;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Наличие высшего технического образования;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Знание ключевых метрик мобильных игр и принципов монетизации;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Внимательность к деталям, умение систематизировать полученную информацию и делать выводы.&lt;/p&gt; &lt;/li&gt; &lt;/ol&gt; &lt;p&gt;&lt;strong&gt;Приветствуется:&lt;/strong&gt;&lt;/p&gt; &lt;ol&gt; &lt;li&gt; &lt;p&gt;Знание R/Python (numpy, pandas, scipy, matplotlib);&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Опыт работы на аналогичной должности;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Опыт работы в геймдеве.&lt;/p&gt; &lt;/li&gt; &lt;/ol&gt; &lt;p&gt;&lt;strong&gt;Чем предстоит заниматься:&lt;/strong&gt;&lt;/p&gt; &lt;ol&gt; &lt;li&gt; &lt;p&gt;Анализ игрового баланса, поведения игроков и общего состояния экономики продукта (онлайн-шутер);&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Настройка ClickHouse;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Оптимизация запросов и нагрузки на сервер, организация потоков данных;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Оценка нового контента/механик/правок;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Участие в разработке условий проведения АБ тестирования и интерпретации результатов;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Построение статистических отчётов по отдельным аспектам игры по требованию гейм-дизайнера;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Создание/поддержка дашбордов;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Поиск точек роста.&lt;/p&gt; &lt;/li&gt; &lt;/ol&gt; &lt;p&gt;&lt;strong&gt;Условия работы:&lt;/strong&gt;&lt;/p&gt; &lt;ol&gt; &lt;li&gt; &lt;p&gt;Удаленная работа full-time;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Гибкий рабочий график;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Оплата отпускных, больничных, праздников;&lt;/p&gt; &lt;/li&gt; &lt;li&gt; &lt;p&gt;Молодой творческий коллектив.&lt;/p&gt; &lt;/li&gt; &lt;/ol&gt;</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>[{'name': 'Java'}, {'name': 'Архитектор'}, {'name': 'Микросервисная архитектура'}]</t>
+          <t>[{'name': 'Clickhouse'}, {'name': 'A/B тесты'}, {'name': 'Математическая статистика'}, {'name': 'Формирование аналитической отчетности'}]</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>2025-04-01T13:20:50+0300</t>
+          <t>2025-04-20T16:05:37+0300</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>2025-04-01T13:20:50+0300</t>
+          <t>2025-04-20T16:05:37+0300</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>https://api.hh.ru/vacancies/118463917?host=hh.ru</t>
+          <t>https://api.hh.ru/vacancies/118726725?host=hh.ru</t>
         </is>
       </c>
     </row>
@@ -3184,12 +3160,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>118833565</t>
+          <t>118252355</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Python-разработчик</t>
+          <t>Middle/Senior Python разработчик (Django/Golang)</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -3204,33 +3180,33 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/118833565</t>
+          <t>https://hh.ru/vacancy/118252355</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>&lt;p&gt;&lt;strong&gt;Мы – небольшая команда, создающая B2С продукты с подписочной механикой в сфере Affiliate Marketing. В апреле запускаем новое направление в США: мобильные приложение AdBlock для мобильных платформ, сайт приложения, посадочные страницы, система трекинга трафика и эквайрингом.&lt;/strong&gt;&lt;/p&gt; &lt;p&gt;&lt;strong&gt;В нашу команду мы приглашаем опытного Python-разработчика, который будет развивать backend-инфраструктуру продуктов компании. Мы ищем специалиста с глубокой экспертизой в Python, микросервисной архитектуре и современном backend-стеке.&lt;/strong&gt;&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Что предстоит делать:&lt;/strong&gt;&lt;/p&gt; &lt;p&gt;- Разрабатывать и сопровождать backend-приложения и сервисы на Python 3 с использованием FastAPI и Django&lt;/p&gt; &lt;p&gt;- Проектировать архитектуру с упором на микросервисный подход, обеспечивая масштабируемость и отказоустойчивость&lt;/p&gt; &lt;p&gt;- Разрабатывать и оптимизировать backend-сервисы для автоматизации бизнес-процессов и API-интеграций&lt;/p&gt; &lt;p&gt;- Работать с PostgreSQL, писать оптимизированные SQL-запросы&lt;/p&gt; &lt;p&gt;- Участвовать в полном цикле разработки: от изучения предметной области до релизов и сопровождения&lt;/p&gt; &lt;p&gt;- Писать модульные и интеграционные тесты (используем pytest)&lt;/p&gt; &lt;p&gt;- Использовать Docker для контейнеризации и GitLab CI для автоматизации процессов&lt;/p&gt; &lt;p&gt;- Работать с Nginx, Gunicorn/uWSGI, Uvicorn в продакшене&lt;/p&gt; &lt;p&gt;- При необходимости — использовать Jinja2 для серверного рендеринга&lt;/p&gt; &lt;p&gt;- Взаимодействовать с командой по Agile-подходу (Scrum / Kanban)&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Что мы ожидаем от тебя:&lt;/strong&gt;&lt;/p&gt; &lt;p&gt;- 5+ лет коммерческого опыта в разработке веб-приложений с использованием FastAPI / Django / Flask&lt;/p&gt; &lt;p&gt;- Глубокие знания Python Core и стандартных библиотек&lt;/p&gt; &lt;p&gt;- Знание принципов ООП, SOLID, DRY, KISS, REST&lt;/p&gt; &lt;p&gt;- Опыт работы с PostgreSQL и брокерами сообщений (Kafka / RabbitMQ)&lt;/p&gt; &lt;p&gt;- Уверенное владение инструментами тестирования (pytest, юнит-тесты)&lt;/p&gt; &lt;p&gt;- Опыт работы с Docker, CI/CD (желательно GitLab CI)&lt;/p&gt; &lt;p&gt;- Навыки настройки и работы с Nginx, WSGI/ASGI-серверами&lt;/p&gt; &lt;p&gt;- Признание и использование современных AI технологий&lt;/p&gt; &lt;p&gt;- Продуктовый подход&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Условия: &lt;/strong&gt;&lt;/p&gt; &lt;p&gt;- Гибкий график, полностью удаленная работа&lt;/p&gt; &lt;p&gt;- Возможность профессионального роста и развития&lt;/p&gt; &lt;p&gt;- Дружеская и творческая атмосфера в коллективе&lt;/p&gt; &lt;p&gt;- Интересные и разнообразные проекты, которые позволят проявить свои таланты и идеи&lt;/p&gt;</t>
+          <t>&lt;p&gt;Продукт - решение для управления строительством и эксплуатацией промышленных объектов на основе &amp;quot;цифровых двойников&amp;quot; и ей уже пользуются такие гиганты, как Газпром, Норникель, Сибур, а также десятки других крупных застройщиков b2g/b2b.&lt;br /&gt;Наша компания более 6 лет на рынке и численность команды разработки превысила отметку в 70 человек, 5 команд, активная фаза разработки без нудной поддержки.&lt;br /&gt;Сейчас у нас открыты 3 позиции на мидл и сеньор питон разработчика&lt;br /&gt;&lt;strong&gt;Наш стек:&lt;/strong&gt;&lt;br /&gt;Python 3.12, Golang, Django, Fastapi, Celery, Kubernetes, Postgres, Clickhouse, C++, React&lt;br /&gt;&lt;br /&gt;&lt;strong&gt;Задачи:&lt;/strong&gt;&lt;br /&gt;⁃ Ведение разработки на Python 3.х/Go/Django&lt;br /&gt;⁃ Участие в дизайне архитектуры БД под BIM&lt;br /&gt;⁃ Написание запросов к базе данных на SQL или через ORM&lt;br /&gt;⁃ Написание чистого, понятного и поддерживаемого кода&lt;br /&gt;⁃ Работа с RESTfull Web Service&lt;br /&gt;⁃ Разворачивания CI\CD&lt;br /&gt;⁃ Менторинг в перспективе&lt;br /&gt;&lt;br /&gt;&lt;strong&gt;Ожидания:&lt;/strong&gt;&lt;br /&gt;⁃ Опыт коммерческой разработки на &lt;strong&gt;Python 3.х от 3.5х лет обязательно&lt;/strong&gt;&lt;br /&gt;⁃ Знание RabbitMQ, Celery&lt;br /&gt;⁃ Коммерческий опыт с SQL/NoSQL БД&lt;br /&gt;⁃ Навыки уверенного использования Linux обязательно&lt;br /&gt;⁃ Знание и опыт использования Git&lt;br /&gt;⁃ Представление о том как построить RESTfull Web Service&lt;br /&gt;⁃ Опыт с Docker&lt;br /&gt;&lt;br /&gt;&lt;strong&gt;Жирным плюсом будет:&lt;/strong&gt;&lt;br /&gt;⁃ Применение других языков программирования&lt;br /&gt;⁃ Знание/применение Kubernetes (K8s)&lt;br /&gt;⁃ Опыт работы с Postgresql на уровне проектирования архитектуры, имплементации сервисов&lt;br /&gt;&lt;br /&gt;&lt;strong&gt;Мы предлагаем:&lt;/strong&gt;&lt;br /&gt;⁃ Аккредитованная IT компания&lt;br /&gt;⁃ Удалёнка из любого региона или офис на Бауманской&lt;br /&gt;⁃ Белое и прозрачное оформление&lt;br /&gt;⁃ Хорошая вилка, растущая с твоими скиллами&lt;br /&gt;⁃ Интересный и уникальный продукт&lt;br /&gt;⁃ Сплоченная команда и уютный офис на севере Москвы&lt;br /&gt;⁃ Грамотно выстроенные процессы&lt;br /&gt;⁃ ДМС со стоматологией&lt;br /&gt;⁃ Стационарный компьютер в офисе или ноутбук&lt;/p&gt; &lt;h2&gt;Ключевые навыки&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>[{'name': 'Python'}, {'name': 'FastAPI'}, {'name': 'Docker'}, {'name': 'CI/CD'}, {'name': 'GitLab CI'}]</t>
+          <t>[{'name': 'Python'}, {'name': 'PostgreSQL'}, {'name': 'NoSQL'}, {'name': 'MySQL'}, {'name': 'Golang'}, {'name': 'FastAPI'}, {'name': 'Django Framework'}, {'name': 'Django Rest Framework'}, {'name': 'Celery'}, {'name': 'RabbitMQ'}, {'name': 'C/C++'}, {'name': 'Kubernetes'}]</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>2025-04-01T18:55:25+0300</t>
+          <t>2025-04-08T14:56:16+0300</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>2025-04-01T18:55:25+0300</t>
+          <t>2025-04-08T14:56:16+0300</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>https://api.hh.ru/vacancies/118833565?host=hh.ru</t>
+          <t>https://api.hh.ru/vacancies/118252355?host=hh.ru</t>
         </is>
       </c>
     </row>
@@ -3240,17 +3216,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>118831180</t>
+          <t>117112545</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Python разработчик</t>
+          <t>Computer Vision Researcher</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Брянск</t>
+          <t>Москва</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3260,33 +3236,33 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/118831180</t>
+          <t>https://hh.ru/vacancy/117112545</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>&lt;p&gt;Работа в интересном, перспективном направлении ad-tech. Мы предлагаем площадку для покупки и продажи трафика по всему миру.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Стек&lt;/strong&gt;&lt;/p&gt; &lt;p&gt;&lt;br /&gt;Python 3.12+&lt;br /&gt;asyncio/aiohttp/asyncpg&lt;br /&gt;Написание асинхронных запросов к различным API партнеров.&lt;/p&gt; &lt;p&gt;&lt;br /&gt;Django 5+&lt;br /&gt;Отличные знания Django для разработки системы управления рекламной сетью, отображения статистики, разработки API для клиентов. Опыт покрытия кода тестами.&lt;/p&gt; &lt;p&gt;&lt;br /&gt;PostgreSQL&lt;br /&gt;Понимание принципов реляционных БД, написание и оптимизация запросов, как с помощью ORM, так и &amp;quot;сырых&amp;quot;.&lt;/p&gt; &lt;p&gt;&lt;br /&gt;Redis&lt;br /&gt;Опыт работы с key-value хранилищами.&lt;/p&gt; &lt;p&gt;&lt;br /&gt;&lt;strong&gt;Дополнительными плюсами будут:&lt;/strong&gt;&lt;/p&gt; &lt;p&gt;&lt;br /&gt;JavaScript&lt;br /&gt;Базовые знания JS для улучшения работы веб-страниц, HTMX как фреймворк для частичной загрузки и обновления контента.&lt;/p&gt; &lt;p&gt;&lt;br /&gt;ClickHouse&lt;br /&gt;Понимание принципов колоночных БД, написание и оптимизация запросов.&lt;/p&gt; &lt;p&gt;&lt;br /&gt;RabbitMQ&lt;br /&gt;Опыт работы с RabbitMQ, публикация, потребление сообщений, маршрутизация.&lt;strong&gt;Что надо будет делать&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Разрабатывать и модифицировать фичи для администраторской панели и кабинета пользователя высоконагруженного сервиса: таргетирование рекламных кампаний, фильтрация трафика, аналитические инструменты и т.д.&lt;/li&gt; &lt;li&gt;Поддерживать уже существующие разработки.&lt;/li&gt; &lt;li&gt;Взаимодействовать с Golang-частью команды,&lt;/li&gt; &lt;li&gt;качественно и в срок решать бизнес-задачи;&lt;/li&gt; &lt;li&gt;обеспечивать качество работы сервисов.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Условия:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;Удаленная работа&lt;/li&gt; &lt;li&gt;Работа в команде опытных специалистов&lt;/li&gt; &lt;li&gt;Интересные сложные задачи, перспективы роста&lt;/li&gt; &lt;li&gt;Гарантируем серьезный вектор для профессионального развития. От соискателя ждём активную вовлеченность и добросовестного выполнения своих обязанностей&lt;/li&gt; &lt;/ul&gt; &lt;p&gt; &lt;/p&gt;</t>
+          <t>&lt;p&gt;&lt;strong&gt;Tevian &lt;/strong&gt;– российский разработчик систем компьютерного зрения и видеоаналитики. У нас широкий профиль направлений исследований, включая распознавание лиц, документов, силуэтов людей, машин, товаров на полках магазинов и пр. Решения от Tevian лицензируются многими известными компаниями, работающими в области видеонаблюдения, систем контроля доступа и робототехники, как в России, так и в других странах.&lt;/p&gt; &lt;p&gt;Сейчас мы ищем новых коллег в команду Silhouettes. Важно отметить, данная позиция предполагает глубокое погружение в исследовательскую работу. Целевые задачи: реидентификация, multi-modal задачи, трекинг, детекция и др.&lt;/p&gt; &lt;p&gt;С нами ты сможешь прокачаться в кругу звёзд Computer Vision, которые регулярно удерживают нас в топе самого авторитетного рейтинга US National Institute of Standards and Technology. Помимо интересных задач и технологий вас ждут регулярные внутренние семинары, где мы разбираем разные статьи и последние эксперименты наших команд. Кроме того, предоставляем отличный материал для научных работ.&lt;/p&gt; &lt;p&gt;&lt;strong&gt;Наши ожидания:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;уверенное знание основ CV, DL и классического ML&lt;/li&gt; &lt;li&gt;уверенное знание Python и основных ML/DL библиотек&lt;/li&gt; &lt;li&gt;уверенное знание Linux, git, опыт работы с удаленными серверами&lt;/li&gt; &lt;li&gt;опыт написания кода для распределенного обучения&lt;/li&gt; &lt;li&gt;знакомство с основными нейросетевыми архитектурами в CV&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Будет плюсом:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;знание и умение применять методы self-supervised, semi-supervised, unsupervised обучения&lt;/li&gt; &lt;li&gt;наличие статей по итогам конференций и/или в журналах&lt;/li&gt; &lt;li&gt;опыт применения multi-modal методов&lt;/li&gt; &lt;li&gt;участие в соревнованиях по машинному обучению&lt;/li&gt; &lt;li&gt;диплом ШАД&lt;/li&gt; &lt;li&gt;опыт работы с ONNX, TensorRT, TVM&lt;/li&gt; &lt;li&gt;знание C++&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;strong&gt;Мы предлагаем:&lt;/strong&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt;новый классный офис в ЖК «Садовые кварталы», в пешей доступности от м. Фрунзенская&lt;/li&gt; &lt;li&gt;работа в аккредитованной IT компании&lt;/li&gt; &lt;li&gt;гибкий график 5/2, плавающее начало дня, возможна удалёнка&lt;/li&gt; &lt;li&gt;ДМС со стоматологией&lt;/li&gt; &lt;li&gt;компенсация питания, разнообразные снеки в офисе&lt;/li&gt; &lt;li&gt;регулярные внутренние cv-семинары, где разбираем разные статьи и последние эксперименты внутренних команд&lt;/li&gt; &lt;li&gt;вычислительные ресурсы и отдел разметки, обеспечивающие бесперебойную работу&lt;/li&gt; &lt;li&gt;открытость, отсутствие бюрократии&lt;/li&gt; &lt;/ul&gt;</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>[{'name': 'Python'}, {'name': 'Базы данных'}, {'name': 'Django Framework'}]</t>
+          <t>[{'name': 'Python'}, {'name': 'PyTorch'}, {'name': 'Machine Learning'}, {'name': 'Deep Learning'}, {'name': 'OpenCV'}, {'name': 'Алгоритмы'}, {'name': 'Resnet'}, {'name': 'Mobilenet'}, {'name': 'U-net'}, {'name': 'Yolo'}, {'name': 'Deeplab'}, {'name': 'Git'}, {'name': 'Computer Vision'}]</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>2025-04-01T17:26:06+0300</t>
+          <t>2025-05-06T19:02:22+0300</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>2025-04-01T17:26:06+0300</t>
+          <t>2025-05-06T19:02:22+0300</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>https://api.hh.ru/vacancies/118831180?host=hh.ru</t>
+          <t>https://api.hh.ru/vacancies/117112545?host=hh.ru</t>
         </is>
       </c>
     </row>
